--- a/input/base.xlsx
+++ b/input/base.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\andrerodrigues\projetos\licencas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3177A66B-82FB-44A3-90CC-BD8D72C6FC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65540219-14CC-4137-A3BF-BCB3E310B035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21870" yWindow="1220" windowWidth="19080" windowHeight="10750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="escolas" sheetId="1" r:id="rId1"/>
-    <sheet name="revendas" sheetId="2" r:id="rId2"/>
-    <sheet name="segmentos" sheetId="3" r:id="rId3"/>
-    <sheet name="grade_bilingue" sheetId="4" r:id="rId4"/>
-    <sheet name="tag_extra_bilingue" sheetId="6" r:id="rId5"/>
-    <sheet name="grade_itinerario" sheetId="7" r:id="rId6"/>
+    <sheet name="tag_year" sheetId="8" r:id="rId2"/>
+    <sheet name="revendas" sheetId="2" r:id="rId3"/>
+    <sheet name="grade_itinerario" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">escolas!$A$1:$AA$953</definedName>
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12184" uniqueCount="6524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12120" uniqueCount="6473">
   <si>
     <t>TenantId</t>
   </si>
@@ -19438,184 +19436,31 @@
     <t>Grade</t>
   </si>
   <si>
-    <t>Grade_tag</t>
-  </si>
-  <si>
-    <t>1º ANO</t>
-  </si>
-  <si>
-    <t>EF1</t>
-  </si>
-  <si>
-    <t>2º ANO</t>
-  </si>
-  <si>
-    <t>EF2</t>
-  </si>
-  <si>
-    <t>3º ANO</t>
-  </si>
-  <si>
-    <t>EF3</t>
-  </si>
-  <si>
-    <t>4º ANO</t>
-  </si>
-  <si>
-    <t>EF4</t>
-  </si>
-  <si>
-    <t>5º ANO</t>
-  </si>
-  <si>
-    <t>EF5</t>
-  </si>
-  <si>
-    <t>6º ANO</t>
-  </si>
-  <si>
-    <t>EF6</t>
-  </si>
-  <si>
-    <t>7º ANO</t>
-  </si>
-  <si>
-    <t>EF7</t>
-  </si>
-  <si>
-    <t>8º ANO</t>
-  </si>
-  <si>
-    <t>EF8</t>
-  </si>
-  <si>
-    <t>9º ANO</t>
-  </si>
-  <si>
-    <t>EF9</t>
-  </si>
-  <si>
-    <t>1 ANO</t>
-  </si>
-  <si>
-    <t>EI1</t>
-  </si>
-  <si>
-    <t>2 ANOS</t>
-  </si>
-  <si>
-    <t>EI2</t>
-  </si>
-  <si>
-    <t>3 ANOS</t>
-  </si>
-  <si>
-    <t>EI3</t>
-  </si>
-  <si>
-    <t>4 ANOS</t>
-  </si>
-  <si>
-    <t>EI4</t>
-  </si>
-  <si>
-    <t>5 ANOS</t>
-  </si>
-  <si>
-    <t>EI5</t>
-  </si>
-  <si>
-    <t>1ª SÉRIE</t>
-  </si>
-  <si>
     <t>EM1</t>
   </si>
   <si>
-    <t>2ª SÉRIE</t>
-  </si>
-  <si>
     <t>EM2</t>
   </si>
   <si>
-    <t>3ª SÉRIE</t>
-  </si>
-  <si>
     <t>EM3</t>
   </si>
   <si>
-    <t>SEMI EXTENSIVO I</t>
-  </si>
-  <si>
     <t>PVSE</t>
   </si>
   <si>
-    <t>PRE VESTIBULAR</t>
-  </si>
-  <si>
     <t>PV</t>
   </si>
   <si>
-    <t>Grade_bilingue</t>
-  </si>
-  <si>
-    <t>Toddlers 1</t>
-  </si>
-  <si>
-    <t>Toddlers 2 </t>
-  </si>
-  <si>
-    <t>Pre K3</t>
-  </si>
-  <si>
-    <t>Pre K4</t>
-  </si>
-  <si>
-    <t>Kindergarten</t>
-  </si>
-  <si>
-    <t>Grade 1</t>
-  </si>
-  <si>
-    <t>Grade 2</t>
-  </si>
-  <si>
-    <t>Grade 3</t>
-  </si>
-  <si>
-    <t>Grade 4</t>
-  </si>
-  <si>
-    <t>Grade 5</t>
-  </si>
-  <si>
-    <t>Grade 6</t>
-  </si>
-  <si>
-    <t>Grade 7</t>
-  </si>
-  <si>
-    <t>Grade 8</t>
-  </si>
-  <si>
-    <t>Grade 9</t>
-  </si>
-  <si>
-    <t>Grade 10</t>
-  </si>
-  <si>
-    <t>Grade 11</t>
-  </si>
-  <si>
-    <t>Grade 12</t>
-  </si>
-  <si>
-    <t>Pre K3 / Nursery*</t>
-  </si>
-  <si>
     <t>Grade_seg</t>
   </si>
   <si>
     <t>ITINERÁRIO FORMATIVO</t>
+  </si>
+  <si>
+    <t>ESCOLA</t>
+  </si>
+  <si>
+    <t>CNPJ</t>
   </si>
 </sst>
 </file>
@@ -19625,7 +19470,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -19656,12 +19501,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -19697,7 +19536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -19710,7 +19549,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19926,14 +19764,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA2177"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A925" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F925" sqref="F925:F926"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -20012,7 +19850,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25">
+    <row r="2" spans="1:26" ht="14.25" hidden="1">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -20059,7 +19897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25">
+    <row r="3" spans="1:26" ht="14.25" hidden="1">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -20106,7 +19944,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25">
+    <row r="4" spans="1:26" ht="14.25" hidden="1">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -20150,7 +19988,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25">
+    <row r="5" spans="1:26" ht="14.25" hidden="1">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
@@ -20194,7 +20032,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25">
+    <row r="6" spans="1:26" ht="14.25" hidden="1">
       <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
@@ -20241,7 +20079,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25">
+    <row r="7" spans="1:26" ht="14.25" hidden="1">
       <c r="A7" s="3" t="s">
         <v>66</v>
       </c>
@@ -20285,7 +20123,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25">
+    <row r="8" spans="1:26" ht="14.25" hidden="1">
       <c r="A8" s="3" t="s">
         <v>76</v>
       </c>
@@ -20329,7 +20167,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25">
+    <row r="9" spans="1:26" ht="14.25" hidden="1">
       <c r="A9" s="3" t="s">
         <v>81</v>
       </c>
@@ -20373,7 +20211,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25">
+    <row r="10" spans="1:26" ht="14.25" hidden="1">
       <c r="A10" s="3" t="s">
         <v>90</v>
       </c>
@@ -20417,7 +20255,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25">
+    <row r="11" spans="1:26" ht="14.25" hidden="1">
       <c r="A11" s="3" t="s">
         <v>98</v>
       </c>
@@ -20461,7 +20299,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25">
+    <row r="12" spans="1:26" ht="14.25" hidden="1">
       <c r="A12" s="3" t="s">
         <v>107</v>
       </c>
@@ -20505,7 +20343,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25">
+    <row r="13" spans="1:26" ht="14.25" hidden="1">
       <c r="A13" s="3" t="s">
         <v>116</v>
       </c>
@@ -20549,7 +20387,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25">
+    <row r="14" spans="1:26" ht="14.25" hidden="1">
       <c r="A14" s="3" t="s">
         <v>125</v>
       </c>
@@ -20593,7 +20431,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25">
+    <row r="15" spans="1:26" ht="14.25" hidden="1">
       <c r="A15" s="3" t="s">
         <v>132</v>
       </c>
@@ -20640,7 +20478,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25">
+    <row r="16" spans="1:26" ht="14.25" hidden="1">
       <c r="A16" s="3" t="s">
         <v>143</v>
       </c>
@@ -20684,7 +20522,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="14.25">
+    <row r="17" spans="1:15" ht="14.25" hidden="1">
       <c r="A17" s="3" t="s">
         <v>66</v>
       </c>
@@ -20728,7 +20566,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="14.25">
+    <row r="18" spans="1:15" ht="14.25" hidden="1">
       <c r="A18" s="3" t="s">
         <v>152</v>
       </c>
@@ -20772,7 +20610,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="14.25">
+    <row r="19" spans="1:15" ht="14.25" hidden="1">
       <c r="A19" s="3" t="s">
         <v>161</v>
       </c>
@@ -20816,7 +20654,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="14.25">
+    <row r="20" spans="1:15" ht="14.25" hidden="1">
       <c r="A20" s="3" t="s">
         <v>170</v>
       </c>
@@ -20863,7 +20701,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="14.25">
+    <row r="21" spans="1:15" ht="14.25" hidden="1">
       <c r="A21" s="3" t="s">
         <v>181</v>
       </c>
@@ -20907,7 +20745,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="14.25">
+    <row r="22" spans="1:15" ht="14.25" hidden="1">
       <c r="A22" s="3" t="s">
         <v>190</v>
       </c>
@@ -20954,7 +20792,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="14.25">
+    <row r="23" spans="1:15" ht="14.25" hidden="1">
       <c r="A23" s="3" t="s">
         <v>197</v>
       </c>
@@ -20998,7 +20836,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="14.25">
+    <row r="24" spans="1:15" ht="14.25" hidden="1">
       <c r="A24" s="3" t="s">
         <v>206</v>
       </c>
@@ -21042,7 +20880,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="14.25">
+    <row r="25" spans="1:15" ht="14.25" hidden="1">
       <c r="A25" s="3" t="s">
         <v>214</v>
       </c>
@@ -21086,7 +20924,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="14.25">
+    <row r="26" spans="1:15" ht="14.25" hidden="1">
       <c r="A26" s="3" t="s">
         <v>222</v>
       </c>
@@ -21133,7 +20971,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="14.25">
+    <row r="27" spans="1:15" ht="14.25" hidden="1">
       <c r="A27" s="3" t="s">
         <v>230</v>
       </c>
@@ -21177,7 +21015,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="14.25">
+    <row r="28" spans="1:15" ht="14.25" hidden="1">
       <c r="A28" s="3" t="s">
         <v>238</v>
       </c>
@@ -21224,7 +21062,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="14.25">
+    <row r="29" spans="1:15" ht="14.25" hidden="1">
       <c r="A29" s="3" t="s">
         <v>247</v>
       </c>
@@ -21268,7 +21106,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="14.25">
+    <row r="30" spans="1:15" ht="14.25" hidden="1">
       <c r="A30" s="3" t="s">
         <v>255</v>
       </c>
@@ -21312,7 +21150,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="14.25">
+    <row r="31" spans="1:15" ht="14.25" hidden="1">
       <c r="A31" s="3" t="s">
         <v>262</v>
       </c>
@@ -21356,7 +21194,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="14.25">
+    <row r="32" spans="1:15" ht="14.25" hidden="1">
       <c r="A32" s="3" t="s">
         <v>270</v>
       </c>
@@ -21403,7 +21241,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="14.25">
+    <row r="33" spans="1:15" ht="14.25" hidden="1">
       <c r="A33" s="3" t="s">
         <v>277</v>
       </c>
@@ -21450,7 +21288,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="14.25">
+    <row r="34" spans="1:15" ht="14.25" hidden="1">
       <c r="A34" s="3" t="s">
         <v>285</v>
       </c>
@@ -21497,7 +21335,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="14.25">
+    <row r="35" spans="1:15" ht="14.25" hidden="1">
       <c r="A35" s="3" t="s">
         <v>292</v>
       </c>
@@ -21541,7 +21379,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="14.25">
+    <row r="36" spans="1:15" ht="14.25" hidden="1">
       <c r="A36" s="3" t="s">
         <v>299</v>
       </c>
@@ -21585,7 +21423,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="14.25">
+    <row r="37" spans="1:15" ht="14.25" hidden="1">
       <c r="A37" s="3" t="s">
         <v>307</v>
       </c>
@@ -21629,7 +21467,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="14.25">
+    <row r="38" spans="1:15" ht="14.25" hidden="1">
       <c r="A38" s="3" t="s">
         <v>315</v>
       </c>
@@ -21673,7 +21511,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="14.25">
+    <row r="39" spans="1:15" ht="14.25" hidden="1">
       <c r="A39" s="3" t="s">
         <v>323</v>
       </c>
@@ -21717,7 +21555,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="14.25">
+    <row r="40" spans="1:15" ht="14.25" hidden="1">
       <c r="A40" s="3" t="s">
         <v>329</v>
       </c>
@@ -21761,7 +21599,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="14.25">
+    <row r="41" spans="1:15" ht="14.25" hidden="1">
       <c r="A41" s="3" t="s">
         <v>338</v>
       </c>
@@ -21805,7 +21643,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="14.25">
+    <row r="42" spans="1:15" ht="14.25" hidden="1">
       <c r="A42" s="3" t="s">
         <v>345</v>
       </c>
@@ -21852,7 +21690,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="14.25">
+    <row r="43" spans="1:15" ht="14.25" hidden="1">
       <c r="A43" s="3" t="s">
         <v>354</v>
       </c>
@@ -21896,7 +21734,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="14.25">
+    <row r="44" spans="1:15" ht="14.25" hidden="1">
       <c r="A44" s="3" t="s">
         <v>362</v>
       </c>
@@ -21940,7 +21778,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="14.25">
+    <row r="45" spans="1:15" ht="14.25" hidden="1">
       <c r="A45" s="3" t="s">
         <v>370</v>
       </c>
@@ -21984,7 +21822,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="14.25">
+    <row r="46" spans="1:15" ht="14.25" hidden="1">
       <c r="A46" s="3" t="s">
         <v>378</v>
       </c>
@@ -22028,7 +21866,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="14.25">
+    <row r="47" spans="1:15" ht="14.25" hidden="1">
       <c r="A47" s="3" t="s">
         <v>386</v>
       </c>
@@ -22072,7 +21910,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="14.25">
+    <row r="48" spans="1:15" ht="14.25" hidden="1">
       <c r="A48" s="3" t="s">
         <v>393</v>
       </c>
@@ -22116,7 +21954,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="14.25">
+    <row r="49" spans="1:15" ht="14.25" hidden="1">
       <c r="A49" s="3" t="s">
         <v>402</v>
       </c>
@@ -22160,7 +21998,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="14.25">
+    <row r="50" spans="1:15" ht="14.25" hidden="1">
       <c r="A50" s="3" t="s">
         <v>410</v>
       </c>
@@ -22204,7 +22042,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="14.25">
+    <row r="51" spans="1:15" ht="14.25" hidden="1">
       <c r="A51" s="3" t="s">
         <v>419</v>
       </c>
@@ -22248,7 +22086,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="14.25">
+    <row r="52" spans="1:15" ht="14.25" hidden="1">
       <c r="A52" s="3" t="s">
         <v>425</v>
       </c>
@@ -22292,7 +22130,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="14.25">
+    <row r="53" spans="1:15" ht="14.25" hidden="1">
       <c r="A53" s="3" t="s">
         <v>432</v>
       </c>
@@ -22336,7 +22174,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="14.25">
+    <row r="54" spans="1:15" ht="14.25" hidden="1">
       <c r="A54" s="3" t="s">
         <v>439</v>
       </c>
@@ -22380,7 +22218,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="14.25">
+    <row r="55" spans="1:15" ht="14.25" hidden="1">
       <c r="A55" s="3" t="s">
         <v>445</v>
       </c>
@@ -22424,7 +22262,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="14.25">
+    <row r="56" spans="1:15" ht="14.25" hidden="1">
       <c r="A56" s="3" t="s">
         <v>452</v>
       </c>
@@ -22468,7 +22306,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="14.25">
+    <row r="57" spans="1:15" ht="14.25" hidden="1">
       <c r="A57" s="3" t="s">
         <v>459</v>
       </c>
@@ -22512,7 +22350,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="14.25">
+    <row r="58" spans="1:15" ht="14.25" hidden="1">
       <c r="A58" s="3" t="s">
         <v>465</v>
       </c>
@@ -22556,7 +22394,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="14.25">
+    <row r="59" spans="1:15" ht="14.25" hidden="1">
       <c r="A59" s="3" t="s">
         <v>472</v>
       </c>
@@ -22600,7 +22438,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="14.25">
+    <row r="60" spans="1:15" ht="14.25" hidden="1">
       <c r="A60" s="3" t="s">
         <v>479</v>
       </c>
@@ -22644,7 +22482,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="14.25">
+    <row r="61" spans="1:15" ht="14.25" hidden="1">
       <c r="A61" s="3" t="s">
         <v>485</v>
       </c>
@@ -22688,7 +22526,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="14.25">
+    <row r="62" spans="1:15" ht="14.25" hidden="1">
       <c r="A62" s="3" t="s">
         <v>491</v>
       </c>
@@ -22732,7 +22570,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="14.25">
+    <row r="63" spans="1:15" ht="14.25" hidden="1">
       <c r="A63" s="3" t="s">
         <v>498</v>
       </c>
@@ -22779,7 +22617,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="14.25">
+    <row r="64" spans="1:15" ht="14.25" hidden="1">
       <c r="A64" s="3" t="s">
         <v>506</v>
       </c>
@@ -22823,7 +22661,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="14.25">
+    <row r="65" spans="1:15" ht="14.25" hidden="1">
       <c r="A65" s="3" t="s">
         <v>512</v>
       </c>
@@ -22867,7 +22705,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="14.25">
+    <row r="66" spans="1:15" ht="14.25" hidden="1">
       <c r="A66" s="3" t="s">
         <v>512</v>
       </c>
@@ -22911,7 +22749,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="14.25">
+    <row r="67" spans="1:15" ht="14.25" hidden="1">
       <c r="A67" s="3" t="s">
         <v>526</v>
       </c>
@@ -22958,7 +22796,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="14.25">
+    <row r="68" spans="1:15" ht="14.25" hidden="1">
       <c r="A68" s="3" t="s">
         <v>533</v>
       </c>
@@ -23002,7 +22840,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="14.25">
+    <row r="69" spans="1:15" ht="14.25" hidden="1">
       <c r="A69" s="3" t="s">
         <v>540</v>
       </c>
@@ -23049,7 +22887,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="14.25">
+    <row r="70" spans="1:15" ht="14.25" hidden="1">
       <c r="A70" s="3" t="s">
         <v>540</v>
       </c>
@@ -23096,7 +22934,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="14.25">
+    <row r="71" spans="1:15" ht="14.25" hidden="1">
       <c r="A71" s="3" t="s">
         <v>552</v>
       </c>
@@ -23140,7 +22978,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="14.25">
+    <row r="72" spans="1:15" ht="14.25" hidden="1">
       <c r="A72" s="3" t="s">
         <v>559</v>
       </c>
@@ -23181,7 +23019,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="14.25">
+    <row r="73" spans="1:15" ht="14.25" hidden="1">
       <c r="A73" s="3" t="s">
         <v>565</v>
       </c>
@@ -23225,7 +23063,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="14.25">
+    <row r="74" spans="1:15" ht="14.25" hidden="1">
       <c r="A74" s="3" t="s">
         <v>572</v>
       </c>
@@ -23272,7 +23110,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="14.25">
+    <row r="75" spans="1:15" ht="14.25" hidden="1">
       <c r="A75" s="3" t="s">
         <v>581</v>
       </c>
@@ -23319,7 +23157,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="14.25">
+    <row r="76" spans="1:15" ht="14.25" hidden="1">
       <c r="A76" s="3" t="s">
         <v>581</v>
       </c>
@@ -23363,7 +23201,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="14.25">
+    <row r="77" spans="1:15" ht="14.25" hidden="1">
       <c r="A77" s="3" t="s">
         <v>593</v>
       </c>
@@ -23407,7 +23245,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="14.25">
+    <row r="78" spans="1:15" ht="14.25" hidden="1">
       <c r="A78" s="3" t="s">
         <v>593</v>
       </c>
@@ -23448,7 +23286,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="14.25">
+    <row r="79" spans="1:15" ht="14.25" hidden="1">
       <c r="A79" s="3" t="s">
         <v>606</v>
       </c>
@@ -23495,7 +23333,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="14.25">
+    <row r="80" spans="1:15" ht="14.25" hidden="1">
       <c r="A80" s="3" t="s">
         <v>613</v>
       </c>
@@ -23539,7 +23377,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="14.25">
+    <row r="81" spans="1:15" ht="14.25" hidden="1">
       <c r="A81" s="3" t="s">
         <v>621</v>
       </c>
@@ -23583,7 +23421,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="14.25">
+    <row r="82" spans="1:15" ht="14.25" hidden="1">
       <c r="A82" s="3" t="s">
         <v>629</v>
       </c>
@@ -23630,7 +23468,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="14.25">
+    <row r="83" spans="1:15" ht="14.25" hidden="1">
       <c r="A83" s="3" t="s">
         <v>637</v>
       </c>
@@ -23674,7 +23512,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="14.25">
+    <row r="84" spans="1:15" ht="14.25" hidden="1">
       <c r="A84" s="3" t="s">
         <v>644</v>
       </c>
@@ -23718,7 +23556,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="14.25">
+    <row r="85" spans="1:15" ht="14.25" hidden="1">
       <c r="A85" s="3" t="s">
         <v>647</v>
       </c>
@@ -23762,7 +23600,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="14.25">
+    <row r="86" spans="1:15" ht="14.25" hidden="1">
       <c r="A86" s="3" t="s">
         <v>655</v>
       </c>
@@ -23806,7 +23644,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="14.25">
+    <row r="87" spans="1:15" ht="14.25" hidden="1">
       <c r="A87" s="3" t="s">
         <v>661</v>
       </c>
@@ -23850,7 +23688,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="14.25">
+    <row r="88" spans="1:15" ht="14.25" hidden="1">
       <c r="A88" s="3" t="s">
         <v>667</v>
       </c>
@@ -23894,7 +23732,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="14.25">
+    <row r="89" spans="1:15" ht="14.25" hidden="1">
       <c r="A89" s="3" t="s">
         <v>673</v>
       </c>
@@ -23938,7 +23776,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="14.25">
+    <row r="90" spans="1:15" ht="14.25" hidden="1">
       <c r="A90" s="3" t="s">
         <v>680</v>
       </c>
@@ -23985,7 +23823,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="14.25">
+    <row r="91" spans="1:15" ht="14.25" hidden="1">
       <c r="A91" s="3" t="s">
         <v>680</v>
       </c>
@@ -24032,7 +23870,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="14.25">
+    <row r="92" spans="1:15" ht="14.25" hidden="1">
       <c r="A92" s="3" t="s">
         <v>680</v>
       </c>
@@ -24079,7 +23917,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="14.25">
+    <row r="93" spans="1:15" ht="14.25" hidden="1">
       <c r="A93" s="3" t="s">
         <v>680</v>
       </c>
@@ -24126,7 +23964,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="14.25">
+    <row r="94" spans="1:15" ht="14.25" hidden="1">
       <c r="A94" s="3" t="s">
         <v>680</v>
       </c>
@@ -24173,7 +24011,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="14.25">
+    <row r="95" spans="1:15" ht="14.25" hidden="1">
       <c r="A95" s="3" t="s">
         <v>713</v>
       </c>
@@ -24220,7 +24058,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="14.25">
+    <row r="96" spans="1:15" ht="14.25" hidden="1">
       <c r="A96" s="3" t="s">
         <v>720</v>
       </c>
@@ -24264,7 +24102,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="14.25">
+    <row r="97" spans="1:15" ht="14.25" hidden="1">
       <c r="A97" s="3" t="s">
         <v>726</v>
       </c>
@@ -24308,7 +24146,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="14.25">
+    <row r="98" spans="1:15" ht="14.25" hidden="1">
       <c r="A98" s="3" t="s">
         <v>733</v>
       </c>
@@ -24355,7 +24193,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="14.25">
+    <row r="99" spans="1:15" ht="14.25" hidden="1">
       <c r="A99" s="3" t="s">
         <v>739</v>
       </c>
@@ -24402,7 +24240,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="14.25">
+    <row r="100" spans="1:15" ht="14.25" hidden="1">
       <c r="A100" s="3" t="s">
         <v>746</v>
       </c>
@@ -24446,7 +24284,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="14.25">
+    <row r="101" spans="1:15" ht="14.25" hidden="1">
       <c r="A101" s="3" t="s">
         <v>754</v>
       </c>
@@ -24493,7 +24331,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="14.25">
+    <row r="102" spans="1:15" ht="14.25" hidden="1">
       <c r="A102" s="3" t="s">
         <v>762</v>
       </c>
@@ -24537,7 +24375,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="14.25">
+    <row r="103" spans="1:15" ht="14.25" hidden="1">
       <c r="A103" s="3" t="s">
         <v>771</v>
       </c>
@@ -24581,7 +24419,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="14.25">
+    <row r="104" spans="1:15" ht="14.25" hidden="1">
       <c r="A104" s="3" t="s">
         <v>778</v>
       </c>
@@ -24628,7 +24466,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="14.25">
+    <row r="105" spans="1:15" ht="14.25" hidden="1">
       <c r="A105" s="3" t="s">
         <v>787</v>
       </c>
@@ -24672,7 +24510,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="14.25">
+    <row r="106" spans="1:15" ht="14.25" hidden="1">
       <c r="A106" s="3" t="s">
         <v>795</v>
       </c>
@@ -24716,7 +24554,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="14.25">
+    <row r="107" spans="1:15" ht="14.25" hidden="1">
       <c r="A107" s="3" t="s">
         <v>801</v>
       </c>
@@ -24760,7 +24598,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="14.25">
+    <row r="108" spans="1:15" ht="14.25" hidden="1">
       <c r="A108" s="3" t="s">
         <v>807</v>
       </c>
@@ -24804,7 +24642,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="14.25">
+    <row r="109" spans="1:15" ht="14.25" hidden="1">
       <c r="A109" s="3" t="s">
         <v>813</v>
       </c>
@@ -24848,7 +24686,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="14.25">
+    <row r="110" spans="1:15" ht="14.25" hidden="1">
       <c r="A110" s="3" t="s">
         <v>820</v>
       </c>
@@ -24892,7 +24730,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="14.25">
+    <row r="111" spans="1:15" ht="14.25" hidden="1">
       <c r="A111" s="3" t="s">
         <v>827</v>
       </c>
@@ -24939,7 +24777,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="14.25">
+    <row r="112" spans="1:15" ht="14.25" hidden="1">
       <c r="A112" s="3" t="s">
         <v>834</v>
       </c>
@@ -24986,7 +24824,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="14.25">
+    <row r="113" spans="1:15" ht="14.25" hidden="1">
       <c r="A113" s="3" t="s">
         <v>841</v>
       </c>
@@ -25030,7 +24868,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="14.25">
+    <row r="114" spans="1:15" ht="14.25" hidden="1">
       <c r="A114" s="3" t="s">
         <v>847</v>
       </c>
@@ -25074,7 +24912,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="14.25">
+    <row r="115" spans="1:15" ht="14.25" hidden="1">
       <c r="A115" s="3" t="s">
         <v>855</v>
       </c>
@@ -25118,7 +24956,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="14.25">
+    <row r="116" spans="1:15" ht="14.25" hidden="1">
       <c r="A116" s="3" t="s">
         <v>863</v>
       </c>
@@ -25165,7 +25003,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="14.25">
+    <row r="117" spans="1:15" ht="14.25" hidden="1">
       <c r="A117" s="3" t="s">
         <v>870</v>
       </c>
@@ -25209,7 +25047,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="14.25">
+    <row r="118" spans="1:15" ht="14.25" hidden="1">
       <c r="A118" s="3" t="s">
         <v>877</v>
       </c>
@@ -25256,7 +25094,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="14.25">
+    <row r="119" spans="1:15" ht="14.25" hidden="1">
       <c r="A119" s="3" t="s">
         <v>885</v>
       </c>
@@ -25300,7 +25138,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="14.25">
+    <row r="120" spans="1:15" ht="14.25" hidden="1">
       <c r="A120" s="3" t="s">
         <v>892</v>
       </c>
@@ -25347,7 +25185,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="14.25">
+    <row r="121" spans="1:15" ht="14.25" hidden="1">
       <c r="A121" s="3" t="s">
         <v>899</v>
       </c>
@@ -25391,7 +25229,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="14.25">
+    <row r="122" spans="1:15" ht="14.25" hidden="1">
       <c r="A122" s="3" t="s">
         <v>907</v>
       </c>
@@ -25435,7 +25273,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="14.25">
+    <row r="123" spans="1:15" ht="14.25" hidden="1">
       <c r="A123" s="3" t="s">
         <v>915</v>
       </c>
@@ -25479,7 +25317,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="14.25">
+    <row r="124" spans="1:15" ht="14.25" hidden="1">
       <c r="A124" s="3" t="s">
         <v>922</v>
       </c>
@@ -25526,7 +25364,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="14.25">
+    <row r="125" spans="1:15" ht="14.25" hidden="1">
       <c r="A125" s="3" t="s">
         <v>930</v>
       </c>
@@ -25570,7 +25408,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="14.25">
+    <row r="126" spans="1:15" ht="14.25" hidden="1">
       <c r="A126" s="3" t="s">
         <v>937</v>
       </c>
@@ -25614,7 +25452,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="14.25">
+    <row r="127" spans="1:15" ht="14.25" hidden="1">
       <c r="A127" s="3" t="s">
         <v>944</v>
       </c>
@@ -25661,7 +25499,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="14.25">
+    <row r="128" spans="1:15" ht="14.25" hidden="1">
       <c r="A128" s="3" t="s">
         <v>951</v>
       </c>
@@ -25705,7 +25543,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="14.25">
+    <row r="129" spans="1:15" ht="14.25" hidden="1">
       <c r="A129" s="3" t="s">
         <v>958</v>
       </c>
@@ -25749,7 +25587,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="14.25">
+    <row r="130" spans="1:15" ht="14.25" hidden="1">
       <c r="A130" s="3" t="s">
         <v>965</v>
       </c>
@@ -25793,7 +25631,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="14.25">
+    <row r="131" spans="1:15" ht="14.25" hidden="1">
       <c r="A131" s="3" t="s">
         <v>972</v>
       </c>
@@ -25840,7 +25678,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="14.25">
+    <row r="132" spans="1:15" ht="14.25" hidden="1">
       <c r="A132" s="3" t="s">
         <v>980</v>
       </c>
@@ -25884,7 +25722,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="14.25">
+    <row r="133" spans="1:15" ht="14.25" hidden="1">
       <c r="A133" s="3" t="s">
         <v>980</v>
       </c>
@@ -25928,7 +25766,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="14.25">
+    <row r="134" spans="1:15" ht="14.25" hidden="1">
       <c r="A134" s="3" t="s">
         <v>980</v>
       </c>
@@ -25975,7 +25813,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="14.25">
+    <row r="135" spans="1:15" ht="14.25" hidden="1">
       <c r="A135" s="3" t="s">
         <v>998</v>
       </c>
@@ -26019,7 +25857,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="14.25">
+    <row r="136" spans="1:15" ht="14.25" hidden="1">
       <c r="A136" s="3" t="s">
         <v>1005</v>
       </c>
@@ -26066,7 +25904,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="14.25">
+    <row r="137" spans="1:15" ht="14.25" hidden="1">
       <c r="A137" s="3" t="s">
         <v>1011</v>
       </c>
@@ -26113,7 +25951,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="14.25">
+    <row r="138" spans="1:15" ht="14.25" hidden="1">
       <c r="A138" s="3" t="s">
         <v>1020</v>
       </c>
@@ -26157,7 +25995,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="14.25">
+    <row r="139" spans="1:15" ht="14.25" hidden="1">
       <c r="A139" s="3" t="s">
         <v>1028</v>
       </c>
@@ -26204,7 +26042,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="14.25">
+    <row r="140" spans="1:15" ht="14.25" hidden="1">
       <c r="A140" s="3" t="s">
         <v>1035</v>
       </c>
@@ -26248,7 +26086,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="14.25">
+    <row r="141" spans="1:15" ht="14.25" hidden="1">
       <c r="A141" s="3" t="s">
         <v>1043</v>
       </c>
@@ -26295,7 +26133,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="14.25">
+    <row r="142" spans="1:15" ht="14.25" hidden="1">
       <c r="A142" s="3" t="s">
         <v>1050</v>
       </c>
@@ -26339,7 +26177,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="14.25">
+    <row r="143" spans="1:15" ht="14.25" hidden="1">
       <c r="A143" s="3" t="s">
         <v>1057</v>
       </c>
@@ -26386,7 +26224,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="14.25">
+    <row r="144" spans="1:15" ht="14.25" hidden="1">
       <c r="A144" s="3" t="s">
         <v>1065</v>
       </c>
@@ -26430,7 +26268,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="14.25">
+    <row r="145" spans="1:15" ht="14.25" hidden="1">
       <c r="A145" s="3" t="s">
         <v>1073</v>
       </c>
@@ -26477,7 +26315,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="14.25">
+    <row r="146" spans="1:15" ht="14.25" hidden="1">
       <c r="A146" s="3" t="s">
         <v>1079</v>
       </c>
@@ -26524,7 +26362,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="14.25">
+    <row r="147" spans="1:15" ht="14.25" hidden="1">
       <c r="A147" s="3" t="s">
         <v>1088</v>
       </c>
@@ -26571,7 +26409,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="14.25">
+    <row r="148" spans="1:15" ht="14.25" hidden="1">
       <c r="A148" s="3" t="s">
         <v>1095</v>
       </c>
@@ -26615,7 +26453,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="14.25">
+    <row r="149" spans="1:15" ht="14.25" hidden="1">
       <c r="A149" s="3" t="s">
         <v>1103</v>
       </c>
@@ -26659,7 +26497,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="14.25">
+    <row r="150" spans="1:15" ht="14.25" hidden="1">
       <c r="A150" s="3" t="s">
         <v>1111</v>
       </c>
@@ -26706,7 +26544,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="14.25">
+    <row r="151" spans="1:15" ht="14.25" hidden="1">
       <c r="A151" s="3" t="s">
         <v>1117</v>
       </c>
@@ -26753,7 +26591,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="14.25">
+    <row r="152" spans="1:15" ht="14.25" hidden="1">
       <c r="A152" s="3" t="s">
         <v>1123</v>
       </c>
@@ -26800,7 +26638,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="14.25">
+    <row r="153" spans="1:15" ht="14.25" hidden="1">
       <c r="A153" s="3" t="s">
         <v>1131</v>
       </c>
@@ -26847,7 +26685,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="14.25">
+    <row r="154" spans="1:15" ht="14.25" hidden="1">
       <c r="A154" s="3" t="s">
         <v>1139</v>
       </c>
@@ -26894,7 +26732,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="14.25">
+    <row r="155" spans="1:15" ht="14.25" hidden="1">
       <c r="A155" s="3" t="s">
         <v>1146</v>
       </c>
@@ -26938,7 +26776,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="14.25">
+    <row r="156" spans="1:15" ht="14.25" hidden="1">
       <c r="A156" s="3" t="s">
         <v>44</v>
       </c>
@@ -26985,7 +26823,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="14.25">
+    <row r="157" spans="1:15" ht="14.25" hidden="1">
       <c r="A157" s="3" t="s">
         <v>1155</v>
       </c>
@@ -27029,7 +26867,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="14.25">
+    <row r="158" spans="1:15" ht="14.25" hidden="1">
       <c r="A158" s="3" t="s">
         <v>1162</v>
       </c>
@@ -27076,7 +26914,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="14.25">
+    <row r="159" spans="1:15" ht="14.25" hidden="1">
       <c r="A159" s="3" t="s">
         <v>1168</v>
       </c>
@@ -27120,7 +26958,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="14.25">
+    <row r="160" spans="1:15" ht="14.25" hidden="1">
       <c r="A160" s="3" t="s">
         <v>1175</v>
       </c>
@@ -27167,7 +27005,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="14.25">
+    <row r="161" spans="1:15" ht="14.25" hidden="1">
       <c r="A161" s="3" t="s">
         <v>1183</v>
       </c>
@@ -27211,7 +27049,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="14.25">
+    <row r="162" spans="1:15" ht="14.25" hidden="1">
       <c r="A162" s="3" t="s">
         <v>1190</v>
       </c>
@@ -27255,7 +27093,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="14.25">
+    <row r="163" spans="1:15" ht="14.25" hidden="1">
       <c r="A163" s="3" t="s">
         <v>1198</v>
       </c>
@@ -27302,7 +27140,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="14.25">
+    <row r="164" spans="1:15" ht="14.25" hidden="1">
       <c r="A164" s="3" t="s">
         <v>1198</v>
       </c>
@@ -27346,7 +27184,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="14.25">
+    <row r="165" spans="1:15" ht="14.25" hidden="1">
       <c r="A165" s="3" t="s">
         <v>1198</v>
       </c>
@@ -27393,7 +27231,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="14.25">
+    <row r="166" spans="1:15" ht="14.25" hidden="1">
       <c r="A166" s="3" t="s">
         <v>1215</v>
       </c>
@@ -27437,7 +27275,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="14.25">
+    <row r="167" spans="1:15" ht="14.25" hidden="1">
       <c r="A167" s="3" t="s">
         <v>1222</v>
       </c>
@@ -27481,7 +27319,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="14.25">
+    <row r="168" spans="1:15" ht="14.25" hidden="1">
       <c r="A168" s="3" t="s">
         <v>1228</v>
       </c>
@@ -27528,7 +27366,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="14.25">
+    <row r="169" spans="1:15" ht="14.25" hidden="1">
       <c r="A169" s="3" t="s">
         <v>1238</v>
       </c>
@@ -27572,7 +27410,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="14.25">
+    <row r="170" spans="1:15" ht="14.25" hidden="1">
       <c r="A170" s="3" t="s">
         <v>1246</v>
       </c>
@@ -27619,7 +27457,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="14.25">
+    <row r="171" spans="1:15" ht="14.25" hidden="1">
       <c r="A171" s="3" t="s">
         <v>1253</v>
       </c>
@@ -27663,7 +27501,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="14.25">
+    <row r="172" spans="1:15" ht="14.25" hidden="1">
       <c r="A172" s="3" t="s">
         <v>1260</v>
       </c>
@@ -27707,7 +27545,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="14.25">
+    <row r="173" spans="1:15" ht="14.25" hidden="1">
       <c r="A173" s="3" t="s">
         <v>1267</v>
       </c>
@@ -27751,7 +27589,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="14.25">
+    <row r="174" spans="1:15" ht="14.25" hidden="1">
       <c r="A174" s="3" t="s">
         <v>1274</v>
       </c>
@@ -27795,7 +27633,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="14.25">
+    <row r="175" spans="1:15" ht="14.25" hidden="1">
       <c r="A175" s="3" t="s">
         <v>1280</v>
       </c>
@@ -27839,7 +27677,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="14.25">
+    <row r="176" spans="1:15" ht="14.25" hidden="1">
       <c r="A176" s="3" t="s">
         <v>1287</v>
       </c>
@@ -27880,7 +27718,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="14.25">
+    <row r="177" spans="1:15" ht="14.25" hidden="1">
       <c r="A177" s="3" t="s">
         <v>1293</v>
       </c>
@@ -27927,7 +27765,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="14.25">
+    <row r="178" spans="1:15" ht="14.25" hidden="1">
       <c r="A178" s="3" t="s">
         <v>1301</v>
       </c>
@@ -27974,7 +27812,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="14.25">
+    <row r="179" spans="1:15" ht="14.25" hidden="1">
       <c r="A179" s="3" t="s">
         <v>1309</v>
       </c>
@@ -28021,7 +27859,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="14.25">
+    <row r="180" spans="1:15" ht="14.25" hidden="1">
       <c r="A180" s="3" t="s">
         <v>1316</v>
       </c>
@@ -28065,7 +27903,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="14.25">
+    <row r="181" spans="1:15" ht="14.25" hidden="1">
       <c r="A181" s="3" t="s">
         <v>1322</v>
       </c>
@@ -28109,7 +27947,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="14.25">
+    <row r="182" spans="1:15" ht="14.25" hidden="1">
       <c r="A182" s="3" t="s">
         <v>1330</v>
       </c>
@@ -28156,7 +27994,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="14.25">
+    <row r="183" spans="1:15" ht="14.25" hidden="1">
       <c r="A183" s="3" t="s">
         <v>1338</v>
       </c>
@@ -28203,7 +28041,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="14.25">
+    <row r="184" spans="1:15" ht="14.25" hidden="1">
       <c r="A184" s="3" t="s">
         <v>1346</v>
       </c>
@@ -28250,7 +28088,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="14.25">
+    <row r="185" spans="1:15" ht="14.25" hidden="1">
       <c r="A185" s="3" t="s">
         <v>1346</v>
       </c>
@@ -28297,7 +28135,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="14.25">
+    <row r="186" spans="1:15" ht="14.25" hidden="1">
       <c r="A186" s="3" t="s">
         <v>1346</v>
       </c>
@@ -28344,7 +28182,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="14.25">
+    <row r="187" spans="1:15" ht="14.25" hidden="1">
       <c r="A187" s="3" t="s">
         <v>1361</v>
       </c>
@@ -28391,7 +28229,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="14.25">
+    <row r="188" spans="1:15" ht="14.25" hidden="1">
       <c r="A188" s="3" t="s">
         <v>1370</v>
       </c>
@@ -28438,7 +28276,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="14.25">
+    <row r="189" spans="1:15" ht="14.25" hidden="1">
       <c r="A189" s="3" t="s">
         <v>1370</v>
       </c>
@@ -28485,7 +28323,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="14.25">
+    <row r="190" spans="1:15" ht="14.25" hidden="1">
       <c r="A190" s="3" t="s">
         <v>1383</v>
       </c>
@@ -28532,7 +28370,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="14.25">
+    <row r="191" spans="1:15" ht="14.25" hidden="1">
       <c r="A191" s="3" t="s">
         <v>1390</v>
       </c>
@@ -28579,7 +28417,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="14.25">
+    <row r="192" spans="1:15" ht="14.25" hidden="1">
       <c r="A192" s="3" t="s">
         <v>1398</v>
       </c>
@@ -28626,7 +28464,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="14.25">
+    <row r="193" spans="1:15" ht="14.25" hidden="1">
       <c r="A193" s="3" t="s">
         <v>1404</v>
       </c>
@@ -28673,7 +28511,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="14.25">
+    <row r="194" spans="1:15" ht="14.25" hidden="1">
       <c r="A194" s="3" t="s">
         <v>1412</v>
       </c>
@@ -28717,7 +28555,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="14.25">
+    <row r="195" spans="1:15" ht="14.25" hidden="1">
       <c r="A195" s="3" t="s">
         <v>1419</v>
       </c>
@@ -28761,7 +28599,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="14.25">
+    <row r="196" spans="1:15" ht="14.25" hidden="1">
       <c r="A196" s="3" t="s">
         <v>1426</v>
       </c>
@@ -28805,7 +28643,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="14.25">
+    <row r="197" spans="1:15" ht="14.25" hidden="1">
       <c r="A197" s="3" t="s">
         <v>1433</v>
       </c>
@@ -28849,7 +28687,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="14.25">
+    <row r="198" spans="1:15" ht="14.25" hidden="1">
       <c r="A198" s="3" t="s">
         <v>1441</v>
       </c>
@@ -28896,7 +28734,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="14.25">
+    <row r="199" spans="1:15" ht="14.25" hidden="1">
       <c r="A199" s="3" t="s">
         <v>1450</v>
       </c>
@@ -28940,7 +28778,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="14.25">
+    <row r="200" spans="1:15" ht="14.25" hidden="1">
       <c r="A200" s="3" t="s">
         <v>1459</v>
       </c>
@@ -28984,7 +28822,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="14.25">
+    <row r="201" spans="1:15" ht="14.25" hidden="1">
       <c r="A201" s="3" t="s">
         <v>1467</v>
       </c>
@@ -29028,7 +28866,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="14.25">
+    <row r="202" spans="1:15" ht="14.25" hidden="1">
       <c r="A202" s="3" t="s">
         <v>1475</v>
       </c>
@@ -29072,7 +28910,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="14.25">
+    <row r="203" spans="1:15" ht="14.25" hidden="1">
       <c r="A203" s="3" t="s">
         <v>1481</v>
       </c>
@@ -29119,7 +28957,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="14.25">
+    <row r="204" spans="1:15" ht="14.25" hidden="1">
       <c r="A204" s="3" t="s">
         <v>54</v>
       </c>
@@ -29166,7 +29004,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="14.25">
+    <row r="205" spans="1:15" ht="14.25" hidden="1">
       <c r="A205" s="3" t="s">
         <v>1494</v>
       </c>
@@ -29210,7 +29048,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="14.25">
+    <row r="206" spans="1:15" ht="14.25" hidden="1">
       <c r="A206" s="3" t="s">
         <v>1502</v>
       </c>
@@ -29254,7 +29092,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="14.25">
+    <row r="207" spans="1:15" ht="14.25" hidden="1">
       <c r="A207" s="3" t="s">
         <v>1508</v>
       </c>
@@ -29298,7 +29136,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="14.25">
+    <row r="208" spans="1:15" ht="14.25" hidden="1">
       <c r="A208" s="3" t="s">
         <v>1515</v>
       </c>
@@ -29345,7 +29183,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="14.25">
+    <row r="209" spans="1:15" ht="14.25" hidden="1">
       <c r="A209" s="3" t="s">
         <v>1523</v>
       </c>
@@ -29389,7 +29227,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="14.25">
+    <row r="210" spans="1:15" ht="14.25" hidden="1">
       <c r="A210" s="3" t="s">
         <v>1531</v>
       </c>
@@ -29436,7 +29274,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="14.25">
+    <row r="211" spans="1:15" ht="14.25" hidden="1">
       <c r="A211" s="3" t="s">
         <v>1539</v>
       </c>
@@ -29480,7 +29318,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="14.25">
+    <row r="212" spans="1:15" ht="14.25" hidden="1">
       <c r="A212" s="3" t="s">
         <v>1546</v>
       </c>
@@ -29524,7 +29362,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="14.25">
+    <row r="213" spans="1:15" ht="14.25" hidden="1">
       <c r="A213" s="3" t="s">
         <v>1554</v>
       </c>
@@ -29568,7 +29406,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="14.25">
+    <row r="214" spans="1:15" ht="14.25" hidden="1">
       <c r="A214" s="3" t="s">
         <v>1560</v>
       </c>
@@ -29612,7 +29450,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="14.25">
+    <row r="215" spans="1:15" ht="14.25" hidden="1">
       <c r="A215" s="3" t="s">
         <v>1566</v>
       </c>
@@ -29659,7 +29497,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="14.25">
+    <row r="216" spans="1:15" ht="14.25" hidden="1">
       <c r="A216" s="3" t="s">
         <v>1576</v>
       </c>
@@ -29706,7 +29544,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="14.25">
+    <row r="217" spans="1:15" ht="14.25" hidden="1">
       <c r="A217" s="3" t="s">
         <v>1584</v>
       </c>
@@ -29753,7 +29591,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="14.25">
+    <row r="218" spans="1:15" ht="14.25" hidden="1">
       <c r="A218" s="3" t="s">
         <v>1591</v>
       </c>
@@ -29800,7 +29638,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="14.25">
+    <row r="219" spans="1:15" ht="14.25" hidden="1">
       <c r="A219" s="3" t="s">
         <v>1598</v>
       </c>
@@ -29844,7 +29682,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="14.25">
+    <row r="220" spans="1:15" ht="14.25" hidden="1">
       <c r="A220" s="3" t="s">
         <v>1604</v>
       </c>
@@ -29888,7 +29726,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="14.25">
+    <row r="221" spans="1:15" ht="14.25" hidden="1">
       <c r="A221" s="3" t="s">
         <v>1611</v>
       </c>
@@ -29932,7 +29770,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="14.25">
+    <row r="222" spans="1:15" ht="14.25" hidden="1">
       <c r="A222" s="3" t="s">
         <v>1620</v>
       </c>
@@ -29979,7 +29817,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="14.25">
+    <row r="223" spans="1:15" ht="14.25" hidden="1">
       <c r="A223" s="3" t="s">
         <v>1627</v>
       </c>
@@ -30023,7 +29861,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="14.25">
+    <row r="224" spans="1:15" ht="14.25" hidden="1">
       <c r="A224" s="3" t="s">
         <v>1635</v>
       </c>
@@ -30070,7 +29908,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="14.25">
+    <row r="225" spans="1:15" ht="14.25" hidden="1">
       <c r="A225" s="3" t="s">
         <v>1642</v>
       </c>
@@ -30114,7 +29952,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="14.25">
+    <row r="226" spans="1:15" ht="14.25" hidden="1">
       <c r="A226" s="3" t="s">
         <v>1649</v>
       </c>
@@ -30158,7 +29996,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="14.25">
+    <row r="227" spans="1:15" ht="14.25" hidden="1">
       <c r="A227" s="3" t="s">
         <v>1656</v>
       </c>
@@ -30202,7 +30040,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="14.25">
+    <row r="228" spans="1:15" ht="14.25" hidden="1">
       <c r="A228" s="3" t="s">
         <v>1663</v>
       </c>
@@ -30249,7 +30087,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="14.25">
+    <row r="229" spans="1:15" ht="14.25" hidden="1">
       <c r="A229" s="3" t="s">
         <v>1672</v>
       </c>
@@ -30296,7 +30134,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="14.25">
+    <row r="230" spans="1:15" ht="14.25" hidden="1">
       <c r="A230" s="3" t="s">
         <v>1680</v>
       </c>
@@ -30340,7 +30178,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="14.25">
+    <row r="231" spans="1:15" ht="14.25" hidden="1">
       <c r="A231" s="3" t="s">
         <v>1680</v>
       </c>
@@ -30384,7 +30222,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="14.25">
+    <row r="232" spans="1:15" ht="14.25" hidden="1">
       <c r="A232" s="3" t="s">
         <v>1680</v>
       </c>
@@ -30428,7 +30266,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="14.25">
+    <row r="233" spans="1:15" ht="14.25" hidden="1">
       <c r="A233" s="3" t="s">
         <v>1680</v>
       </c>
@@ -30472,7 +30310,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="14.25">
+    <row r="234" spans="1:15" ht="14.25" hidden="1">
       <c r="A234" s="3" t="s">
         <v>1680</v>
       </c>
@@ -30519,7 +30357,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="14.25">
+    <row r="235" spans="1:15" ht="14.25" hidden="1">
       <c r="A235" s="3" t="s">
         <v>1680</v>
       </c>
@@ -30566,7 +30404,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="14.25">
+    <row r="236" spans="1:15" ht="14.25" hidden="1">
       <c r="A236" s="3" t="s">
         <v>1680</v>
       </c>
@@ -30613,7 +30451,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="14.25">
+    <row r="237" spans="1:15" ht="14.25" hidden="1">
       <c r="A237" s="3" t="s">
         <v>1680</v>
       </c>
@@ -30660,7 +30498,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="14.25">
+    <row r="238" spans="1:15" ht="14.25" hidden="1">
       <c r="A238" s="3" t="s">
         <v>1680</v>
       </c>
@@ -30707,7 +30545,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="14.25">
+    <row r="239" spans="1:15" ht="14.25" hidden="1">
       <c r="A239" s="3" t="s">
         <v>1680</v>
       </c>
@@ -30754,7 +30592,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="14.25">
+    <row r="240" spans="1:15" ht="14.25" hidden="1">
       <c r="A240" s="3" t="s">
         <v>1680</v>
       </c>
@@ -30801,7 +30639,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="14.25">
+    <row r="241" spans="1:15" ht="14.25" hidden="1">
       <c r="A241" s="3" t="s">
         <v>1680</v>
       </c>
@@ -30845,7 +30683,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="242" spans="1:15" ht="14.25">
+    <row r="242" spans="1:15" ht="14.25" hidden="1">
       <c r="A242" s="3" t="s">
         <v>1680</v>
       </c>
@@ -30889,7 +30727,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="14.25">
+    <row r="243" spans="1:15" ht="14.25" hidden="1">
       <c r="A243" s="3" t="s">
         <v>1680</v>
       </c>
@@ -30933,7 +30771,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="14.25">
+    <row r="244" spans="1:15" ht="14.25" hidden="1">
       <c r="A244" s="3" t="s">
         <v>1749</v>
       </c>
@@ -30980,7 +30818,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="245" spans="1:15" ht="14.25">
+    <row r="245" spans="1:15" ht="14.25" hidden="1">
       <c r="A245" s="3" t="s">
         <v>1756</v>
       </c>
@@ -31027,7 +30865,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="14.25">
+    <row r="246" spans="1:15" ht="14.25" hidden="1">
       <c r="A246" s="3" t="s">
         <v>1765</v>
       </c>
@@ -31071,7 +30909,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="14.25">
+    <row r="247" spans="1:15" ht="14.25" hidden="1">
       <c r="A247" s="3" t="s">
         <v>1773</v>
       </c>
@@ -31118,7 +30956,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="248" spans="1:15" ht="14.25">
+    <row r="248" spans="1:15" ht="14.25" hidden="1">
       <c r="A248" s="3" t="s">
         <v>1782</v>
       </c>
@@ -31165,7 +31003,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="249" spans="1:15" ht="14.25">
+    <row r="249" spans="1:15" ht="14.25" hidden="1">
       <c r="A249" s="3" t="s">
         <v>98</v>
       </c>
@@ -31212,7 +31050,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="14.25">
+    <row r="250" spans="1:15" ht="14.25" hidden="1">
       <c r="A250" s="3" t="s">
         <v>1793</v>
       </c>
@@ -31256,7 +31094,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="14.25">
+    <row r="251" spans="1:15" ht="14.25" hidden="1">
       <c r="A251" s="3" t="s">
         <v>1800</v>
       </c>
@@ -31300,7 +31138,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="252" spans="1:15" ht="14.25">
+    <row r="252" spans="1:15" ht="14.25" hidden="1">
       <c r="A252" s="3" t="s">
         <v>1807</v>
       </c>
@@ -31347,7 +31185,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="14.25">
+    <row r="253" spans="1:15" ht="14.25" hidden="1">
       <c r="A253" s="3" t="s">
         <v>1814</v>
       </c>
@@ -31394,7 +31232,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="254" spans="1:15" ht="14.25">
+    <row r="254" spans="1:15" ht="14.25" hidden="1">
       <c r="A254" s="3" t="s">
         <v>1819</v>
       </c>
@@ -31441,7 +31279,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="255" spans="1:15" ht="14.25">
+    <row r="255" spans="1:15" ht="14.25" hidden="1">
       <c r="A255" s="3" t="s">
         <v>1828</v>
       </c>
@@ -31488,7 +31326,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="256" spans="1:15" ht="14.25">
+    <row r="256" spans="1:15" ht="14.25" hidden="1">
       <c r="A256" s="3" t="s">
         <v>1835</v>
       </c>
@@ -31535,7 +31373,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="257" spans="1:15" ht="14.25">
+    <row r="257" spans="1:15" ht="14.25" hidden="1">
       <c r="A257" s="3" t="s">
         <v>1840</v>
       </c>
@@ -31582,7 +31420,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="258" spans="1:15" ht="14.25">
+    <row r="258" spans="1:15" ht="14.25" hidden="1">
       <c r="A258" s="3" t="s">
         <v>1847</v>
       </c>
@@ -31629,7 +31467,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="14.25">
+    <row r="259" spans="1:15" ht="14.25" hidden="1">
       <c r="A259" s="3" t="s">
         <v>1854</v>
       </c>
@@ -31673,7 +31511,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="14.25">
+    <row r="260" spans="1:15" ht="14.25" hidden="1">
       <c r="A260" s="3" t="s">
         <v>1862</v>
       </c>
@@ -31717,7 +31555,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="261" spans="1:15" ht="14.25">
+    <row r="261" spans="1:15" ht="14.25" hidden="1">
       <c r="A261" s="3" t="s">
         <v>1870</v>
       </c>
@@ -31761,7 +31599,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="262" spans="1:15" ht="14.25">
+    <row r="262" spans="1:15" ht="14.25" hidden="1">
       <c r="A262" s="3" t="s">
         <v>1876</v>
       </c>
@@ -31808,7 +31646,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="263" spans="1:15" ht="14.25">
+    <row r="263" spans="1:15" ht="14.25" hidden="1">
       <c r="A263" s="3" t="s">
         <v>1883</v>
       </c>
@@ -31855,7 +31693,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="264" spans="1:15" ht="14.25">
+    <row r="264" spans="1:15" ht="14.25" hidden="1">
       <c r="A264" s="3" t="s">
         <v>1890</v>
       </c>
@@ -31896,7 +31734,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="265" spans="1:15" ht="14.25">
+    <row r="265" spans="1:15" ht="14.25" hidden="1">
       <c r="A265" s="3" t="s">
         <v>1895</v>
       </c>
@@ -31940,7 +31778,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="266" spans="1:15" ht="14.25">
+    <row r="266" spans="1:15" ht="14.25" hidden="1">
       <c r="A266" s="3" t="s">
         <v>1904</v>
       </c>
@@ -31984,7 +31822,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="267" spans="1:15" ht="14.25">
+    <row r="267" spans="1:15" ht="14.25" hidden="1">
       <c r="A267" s="3" t="s">
         <v>1911</v>
       </c>
@@ -32028,7 +31866,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="268" spans="1:15" ht="14.25">
+    <row r="268" spans="1:15" ht="14.25" hidden="1">
       <c r="A268" s="3" t="s">
         <v>1918</v>
       </c>
@@ -32072,7 +31910,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="269" spans="1:15" ht="14.25">
+    <row r="269" spans="1:15" ht="14.25" hidden="1">
       <c r="A269" s="3" t="s">
         <v>1926</v>
       </c>
@@ -32116,7 +31954,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="270" spans="1:15" ht="14.25">
+    <row r="270" spans="1:15" ht="14.25" hidden="1">
       <c r="A270" s="3" t="s">
         <v>1933</v>
       </c>
@@ -32163,7 +32001,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="271" spans="1:15" ht="14.25">
+    <row r="271" spans="1:15" ht="14.25" hidden="1">
       <c r="A271" s="3" t="s">
         <v>1940</v>
       </c>
@@ -32207,7 +32045,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="272" spans="1:15" ht="14.25">
+    <row r="272" spans="1:15" ht="14.25" hidden="1">
       <c r="A272" s="3" t="s">
         <v>1946</v>
       </c>
@@ -32251,7 +32089,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="273" spans="1:15" ht="14.25">
+    <row r="273" spans="1:15" ht="14.25" hidden="1">
       <c r="A273" s="3" t="s">
         <v>1954</v>
       </c>
@@ -32298,7 +32136,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="274" spans="1:15" ht="14.25">
+    <row r="274" spans="1:15" ht="14.25" hidden="1">
       <c r="A274" s="3" t="s">
         <v>1963</v>
       </c>
@@ -32342,7 +32180,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="275" spans="1:15" ht="14.25">
+    <row r="275" spans="1:15" ht="14.25" hidden="1">
       <c r="A275" s="3" t="s">
         <v>1969</v>
       </c>
@@ -32389,7 +32227,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="276" spans="1:15" ht="14.25">
+    <row r="276" spans="1:15" ht="14.25" hidden="1">
       <c r="A276" s="3" t="s">
         <v>1978</v>
       </c>
@@ -32433,7 +32271,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="277" spans="1:15" ht="14.25">
+    <row r="277" spans="1:15" ht="14.25" hidden="1">
       <c r="A277" s="3" t="s">
         <v>1985</v>
       </c>
@@ -32480,7 +32318,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="278" spans="1:15" ht="14.25">
+    <row r="278" spans="1:15" ht="14.25" hidden="1">
       <c r="A278" s="3" t="s">
         <v>1993</v>
       </c>
@@ -32524,7 +32362,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="279" spans="1:15" ht="14.25">
+    <row r="279" spans="1:15" ht="14.25" hidden="1">
       <c r="A279" s="3" t="s">
         <v>2000</v>
       </c>
@@ -32568,7 +32406,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="280" spans="1:15" ht="14.25">
+    <row r="280" spans="1:15" ht="14.25" hidden="1">
       <c r="A280" s="3" t="s">
         <v>2005</v>
       </c>
@@ -32612,7 +32450,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="281" spans="1:15" ht="14.25">
+    <row r="281" spans="1:15" ht="14.25" hidden="1">
       <c r="A281" s="3" t="s">
         <v>2012</v>
       </c>
@@ -32656,7 +32494,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="282" spans="1:15" ht="14.25">
+    <row r="282" spans="1:15" ht="14.25" hidden="1">
       <c r="A282" s="3" t="s">
         <v>2019</v>
       </c>
@@ -32700,7 +32538,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="283" spans="1:15" ht="14.25">
+    <row r="283" spans="1:15" ht="14.25" hidden="1">
       <c r="A283" s="3" t="s">
         <v>2027</v>
       </c>
@@ -32747,7 +32585,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="284" spans="1:15" ht="14.25">
+    <row r="284" spans="1:15" ht="14.25" hidden="1">
       <c r="A284" s="3" t="s">
         <v>2034</v>
       </c>
@@ -32791,7 +32629,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="285" spans="1:15" ht="14.25">
+    <row r="285" spans="1:15" ht="14.25" hidden="1">
       <c r="A285" s="3" t="s">
         <v>2034</v>
       </c>
@@ -32835,7 +32673,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="286" spans="1:15" ht="14.25">
+    <row r="286" spans="1:15" ht="14.25" hidden="1">
       <c r="A286" s="3" t="s">
         <v>2045</v>
       </c>
@@ -32882,7 +32720,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="287" spans="1:15" ht="14.25">
+    <row r="287" spans="1:15" ht="14.25" hidden="1">
       <c r="A287" s="3" t="s">
         <v>2053</v>
       </c>
@@ -32926,7 +32764,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="288" spans="1:15" ht="14.25">
+    <row r="288" spans="1:15" ht="14.25" hidden="1">
       <c r="A288" s="3" t="s">
         <v>2059</v>
       </c>
@@ -32970,7 +32808,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="289" spans="1:15" ht="14.25">
+    <row r="289" spans="1:15" ht="14.25" hidden="1">
       <c r="A289" s="3" t="s">
         <v>2068</v>
       </c>
@@ -33014,7 +32852,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="290" spans="1:15" ht="14.25">
+    <row r="290" spans="1:15" ht="14.25" hidden="1">
       <c r="A290" s="3" t="s">
         <v>2075</v>
       </c>
@@ -33061,7 +32899,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="291" spans="1:15" ht="14.25">
+    <row r="291" spans="1:15" ht="14.25" hidden="1">
       <c r="A291" s="3" t="s">
         <v>2084</v>
       </c>
@@ -33105,7 +32943,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="292" spans="1:15" ht="14.25">
+    <row r="292" spans="1:15" ht="14.25" hidden="1">
       <c r="A292" s="3" t="s">
         <v>2090</v>
       </c>
@@ -33149,7 +32987,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="293" spans="1:15" ht="14.25">
+    <row r="293" spans="1:15" ht="14.25" hidden="1">
       <c r="A293" s="3" t="s">
         <v>2098</v>
       </c>
@@ -33196,7 +33034,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="294" spans="1:15" ht="14.25">
+    <row r="294" spans="1:15" ht="14.25" hidden="1">
       <c r="A294" s="3" t="s">
         <v>2104</v>
       </c>
@@ -33240,7 +33078,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="295" spans="1:15" ht="14.25">
+    <row r="295" spans="1:15" ht="14.25" hidden="1">
       <c r="A295" s="3" t="s">
         <v>2111</v>
       </c>
@@ -33284,7 +33122,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="296" spans="1:15" ht="14.25">
+    <row r="296" spans="1:15" ht="14.25" hidden="1">
       <c r="A296" s="3" t="s">
         <v>2118</v>
       </c>
@@ -33328,7 +33166,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="297" spans="1:15" ht="14.25">
+    <row r="297" spans="1:15" ht="14.25" hidden="1">
       <c r="A297" s="3" t="s">
         <v>2124</v>
       </c>
@@ -33375,7 +33213,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="298" spans="1:15" ht="14.25">
+    <row r="298" spans="1:15" ht="14.25" hidden="1">
       <c r="A298" s="3" t="s">
         <v>2132</v>
       </c>
@@ -33419,7 +33257,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="299" spans="1:15" ht="14.25">
+    <row r="299" spans="1:15" ht="14.25" hidden="1">
       <c r="A299" s="3" t="s">
         <v>2140</v>
       </c>
@@ -33466,7 +33304,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="300" spans="1:15" ht="14.25">
+    <row r="300" spans="1:15" ht="14.25" hidden="1">
       <c r="A300" s="3" t="s">
         <v>2147</v>
       </c>
@@ -33510,7 +33348,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="301" spans="1:15" ht="14.25">
+    <row r="301" spans="1:15" ht="14.25" hidden="1">
       <c r="A301" s="3" t="s">
         <v>2154</v>
       </c>
@@ -33557,7 +33395,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="302" spans="1:15" ht="14.25">
+    <row r="302" spans="1:15" ht="14.25" hidden="1">
       <c r="A302" s="3" t="s">
         <v>2162</v>
       </c>
@@ -33604,7 +33442,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="303" spans="1:15" ht="14.25">
+    <row r="303" spans="1:15" ht="14.25" hidden="1">
       <c r="A303" s="3" t="s">
         <v>2167</v>
       </c>
@@ -33651,7 +33489,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="304" spans="1:15" ht="14.25">
+    <row r="304" spans="1:15" ht="14.25" hidden="1">
       <c r="A304" s="3" t="s">
         <v>2174</v>
       </c>
@@ -33698,7 +33536,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="305" spans="1:15" ht="14.25">
+    <row r="305" spans="1:15" ht="14.25" hidden="1">
       <c r="A305" s="3" t="s">
         <v>2182</v>
       </c>
@@ -33742,7 +33580,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="306" spans="1:15" ht="14.25">
+    <row r="306" spans="1:15" ht="14.25" hidden="1">
       <c r="A306" s="3" t="s">
         <v>2190</v>
       </c>
@@ -33789,7 +33627,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="307" spans="1:15" ht="14.25">
+    <row r="307" spans="1:15" ht="14.25" hidden="1">
       <c r="A307" s="3" t="s">
         <v>2196</v>
       </c>
@@ -33833,7 +33671,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="308" spans="1:15" ht="14.25">
+    <row r="308" spans="1:15" ht="14.25" hidden="1">
       <c r="A308" s="3" t="s">
         <v>2203</v>
       </c>
@@ -33877,7 +33715,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="309" spans="1:15" ht="14.25">
+    <row r="309" spans="1:15" ht="14.25" hidden="1">
       <c r="A309" s="3" t="s">
         <v>2209</v>
       </c>
@@ -33924,7 +33762,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="310" spans="1:15" ht="14.25">
+    <row r="310" spans="1:15" ht="14.25" hidden="1">
       <c r="A310" s="3" t="s">
         <v>2209</v>
       </c>
@@ -33971,7 +33809,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="311" spans="1:15" ht="14.25">
+    <row r="311" spans="1:15" ht="14.25" hidden="1">
       <c r="A311" s="3" t="s">
         <v>2224</v>
       </c>
@@ -34015,7 +33853,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="312" spans="1:15" ht="14.25">
+    <row r="312" spans="1:15" ht="14.25" hidden="1">
       <c r="A312" s="3" t="s">
         <v>2230</v>
       </c>
@@ -34059,7 +33897,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="313" spans="1:15" ht="14.25">
+    <row r="313" spans="1:15" ht="14.25" hidden="1">
       <c r="A313" s="3" t="s">
         <v>2237</v>
       </c>
@@ -34106,7 +33944,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="314" spans="1:15" ht="14.25">
+    <row r="314" spans="1:15" ht="14.25" hidden="1">
       <c r="A314" s="3" t="s">
         <v>125</v>
       </c>
@@ -34150,7 +33988,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="315" spans="1:15" ht="14.25">
+    <row r="315" spans="1:15" ht="14.25" hidden="1">
       <c r="A315" s="3" t="s">
         <v>2245</v>
       </c>
@@ -34197,7 +34035,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="316" spans="1:15" ht="14.25">
+    <row r="316" spans="1:15" ht="14.25" hidden="1">
       <c r="A316" s="3" t="s">
         <v>2254</v>
       </c>
@@ -34241,7 +34079,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="317" spans="1:15" ht="14.25">
+    <row r="317" spans="1:15" ht="14.25" hidden="1">
       <c r="A317" s="3" t="s">
         <v>2261</v>
       </c>
@@ -34285,7 +34123,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="318" spans="1:15" ht="14.25">
+    <row r="318" spans="1:15" ht="14.25" hidden="1">
       <c r="A318" s="3" t="s">
         <v>2261</v>
       </c>
@@ -34329,7 +34167,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="319" spans="1:15" ht="14.25">
+    <row r="319" spans="1:15" ht="14.25" hidden="1">
       <c r="A319" s="3" t="s">
         <v>2270</v>
       </c>
@@ -34373,7 +34211,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="320" spans="1:15" ht="14.25">
+    <row r="320" spans="1:15" ht="14.25" hidden="1">
       <c r="A320" s="3" t="s">
         <v>2277</v>
       </c>
@@ -34420,7 +34258,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="321" spans="1:27" ht="14.25">
+    <row r="321" spans="1:27" ht="14.25" hidden="1">
       <c r="A321" s="3" t="s">
         <v>2284</v>
       </c>
@@ -34464,7 +34302,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="322" spans="1:27" ht="14.25">
+    <row r="322" spans="1:27" ht="14.25" hidden="1">
       <c r="A322" s="3" t="s">
         <v>2290</v>
       </c>
@@ -34508,7 +34346,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="323" spans="1:27" ht="14.25">
+    <row r="323" spans="1:27" ht="14.25" hidden="1">
       <c r="A323" s="6" t="s">
         <v>2297</v>
       </c>
@@ -34565,7 +34403,7 @@
       <c r="Z323" s="6"/>
       <c r="AA323" s="6"/>
     </row>
-    <row r="324" spans="1:27" ht="14.25">
+    <row r="324" spans="1:27" ht="14.25" hidden="1">
       <c r="A324" s="6" t="s">
         <v>2297</v>
       </c>
@@ -34622,7 +34460,7 @@
       <c r="Z324" s="6"/>
       <c r="AA324" s="6"/>
     </row>
-    <row r="325" spans="1:27" ht="14.25">
+    <row r="325" spans="1:27" ht="14.25" hidden="1">
       <c r="A325" s="6" t="s">
         <v>2297</v>
       </c>
@@ -34681,7 +34519,7 @@
       <c r="Z325" s="6"/>
       <c r="AA325" s="6"/>
     </row>
-    <row r="326" spans="1:27" ht="14.25">
+    <row r="326" spans="1:27" ht="14.25" hidden="1">
       <c r="A326" s="3" t="s">
         <v>2311</v>
       </c>
@@ -34728,7 +34566,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="327" spans="1:27" ht="14.25">
+    <row r="327" spans="1:27" ht="14.25" hidden="1">
       <c r="A327" s="3" t="s">
         <v>2318</v>
       </c>
@@ -34772,7 +34610,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="328" spans="1:27" ht="14.25">
+    <row r="328" spans="1:27" ht="14.25" hidden="1">
       <c r="A328" s="3" t="s">
         <v>2326</v>
       </c>
@@ -34816,7 +34654,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="329" spans="1:27" ht="14.25">
+    <row r="329" spans="1:27" ht="14.25" hidden="1">
       <c r="A329" s="3" t="s">
         <v>2333</v>
       </c>
@@ -34863,7 +34701,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="330" spans="1:27" ht="14.25">
+    <row r="330" spans="1:27" ht="14.25" hidden="1">
       <c r="A330" s="3" t="s">
         <v>2339</v>
       </c>
@@ -34907,7 +34745,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="331" spans="1:27" ht="14.25">
+    <row r="331" spans="1:27" ht="14.25" hidden="1">
       <c r="A331" s="3" t="s">
         <v>2346</v>
       </c>
@@ -34954,7 +34792,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="332" spans="1:27" ht="14.25">
+    <row r="332" spans="1:27" ht="14.25" hidden="1">
       <c r="A332" s="3" t="s">
         <v>2354</v>
       </c>
@@ -34998,7 +34836,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="333" spans="1:27" ht="14.25">
+    <row r="333" spans="1:27" ht="14.25" hidden="1">
       <c r="A333" s="3" t="s">
         <v>2363</v>
       </c>
@@ -35045,7 +34883,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="334" spans="1:27" ht="14.25">
+    <row r="334" spans="1:27" ht="14.25" hidden="1">
       <c r="A334" s="3" t="s">
         <v>2369</v>
       </c>
@@ -35092,7 +34930,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="335" spans="1:27" ht="14.25">
+    <row r="335" spans="1:27" ht="14.25" hidden="1">
       <c r="A335" s="3" t="s">
         <v>2377</v>
       </c>
@@ -35136,7 +34974,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="336" spans="1:27" ht="14.25">
+    <row r="336" spans="1:27" ht="14.25" hidden="1">
       <c r="A336" s="3" t="s">
         <v>2383</v>
       </c>
@@ -35180,7 +35018,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="337" spans="1:15" ht="14.25">
+    <row r="337" spans="1:15" ht="14.25" hidden="1">
       <c r="A337" s="3" t="s">
         <v>2389</v>
       </c>
@@ -35224,7 +35062,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="338" spans="1:15" ht="14.25">
+    <row r="338" spans="1:15" ht="14.25" hidden="1">
       <c r="A338" s="3" t="s">
         <v>2397</v>
       </c>
@@ -35268,7 +35106,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="339" spans="1:15" ht="14.25">
+    <row r="339" spans="1:15" ht="14.25" hidden="1">
       <c r="A339" s="3" t="s">
         <v>2404</v>
       </c>
@@ -35315,7 +35153,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="340" spans="1:15" ht="14.25">
+    <row r="340" spans="1:15" ht="14.25" hidden="1">
       <c r="A340" s="3" t="s">
         <v>107</v>
       </c>
@@ -35362,7 +35200,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="341" spans="1:15" ht="14.25">
+    <row r="341" spans="1:15" ht="14.25" hidden="1">
       <c r="A341" s="3" t="s">
         <v>2416</v>
       </c>
@@ -35406,7 +35244,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="342" spans="1:15" ht="14.25">
+    <row r="342" spans="1:15" ht="14.25" hidden="1">
       <c r="A342" s="3" t="s">
         <v>2423</v>
       </c>
@@ -35450,7 +35288,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="343" spans="1:15" ht="14.25">
+    <row r="343" spans="1:15" ht="14.25" hidden="1">
       <c r="A343" s="3" t="s">
         <v>2430</v>
       </c>
@@ -35497,7 +35335,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="344" spans="1:15" ht="14.25">
+    <row r="344" spans="1:15" ht="14.25" hidden="1">
       <c r="A344" s="3" t="s">
         <v>2438</v>
       </c>
@@ -35541,7 +35379,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="345" spans="1:15" ht="14.25">
+    <row r="345" spans="1:15" ht="14.25" hidden="1">
       <c r="A345" s="3" t="s">
         <v>2446</v>
       </c>
@@ -35588,7 +35426,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="346" spans="1:15" ht="14.25">
+    <row r="346" spans="1:15" ht="14.25" hidden="1">
       <c r="A346" s="3" t="s">
         <v>2446</v>
       </c>
@@ -35635,7 +35473,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="347" spans="1:15" ht="14.25">
+    <row r="347" spans="1:15" ht="14.25" hidden="1">
       <c r="A347" s="3" t="s">
         <v>2457</v>
       </c>
@@ -35679,7 +35517,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="348" spans="1:15" ht="14.25">
+    <row r="348" spans="1:15" ht="14.25" hidden="1">
       <c r="A348" s="3" t="s">
         <v>2464</v>
       </c>
@@ -35726,7 +35564,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="349" spans="1:15" ht="14.25">
+    <row r="349" spans="1:15" ht="14.25" hidden="1">
       <c r="A349" s="3" t="s">
         <v>2464</v>
       </c>
@@ -35770,7 +35608,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="350" spans="1:15" ht="14.25">
+    <row r="350" spans="1:15" ht="14.25" hidden="1">
       <c r="A350" s="3" t="s">
         <v>2478</v>
       </c>
@@ -35817,7 +35655,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="351" spans="1:15" ht="14.25">
+    <row r="351" spans="1:15" ht="14.25" hidden="1">
       <c r="A351" s="3" t="s">
         <v>2478</v>
       </c>
@@ -35861,7 +35699,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="352" spans="1:15" ht="14.25">
+    <row r="352" spans="1:15" ht="14.25" hidden="1">
       <c r="A352" s="3" t="s">
         <v>2491</v>
       </c>
@@ -35905,7 +35743,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="353" spans="1:15" ht="14.25">
+    <row r="353" spans="1:15" ht="14.25" hidden="1">
       <c r="A353" s="3" t="s">
         <v>2498</v>
       </c>
@@ -35952,7 +35790,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="354" spans="1:15" ht="14.25">
+    <row r="354" spans="1:15" ht="14.25" hidden="1">
       <c r="A354" s="3" t="s">
         <v>2505</v>
       </c>
@@ -35999,7 +35837,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="355" spans="1:15" ht="14.25">
+    <row r="355" spans="1:15" ht="14.25" hidden="1">
       <c r="A355" s="3" t="s">
         <v>2511</v>
       </c>
@@ -36046,7 +35884,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="356" spans="1:15" ht="14.25">
+    <row r="356" spans="1:15" ht="14.25" hidden="1">
       <c r="A356" s="3" t="s">
         <v>2518</v>
       </c>
@@ -36090,7 +35928,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="357" spans="1:15" ht="14.25">
+    <row r="357" spans="1:15" ht="14.25" hidden="1">
       <c r="A357" s="3" t="s">
         <v>2527</v>
       </c>
@@ -36134,7 +35972,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="358" spans="1:15" ht="14.25">
+    <row r="358" spans="1:15" ht="14.25" hidden="1">
       <c r="A358" s="3" t="s">
         <v>2533</v>
       </c>
@@ -36178,7 +36016,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="359" spans="1:15" ht="14.25">
+    <row r="359" spans="1:15" ht="14.25" hidden="1">
       <c r="A359" s="3" t="s">
         <v>2540</v>
       </c>
@@ -36225,7 +36063,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="360" spans="1:15" ht="14.25">
+    <row r="360" spans="1:15" ht="14.25" hidden="1">
       <c r="A360" s="3" t="s">
         <v>2549</v>
       </c>
@@ -36272,7 +36110,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="361" spans="1:15" ht="14.25">
+    <row r="361" spans="1:15" ht="14.25" hidden="1">
       <c r="A361" s="3" t="s">
         <v>2557</v>
       </c>
@@ -36316,7 +36154,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="362" spans="1:15" ht="14.25">
+    <row r="362" spans="1:15" ht="14.25" hidden="1">
       <c r="A362" s="3" t="s">
         <v>2564</v>
       </c>
@@ -36360,7 +36198,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="363" spans="1:15" ht="14.25">
+    <row r="363" spans="1:15" ht="14.25" hidden="1">
       <c r="A363" s="3" t="s">
         <v>2571</v>
       </c>
@@ -36407,7 +36245,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="364" spans="1:15" ht="14.25">
+    <row r="364" spans="1:15" ht="14.25" hidden="1">
       <c r="A364" s="3" t="s">
         <v>2578</v>
       </c>
@@ -36454,7 +36292,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="365" spans="1:15" ht="14.25">
+    <row r="365" spans="1:15" ht="14.25" hidden="1">
       <c r="A365" s="3" t="s">
         <v>2586</v>
       </c>
@@ -36501,7 +36339,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="366" spans="1:15" ht="14.25">
+    <row r="366" spans="1:15" ht="14.25" hidden="1">
       <c r="A366" s="3" t="s">
         <v>2593</v>
       </c>
@@ -36545,7 +36383,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="367" spans="1:15" ht="14.25">
+    <row r="367" spans="1:15" ht="14.25" hidden="1">
       <c r="A367" s="3" t="s">
         <v>2601</v>
       </c>
@@ -36589,7 +36427,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="368" spans="1:15" ht="14.25">
+    <row r="368" spans="1:15" ht="14.25" hidden="1">
       <c r="A368" s="3" t="s">
         <v>2609</v>
       </c>
@@ -36636,7 +36474,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="369" spans="1:15" ht="14.25">
+    <row r="369" spans="1:15" ht="14.25" hidden="1">
       <c r="A369" s="3" t="s">
         <v>116</v>
       </c>
@@ -36683,7 +36521,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="370" spans="1:15" ht="14.25">
+    <row r="370" spans="1:15" ht="14.25" hidden="1">
       <c r="A370" s="3" t="s">
         <v>2618</v>
       </c>
@@ -36727,7 +36565,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="371" spans="1:15" ht="14.25">
+    <row r="371" spans="1:15" ht="14.25" hidden="1">
       <c r="A371" s="3" t="s">
         <v>2626</v>
       </c>
@@ -36774,7 +36612,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="372" spans="1:15" ht="14.25">
+    <row r="372" spans="1:15" ht="14.25" hidden="1">
       <c r="A372" s="3" t="s">
         <v>2632</v>
       </c>
@@ -36818,7 +36656,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="373" spans="1:15" ht="14.25">
+    <row r="373" spans="1:15" ht="14.25" hidden="1">
       <c r="A373" s="3" t="s">
         <v>2638</v>
       </c>
@@ -36865,7 +36703,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="374" spans="1:15" ht="14.25">
+    <row r="374" spans="1:15" ht="14.25" hidden="1">
       <c r="A374" s="3" t="s">
         <v>2644</v>
       </c>
@@ -36909,7 +36747,7 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="375" spans="1:15" ht="14.25">
+    <row r="375" spans="1:15" ht="14.25" hidden="1">
       <c r="A375" s="3" t="s">
         <v>2650</v>
       </c>
@@ -36956,7 +36794,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="376" spans="1:15" ht="14.25">
+    <row r="376" spans="1:15" ht="14.25" hidden="1">
       <c r="A376" s="3" t="s">
         <v>2658</v>
       </c>
@@ -37000,7 +36838,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="377" spans="1:15" ht="14.25">
+    <row r="377" spans="1:15" ht="14.25" hidden="1">
       <c r="A377" s="3" t="s">
         <v>2664</v>
       </c>
@@ -37047,7 +36885,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="378" spans="1:15" ht="14.25">
+    <row r="378" spans="1:15" ht="14.25" hidden="1">
       <c r="A378" s="3" t="s">
         <v>2672</v>
       </c>
@@ -37091,7 +36929,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="379" spans="1:15" ht="14.25">
+    <row r="379" spans="1:15" ht="14.25" hidden="1">
       <c r="A379" s="3" t="s">
         <v>2680</v>
       </c>
@@ -37138,7 +36976,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="380" spans="1:15" ht="14.25">
+    <row r="380" spans="1:15" ht="14.25" hidden="1">
       <c r="A380" s="3" t="s">
         <v>2687</v>
       </c>
@@ -37182,7 +37020,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="381" spans="1:15" ht="14.25">
+    <row r="381" spans="1:15" ht="14.25" hidden="1">
       <c r="A381" s="3" t="s">
         <v>2694</v>
       </c>
@@ -37226,7 +37064,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="382" spans="1:15" ht="14.25">
+    <row r="382" spans="1:15" ht="14.25" hidden="1">
       <c r="A382" s="3" t="s">
         <v>2700</v>
       </c>
@@ -37270,7 +37108,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="383" spans="1:15" ht="14.25">
+    <row r="383" spans="1:15" ht="14.25" hidden="1">
       <c r="A383" s="3" t="s">
         <v>2707</v>
       </c>
@@ -37317,7 +37155,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="384" spans="1:15" ht="14.25">
+    <row r="384" spans="1:15" ht="14.25" hidden="1">
       <c r="A384" s="3" t="s">
         <v>2714</v>
       </c>
@@ -37364,7 +37202,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="385" spans="1:15" ht="14.25">
+    <row r="385" spans="1:15" ht="14.25" hidden="1">
       <c r="A385" s="3" t="s">
         <v>2721</v>
       </c>
@@ -37411,7 +37249,7 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="386" spans="1:15" ht="14.25">
+    <row r="386" spans="1:15" ht="14.25" hidden="1">
       <c r="A386" s="3" t="s">
         <v>2728</v>
       </c>
@@ -37458,7 +37296,7 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="387" spans="1:15" ht="14.25">
+    <row r="387" spans="1:15" ht="14.25" hidden="1">
       <c r="A387" s="3" t="s">
         <v>2736</v>
       </c>
@@ -37505,7 +37343,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="388" spans="1:15" ht="14.25">
+    <row r="388" spans="1:15" ht="14.25" hidden="1">
       <c r="A388" s="3" t="s">
         <v>2742</v>
       </c>
@@ -37549,7 +37387,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="389" spans="1:15" ht="14.25">
+    <row r="389" spans="1:15" ht="14.25" hidden="1">
       <c r="A389" s="3" t="s">
         <v>2750</v>
       </c>
@@ -37593,7 +37431,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="390" spans="1:15" ht="14.25">
+    <row r="390" spans="1:15" ht="14.25" hidden="1">
       <c r="A390" s="3" t="s">
         <v>2758</v>
       </c>
@@ -37637,7 +37475,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="391" spans="1:15" ht="14.25">
+    <row r="391" spans="1:15" ht="14.25" hidden="1">
       <c r="A391" s="3" t="s">
         <v>2765</v>
       </c>
@@ -37684,7 +37522,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="392" spans="1:15" ht="14.25">
+    <row r="392" spans="1:15" ht="14.25" hidden="1">
       <c r="A392" s="3" t="s">
         <v>2773</v>
       </c>
@@ -37731,7 +37569,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="393" spans="1:15" ht="14.25">
+    <row r="393" spans="1:15" ht="14.25" hidden="1">
       <c r="A393" s="3" t="s">
         <v>2781</v>
       </c>
@@ -37778,7 +37616,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="394" spans="1:15" ht="14.25">
+    <row r="394" spans="1:15" ht="14.25" hidden="1">
       <c r="A394" s="3" t="s">
         <v>2787</v>
       </c>
@@ -37825,7 +37663,7 @@
         <v>2795</v>
       </c>
     </row>
-    <row r="395" spans="1:15" ht="14.25">
+    <row r="395" spans="1:15" ht="14.25" hidden="1">
       <c r="A395" s="3" t="s">
         <v>2796</v>
       </c>
@@ -37869,7 +37707,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="396" spans="1:15" ht="14.25">
+    <row r="396" spans="1:15" ht="14.25" hidden="1">
       <c r="A396" s="3" t="s">
         <v>2804</v>
       </c>
@@ -37913,7 +37751,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="397" spans="1:15" ht="14.25">
+    <row r="397" spans="1:15" ht="14.25" hidden="1">
       <c r="A397" s="3" t="s">
         <v>2812</v>
       </c>
@@ -37957,7 +37795,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="398" spans="1:15" ht="14.25">
+    <row r="398" spans="1:15" ht="14.25" hidden="1">
       <c r="A398" s="3" t="s">
         <v>2818</v>
       </c>
@@ -38001,7 +37839,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="399" spans="1:15" ht="14.25">
+    <row r="399" spans="1:15" ht="14.25" hidden="1">
       <c r="A399" s="3" t="s">
         <v>2826</v>
       </c>
@@ -38045,7 +37883,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="400" spans="1:15" ht="14.25">
+    <row r="400" spans="1:15" ht="14.25" hidden="1">
       <c r="A400" s="3" t="s">
         <v>2833</v>
       </c>
@@ -38092,7 +37930,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="401" spans="1:15" ht="14.25">
+    <row r="401" spans="1:15" ht="14.25" hidden="1">
       <c r="A401" s="3" t="s">
         <v>2842</v>
       </c>
@@ -38136,7 +37974,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="402" spans="1:15" ht="14.25">
+    <row r="402" spans="1:15" ht="14.25" hidden="1">
       <c r="A402" s="3" t="s">
         <v>2849</v>
       </c>
@@ -38183,7 +38021,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="403" spans="1:15" ht="14.25">
+    <row r="403" spans="1:15" ht="14.25" hidden="1">
       <c r="A403" s="3" t="s">
         <v>2856</v>
       </c>
@@ -38227,7 +38065,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="404" spans="1:15" ht="14.25">
+    <row r="404" spans="1:15" ht="14.25" hidden="1">
       <c r="A404" s="3" t="s">
         <v>2863</v>
       </c>
@@ -38271,7 +38109,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="405" spans="1:15" ht="14.25">
+    <row r="405" spans="1:15" ht="14.25" hidden="1">
       <c r="A405" s="3" t="s">
         <v>2870</v>
       </c>
@@ -38315,7 +38153,7 @@
         <v>2876</v>
       </c>
     </row>
-    <row r="406" spans="1:15" ht="14.25">
+    <row r="406" spans="1:15" ht="14.25" hidden="1">
       <c r="A406" s="3" t="s">
         <v>2877</v>
       </c>
@@ -38362,7 +38200,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="407" spans="1:15" ht="14.25">
+    <row r="407" spans="1:15" ht="14.25" hidden="1">
       <c r="A407" s="3" t="s">
         <v>2886</v>
       </c>
@@ -38409,7 +38247,7 @@
         <v>2892</v>
       </c>
     </row>
-    <row r="408" spans="1:15" ht="14.25">
+    <row r="408" spans="1:15" ht="14.25" hidden="1">
       <c r="A408" s="3" t="s">
         <v>2893</v>
       </c>
@@ -38453,7 +38291,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="409" spans="1:15" ht="14.25">
+    <row r="409" spans="1:15" ht="14.25" hidden="1">
       <c r="A409" s="3" t="s">
         <v>2893</v>
       </c>
@@ -38497,7 +38335,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="410" spans="1:15" ht="14.25">
+    <row r="410" spans="1:15" ht="14.25" hidden="1">
       <c r="A410" s="3" t="s">
         <v>76</v>
       </c>
@@ -38541,7 +38379,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="411" spans="1:15" ht="14.25">
+    <row r="411" spans="1:15" ht="14.25" hidden="1">
       <c r="A411" s="3" t="s">
         <v>132</v>
       </c>
@@ -38588,7 +38426,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="412" spans="1:15" ht="14.25">
+    <row r="412" spans="1:15" ht="14.25" hidden="1">
       <c r="A412" s="3" t="s">
         <v>2913</v>
       </c>
@@ -38632,7 +38470,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="413" spans="1:15" ht="14.25">
+    <row r="413" spans="1:15" ht="14.25" hidden="1">
       <c r="A413" s="3" t="s">
         <v>2919</v>
       </c>
@@ -38679,7 +38517,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="414" spans="1:15" ht="14.25">
+    <row r="414" spans="1:15" ht="14.25" hidden="1">
       <c r="A414" s="3" t="s">
         <v>2927</v>
       </c>
@@ -38723,7 +38561,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="415" spans="1:15" ht="14.25">
+    <row r="415" spans="1:15" ht="14.25" hidden="1">
       <c r="A415" s="3" t="s">
         <v>2935</v>
       </c>
@@ -38767,7 +38605,7 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="416" spans="1:15" ht="14.25">
+    <row r="416" spans="1:15" ht="14.25" hidden="1">
       <c r="A416" s="3" t="s">
         <v>2942</v>
       </c>
@@ -38811,7 +38649,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="417" spans="1:15" ht="14.25">
+    <row r="417" spans="1:15" ht="14.25" hidden="1">
       <c r="A417" s="3" t="s">
         <v>2947</v>
       </c>
@@ -38855,7 +38693,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="418" spans="1:15" ht="14.25">
+    <row r="418" spans="1:15" ht="14.25" hidden="1">
       <c r="A418" s="3" t="s">
         <v>2951</v>
       </c>
@@ -38899,7 +38737,7 @@
         <v>2956</v>
       </c>
     </row>
-    <row r="419" spans="1:15" ht="14.25">
+    <row r="419" spans="1:15" ht="14.25" hidden="1">
       <c r="A419" s="3" t="s">
         <v>2957</v>
       </c>
@@ -38943,7 +38781,7 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="420" spans="1:15" ht="14.25">
+    <row r="420" spans="1:15" ht="14.25" hidden="1">
       <c r="A420" s="3" t="s">
         <v>2963</v>
       </c>
@@ -38990,7 +38828,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="421" spans="1:15" ht="14.25">
+    <row r="421" spans="1:15" ht="14.25" hidden="1">
       <c r="A421" s="3" t="s">
         <v>2971</v>
       </c>
@@ -39034,7 +38872,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="422" spans="1:15" ht="14.25">
+    <row r="422" spans="1:15" ht="14.25" hidden="1">
       <c r="A422" s="3" t="s">
         <v>2978</v>
       </c>
@@ -39081,7 +38919,7 @@
         <v>2983</v>
       </c>
     </row>
-    <row r="423" spans="1:15" ht="14.25">
+    <row r="423" spans="1:15" ht="14.25" hidden="1">
       <c r="A423" s="3" t="s">
         <v>2984</v>
       </c>
@@ -39125,7 +38963,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="424" spans="1:15" ht="14.25">
+    <row r="424" spans="1:15" ht="14.25" hidden="1">
       <c r="A424" s="3" t="s">
         <v>2991</v>
       </c>
@@ -39169,7 +39007,7 @@
         <v>2997</v>
       </c>
     </row>
-    <row r="425" spans="1:15" ht="14.25">
+    <row r="425" spans="1:15" ht="14.25" hidden="1">
       <c r="A425" s="3" t="s">
         <v>2998</v>
       </c>
@@ -39213,7 +39051,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="426" spans="1:15" ht="14.25">
+    <row r="426" spans="1:15" ht="14.25" hidden="1">
       <c r="A426" s="3" t="s">
         <v>3006</v>
       </c>
@@ -39260,7 +39098,7 @@
         <v>3013</v>
       </c>
     </row>
-    <row r="427" spans="1:15" ht="14.25">
+    <row r="427" spans="1:15" ht="14.25" hidden="1">
       <c r="A427" s="3" t="s">
         <v>3014</v>
       </c>
@@ -39307,7 +39145,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="428" spans="1:15" ht="14.25">
+    <row r="428" spans="1:15" ht="14.25" hidden="1">
       <c r="A428" s="3" t="s">
         <v>3018</v>
       </c>
@@ -39354,7 +39192,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="429" spans="1:15" ht="14.25">
+    <row r="429" spans="1:15" ht="14.25" hidden="1">
       <c r="A429" s="3" t="s">
         <v>3022</v>
       </c>
@@ -39398,7 +39236,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="430" spans="1:15" ht="14.25">
+    <row r="430" spans="1:15" ht="14.25" hidden="1">
       <c r="A430" s="3" t="s">
         <v>3030</v>
       </c>
@@ -39445,7 +39283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="431" spans="1:15" ht="14.25">
+    <row r="431" spans="1:15" ht="14.25" hidden="1">
       <c r="A431" s="3" t="s">
         <v>3035</v>
       </c>
@@ -39492,7 +39330,7 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="432" spans="1:15" ht="14.25">
+    <row r="432" spans="1:15" ht="14.25" hidden="1">
       <c r="A432" s="3" t="s">
         <v>3043</v>
       </c>
@@ -39536,7 +39374,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="433" spans="1:15" ht="14.25">
+    <row r="433" spans="1:15" ht="14.25" hidden="1">
       <c r="A433" s="3" t="s">
         <v>3051</v>
       </c>
@@ -39580,7 +39418,7 @@
         <v>3057</v>
       </c>
     </row>
-    <row r="434" spans="1:15" ht="14.25">
+    <row r="434" spans="1:15" ht="14.25" hidden="1">
       <c r="A434" s="3" t="s">
         <v>3058</v>
       </c>
@@ -39624,7 +39462,7 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="435" spans="1:15" ht="14.25">
+    <row r="435" spans="1:15" ht="14.25" hidden="1">
       <c r="A435" s="3" t="s">
         <v>3066</v>
       </c>
@@ -39668,7 +39506,7 @@
         <v>3072</v>
       </c>
     </row>
-    <row r="436" spans="1:15" ht="14.25">
+    <row r="436" spans="1:15" ht="14.25" hidden="1">
       <c r="A436" s="3" t="s">
         <v>3066</v>
       </c>
@@ -39712,7 +39550,7 @@
         <v>3072</v>
       </c>
     </row>
-    <row r="437" spans="1:15" ht="14.25">
+    <row r="437" spans="1:15" ht="14.25" hidden="1">
       <c r="A437" s="3" t="s">
         <v>3075</v>
       </c>
@@ -39759,7 +39597,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="438" spans="1:15" ht="14.25">
+    <row r="438" spans="1:15" ht="14.25" hidden="1">
       <c r="A438" s="3" t="s">
         <v>3084</v>
       </c>
@@ -39803,7 +39641,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="439" spans="1:15" ht="14.25">
+    <row r="439" spans="1:15" ht="14.25" hidden="1">
       <c r="A439" s="3" t="s">
         <v>3090</v>
       </c>
@@ -39847,7 +39685,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="440" spans="1:15" ht="14.25">
+    <row r="440" spans="1:15" ht="14.25" hidden="1">
       <c r="A440" s="3" t="s">
         <v>3096</v>
       </c>
@@ -39894,7 +39732,7 @@
         <v>3102</v>
       </c>
     </row>
-    <row r="441" spans="1:15" ht="14.25">
+    <row r="441" spans="1:15" ht="14.25" hidden="1">
       <c r="A441" s="3" t="s">
         <v>3103</v>
       </c>
@@ -39938,7 +39776,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="442" spans="1:15" ht="14.25">
+    <row r="442" spans="1:15" ht="14.25" hidden="1">
       <c r="A442" s="3" t="s">
         <v>3109</v>
       </c>
@@ -39982,7 +39820,7 @@
         <v>3116</v>
       </c>
     </row>
-    <row r="443" spans="1:15" ht="14.25">
+    <row r="443" spans="1:15" ht="14.25" hidden="1">
       <c r="A443" s="3" t="s">
         <v>3117</v>
       </c>
@@ -40026,7 +39864,7 @@
         <v>3123</v>
       </c>
     </row>
-    <row r="444" spans="1:15" ht="14.25">
+    <row r="444" spans="1:15" ht="14.25" hidden="1">
       <c r="A444" s="3" t="s">
         <v>3124</v>
       </c>
@@ -40073,7 +39911,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="445" spans="1:15" ht="14.25">
+    <row r="445" spans="1:15" ht="14.25" hidden="1">
       <c r="A445" s="3" t="s">
         <v>3128</v>
       </c>
@@ -40120,7 +39958,7 @@
         <v>3134</v>
       </c>
     </row>
-    <row r="446" spans="1:15" ht="14.25">
+    <row r="446" spans="1:15" ht="14.25" hidden="1">
       <c r="A446" s="3" t="s">
         <v>3135</v>
       </c>
@@ -40167,7 +40005,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="447" spans="1:15" ht="14.25">
+    <row r="447" spans="1:15" ht="14.25" hidden="1">
       <c r="A447" s="3" t="s">
         <v>90</v>
       </c>
@@ -40211,7 +40049,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="448" spans="1:15" ht="14.25">
+    <row r="448" spans="1:15" ht="14.25" hidden="1">
       <c r="A448" s="3" t="s">
         <v>3143</v>
       </c>
@@ -40258,7 +40096,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="449" spans="1:15" ht="14.25">
+    <row r="449" spans="1:15" ht="14.25" hidden="1">
       <c r="A449" s="3" t="s">
         <v>3151</v>
       </c>
@@ -40302,7 +40140,7 @@
         <v>3156</v>
       </c>
     </row>
-    <row r="450" spans="1:15" ht="14.25">
+    <row r="450" spans="1:15" ht="14.25" hidden="1">
       <c r="A450" s="3" t="s">
         <v>3157</v>
       </c>
@@ -40349,7 +40187,7 @@
         <v>3163</v>
       </c>
     </row>
-    <row r="451" spans="1:15" ht="14.25">
+    <row r="451" spans="1:15" ht="14.25" hidden="1">
       <c r="A451" s="3" t="s">
         <v>3164</v>
       </c>
@@ -40393,7 +40231,7 @@
         <v>3171</v>
       </c>
     </row>
-    <row r="452" spans="1:15" ht="14.25">
+    <row r="452" spans="1:15" ht="14.25" hidden="1">
       <c r="A452" s="3" t="s">
         <v>3172</v>
       </c>
@@ -40440,7 +40278,7 @@
         <v>3178</v>
       </c>
     </row>
-    <row r="453" spans="1:15" ht="14.25">
+    <row r="453" spans="1:15" ht="14.25" hidden="1">
       <c r="A453" s="3" t="s">
         <v>3179</v>
       </c>
@@ -40484,7 +40322,7 @@
         <v>3186</v>
       </c>
     </row>
-    <row r="454" spans="1:15" ht="14.25">
+    <row r="454" spans="1:15" ht="14.25" hidden="1">
       <c r="A454" s="3" t="s">
         <v>3179</v>
       </c>
@@ -40528,7 +40366,7 @@
         <v>3192</v>
       </c>
     </row>
-    <row r="455" spans="1:15" ht="14.25">
+    <row r="455" spans="1:15" ht="14.25" hidden="1">
       <c r="A455" s="3" t="s">
         <v>3193</v>
       </c>
@@ -40575,7 +40413,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="456" spans="1:15" ht="14.25">
+    <row r="456" spans="1:15" ht="14.25" hidden="1">
       <c r="A456" s="3" t="s">
         <v>3201</v>
       </c>
@@ -40622,7 +40460,7 @@
         <v>3209</v>
       </c>
     </row>
-    <row r="457" spans="1:15" ht="14.25">
+    <row r="457" spans="1:15" ht="14.25" hidden="1">
       <c r="A457" s="3" t="s">
         <v>3210</v>
       </c>
@@ -40666,7 +40504,7 @@
         <v>3216</v>
       </c>
     </row>
-    <row r="458" spans="1:15" ht="14.25">
+    <row r="458" spans="1:15" ht="14.25" hidden="1">
       <c r="A458" s="3" t="s">
         <v>3217</v>
       </c>
@@ -40713,7 +40551,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="459" spans="1:15" ht="14.25">
+    <row r="459" spans="1:15" ht="14.25" hidden="1">
       <c r="A459" s="3" t="s">
         <v>3223</v>
       </c>
@@ -40757,7 +40595,7 @@
         <v>3229</v>
       </c>
     </row>
-    <row r="460" spans="1:15" ht="14.25">
+    <row r="460" spans="1:15" ht="14.25" hidden="1">
       <c r="A460" s="3" t="s">
         <v>3230</v>
       </c>
@@ -40804,7 +40642,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="461" spans="1:15" ht="14.25">
+    <row r="461" spans="1:15" ht="14.25" hidden="1">
       <c r="A461" s="3" t="s">
         <v>3238</v>
       </c>
@@ -40851,7 +40689,7 @@
         <v>3246</v>
       </c>
     </row>
-    <row r="462" spans="1:15" ht="14.25">
+    <row r="462" spans="1:15" ht="14.25" hidden="1">
       <c r="A462" s="3" t="s">
         <v>3247</v>
       </c>
@@ -40895,7 +40733,7 @@
         <v>3253</v>
       </c>
     </row>
-    <row r="463" spans="1:15" ht="14.25">
+    <row r="463" spans="1:15" ht="14.25" hidden="1">
       <c r="A463" s="3" t="s">
         <v>3254</v>
       </c>
@@ -40942,7 +40780,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="464" spans="1:15" ht="14.25">
+    <row r="464" spans="1:15" ht="14.25" hidden="1">
       <c r="A464" s="3" t="s">
         <v>3262</v>
       </c>
@@ -40986,7 +40824,7 @@
         <v>3268</v>
       </c>
     </row>
-    <row r="465" spans="1:27" ht="14.25">
+    <row r="465" spans="1:27" ht="14.25" hidden="1">
       <c r="A465" s="3" t="s">
         <v>3269</v>
       </c>
@@ -41027,7 +40865,7 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="466" spans="1:27" ht="14.25">
+    <row r="466" spans="1:27" ht="14.25" hidden="1">
       <c r="A466" s="3" t="s">
         <v>3276</v>
       </c>
@@ -41074,7 +40912,7 @@
         <v>3282</v>
       </c>
     </row>
-    <row r="467" spans="1:27" ht="14.25">
+    <row r="467" spans="1:27" ht="14.25" hidden="1">
       <c r="A467" s="3" t="s">
         <v>3283</v>
       </c>
@@ -41121,7 +40959,7 @@
         <v>3289</v>
       </c>
     </row>
-    <row r="468" spans="1:27" ht="14.25">
+    <row r="468" spans="1:27" ht="14.25" hidden="1">
       <c r="A468" s="3" t="s">
         <v>15</v>
       </c>
@@ -41165,7 +41003,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="469" spans="1:27" ht="14.25">
+    <row r="469" spans="1:27" ht="14.25" hidden="1">
       <c r="A469" s="3" t="s">
         <v>3293</v>
       </c>
@@ -41209,7 +41047,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="470" spans="1:27" ht="14.25">
+    <row r="470" spans="1:27" ht="14.25" hidden="1">
       <c r="A470" s="3" t="s">
         <v>3300</v>
       </c>
@@ -41253,7 +41091,7 @@
         <v>3306</v>
       </c>
     </row>
-    <row r="471" spans="1:27" ht="14.25">
+    <row r="471" spans="1:27" ht="14.25" hidden="1">
       <c r="A471" s="6" t="s">
         <v>3307</v>
       </c>
@@ -41310,7 +41148,7 @@
       <c r="Z471" s="6"/>
       <c r="AA471" s="6"/>
     </row>
-    <row r="472" spans="1:27" ht="14.25">
+    <row r="472" spans="1:27" ht="14.25" hidden="1">
       <c r="A472" s="6" t="s">
         <v>3307</v>
       </c>
@@ -41369,7 +41207,7 @@
       <c r="Z472" s="6"/>
       <c r="AA472" s="6"/>
     </row>
-    <row r="473" spans="1:27" ht="14.25">
+    <row r="473" spans="1:27" ht="14.25" hidden="1">
       <c r="A473" s="6" t="s">
         <v>3307</v>
       </c>
@@ -41428,7 +41266,7 @@
       <c r="Z473" s="6"/>
       <c r="AA473" s="6"/>
     </row>
-    <row r="474" spans="1:27" ht="14.25">
+    <row r="474" spans="1:27" ht="14.25" hidden="1">
       <c r="A474" s="6" t="s">
         <v>3307</v>
       </c>
@@ -41487,7 +41325,7 @@
       <c r="Z474" s="6"/>
       <c r="AA474" s="6"/>
     </row>
-    <row r="475" spans="1:27" ht="14.25">
+    <row r="475" spans="1:27" ht="14.25" hidden="1">
       <c r="A475" s="6" t="s">
         <v>3307</v>
       </c>
@@ -41546,7 +41384,7 @@
       <c r="Z475" s="6"/>
       <c r="AA475" s="6"/>
     </row>
-    <row r="476" spans="1:27" ht="14.25">
+    <row r="476" spans="1:27" ht="14.25" hidden="1">
       <c r="A476" s="3" t="s">
         <v>3334</v>
       </c>
@@ -41590,7 +41428,7 @@
         <v>3342</v>
       </c>
     </row>
-    <row r="477" spans="1:27" ht="14.25">
+    <row r="477" spans="1:27" ht="14.25" hidden="1">
       <c r="A477" s="3" t="s">
         <v>3334</v>
       </c>
@@ -41634,7 +41472,7 @@
         <v>3342</v>
       </c>
     </row>
-    <row r="478" spans="1:27" ht="14.25">
+    <row r="478" spans="1:27" ht="14.25" hidden="1">
       <c r="A478" s="3" t="s">
         <v>3346</v>
       </c>
@@ -41681,7 +41519,7 @@
         <v>3354</v>
       </c>
     </row>
-    <row r="479" spans="1:27" ht="14.25">
+    <row r="479" spans="1:27" ht="14.25" hidden="1">
       <c r="A479" s="3" t="s">
         <v>3355</v>
       </c>
@@ -41725,7 +41563,7 @@
         <v>3361</v>
       </c>
     </row>
-    <row r="480" spans="1:27" ht="14.25">
+    <row r="480" spans="1:27" ht="14.25" hidden="1">
       <c r="A480" s="3" t="s">
         <v>3362</v>
       </c>
@@ -41769,7 +41607,7 @@
         <v>3369</v>
       </c>
     </row>
-    <row r="481" spans="1:15" ht="14.25">
+    <row r="481" spans="1:15" ht="14.25" hidden="1">
       <c r="A481" s="3" t="s">
         <v>3370</v>
       </c>
@@ -41813,7 +41651,7 @@
         <v>3377</v>
       </c>
     </row>
-    <row r="482" spans="1:15" ht="14.25">
+    <row r="482" spans="1:15" ht="14.25" hidden="1">
       <c r="A482" s="3" t="s">
         <v>3378</v>
       </c>
@@ -41857,7 +41695,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="483" spans="1:15" ht="14.25">
+    <row r="483" spans="1:15" ht="14.25" hidden="1">
       <c r="A483" s="3" t="s">
         <v>3385</v>
       </c>
@@ -41901,7 +41739,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="484" spans="1:15" ht="14.25">
+    <row r="484" spans="1:15" ht="14.25" hidden="1">
       <c r="A484" s="3" t="s">
         <v>3391</v>
       </c>
@@ -41945,7 +41783,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="485" spans="1:15" ht="14.25">
+    <row r="485" spans="1:15" ht="14.25" hidden="1">
       <c r="A485" s="3" t="s">
         <v>3391</v>
       </c>
@@ -41989,7 +41827,7 @@
         <v>3399</v>
       </c>
     </row>
-    <row r="486" spans="1:15" ht="14.25">
+    <row r="486" spans="1:15" ht="14.25" hidden="1">
       <c r="A486" s="3" t="s">
         <v>3400</v>
       </c>
@@ -42036,7 +41874,7 @@
         <v>3407</v>
       </c>
     </row>
-    <row r="487" spans="1:15" ht="14.25">
+    <row r="487" spans="1:15" ht="14.25" hidden="1">
       <c r="A487" s="3" t="s">
         <v>3408</v>
       </c>
@@ -42080,7 +41918,7 @@
         <v>3415</v>
       </c>
     </row>
-    <row r="488" spans="1:15" ht="14.25">
+    <row r="488" spans="1:15" ht="14.25" hidden="1">
       <c r="A488" s="3" t="s">
         <v>3416</v>
       </c>
@@ -42124,7 +41962,7 @@
         <v>3423</v>
       </c>
     </row>
-    <row r="489" spans="1:15" ht="14.25">
+    <row r="489" spans="1:15" ht="14.25" hidden="1">
       <c r="A489" s="3" t="s">
         <v>3416</v>
       </c>
@@ -42168,7 +42006,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="490" spans="1:15" ht="14.25">
+    <row r="490" spans="1:15" ht="14.25" hidden="1">
       <c r="A490" s="3" t="s">
         <v>3427</v>
       </c>
@@ -42212,7 +42050,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="491" spans="1:15" ht="14.25">
+    <row r="491" spans="1:15" ht="14.25" hidden="1">
       <c r="A491" s="3" t="s">
         <v>3434</v>
       </c>
@@ -42259,7 +42097,7 @@
         <v>3439</v>
       </c>
     </row>
-    <row r="492" spans="1:15" ht="14.25">
+    <row r="492" spans="1:15" ht="14.25" hidden="1">
       <c r="A492" s="3" t="s">
         <v>3434</v>
       </c>
@@ -42306,7 +42144,7 @@
         <v>3439</v>
       </c>
     </row>
-    <row r="493" spans="1:15" ht="14.25">
+    <row r="493" spans="1:15" ht="14.25" hidden="1">
       <c r="A493" s="3" t="s">
         <v>3442</v>
       </c>
@@ -42350,7 +42188,7 @@
         <v>3447</v>
       </c>
     </row>
-    <row r="494" spans="1:15" ht="14.25">
+    <row r="494" spans="1:15" ht="14.25" hidden="1">
       <c r="A494" s="3" t="s">
         <v>3448</v>
       </c>
@@ -42394,7 +42232,7 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="495" spans="1:15" ht="14.25">
+    <row r="495" spans="1:15" ht="14.25" hidden="1">
       <c r="A495" s="3" t="s">
         <v>3456</v>
       </c>
@@ -42438,7 +42276,7 @@
         <v>3461</v>
       </c>
     </row>
-    <row r="496" spans="1:15" ht="14.25">
+    <row r="496" spans="1:15" ht="14.25" hidden="1">
       <c r="A496" s="3" t="s">
         <v>3462</v>
       </c>
@@ -42482,7 +42320,7 @@
         <v>3467</v>
       </c>
     </row>
-    <row r="497" spans="1:15" ht="14.25">
+    <row r="497" spans="1:15" ht="14.25" hidden="1">
       <c r="A497" s="3" t="s">
         <v>3468</v>
       </c>
@@ -42526,7 +42364,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="498" spans="1:15" ht="14.25">
+    <row r="498" spans="1:15" ht="14.25" hidden="1">
       <c r="A498" s="3" t="s">
         <v>3474</v>
       </c>
@@ -42570,7 +42408,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="499" spans="1:15" ht="14.25">
+    <row r="499" spans="1:15" ht="14.25" hidden="1">
       <c r="A499" s="3" t="s">
         <v>3474</v>
       </c>
@@ -42611,7 +42449,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="500" spans="1:15" ht="14.25">
+    <row r="500" spans="1:15" ht="14.25" hidden="1">
       <c r="A500" s="3" t="s">
         <v>3484</v>
       </c>
@@ -42655,7 +42493,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="501" spans="1:15" ht="14.25">
+    <row r="501" spans="1:15" ht="14.25" hidden="1">
       <c r="A501" s="3" t="s">
         <v>3490</v>
       </c>
@@ -42699,7 +42537,7 @@
         <v>3494</v>
       </c>
     </row>
-    <row r="502" spans="1:15" ht="14.25">
+    <row r="502" spans="1:15" ht="14.25" hidden="1">
       <c r="A502" s="3" t="s">
         <v>3495</v>
       </c>
@@ -42743,7 +42581,7 @@
         <v>3499</v>
       </c>
     </row>
-    <row r="503" spans="1:15" ht="14.25">
+    <row r="503" spans="1:15" ht="14.25" hidden="1">
       <c r="A503" s="3" t="s">
         <v>3500</v>
       </c>
@@ -42787,7 +42625,7 @@
         <v>3507</v>
       </c>
     </row>
-    <row r="504" spans="1:15" ht="14.25">
+    <row r="504" spans="1:15" ht="14.25" hidden="1">
       <c r="A504" s="3" t="s">
         <v>3508</v>
       </c>
@@ -42831,7 +42669,7 @@
         <v>3515</v>
       </c>
     </row>
-    <row r="505" spans="1:15" ht="14.25">
+    <row r="505" spans="1:15" ht="14.25" hidden="1">
       <c r="A505" s="3" t="s">
         <v>3516</v>
       </c>
@@ -42878,7 +42716,7 @@
         <v>3521</v>
       </c>
     </row>
-    <row r="506" spans="1:15" ht="14.25">
+    <row r="506" spans="1:15" ht="14.25" hidden="1">
       <c r="A506" s="3" t="s">
         <v>3522</v>
       </c>
@@ -42922,7 +42760,7 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="507" spans="1:15" ht="14.25">
+    <row r="507" spans="1:15" ht="14.25" hidden="1">
       <c r="A507" s="3" t="s">
         <v>3529</v>
       </c>
@@ -42966,7 +42804,7 @@
         <v>3536</v>
       </c>
     </row>
-    <row r="508" spans="1:15" ht="14.25">
+    <row r="508" spans="1:15" ht="14.25" hidden="1">
       <c r="A508" s="3" t="s">
         <v>3537</v>
       </c>
@@ -43010,7 +42848,7 @@
         <v>3543</v>
       </c>
     </row>
-    <row r="509" spans="1:15" ht="14.25">
+    <row r="509" spans="1:15" ht="14.25" hidden="1">
       <c r="A509" s="3" t="s">
         <v>3544</v>
       </c>
@@ -43054,7 +42892,7 @@
         <v>3551</v>
       </c>
     </row>
-    <row r="510" spans="1:15" ht="14.25">
+    <row r="510" spans="1:15" ht="14.25" hidden="1">
       <c r="A510" s="3" t="s">
         <v>3552</v>
       </c>
@@ -43098,7 +42936,7 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="511" spans="1:15" ht="14.25">
+    <row r="511" spans="1:15" ht="14.25" hidden="1">
       <c r="A511" s="3" t="s">
         <v>3558</v>
       </c>
@@ -43145,7 +42983,7 @@
         <v>3565</v>
       </c>
     </row>
-    <row r="512" spans="1:15" ht="14.25">
+    <row r="512" spans="1:15" ht="14.25" hidden="1">
       <c r="A512" s="3" t="s">
         <v>3566</v>
       </c>
@@ -43192,7 +43030,7 @@
         <v>3572</v>
       </c>
     </row>
-    <row r="513" spans="1:15" ht="14.25">
+    <row r="513" spans="1:15" ht="14.25" hidden="1">
       <c r="A513" s="3" t="s">
         <v>3573</v>
       </c>
@@ -43239,7 +43077,7 @@
         <v>3580</v>
       </c>
     </row>
-    <row r="514" spans="1:15" ht="14.25">
+    <row r="514" spans="1:15" ht="14.25" hidden="1">
       <c r="A514" s="3" t="s">
         <v>3581</v>
       </c>
@@ -43283,7 +43121,7 @@
         <v>3588</v>
       </c>
     </row>
-    <row r="515" spans="1:15" ht="14.25">
+    <row r="515" spans="1:15" ht="14.25" hidden="1">
       <c r="A515" s="3" t="s">
         <v>3589</v>
       </c>
@@ -43330,7 +43168,7 @@
         <v>3597</v>
       </c>
     </row>
-    <row r="516" spans="1:15" ht="14.25">
+    <row r="516" spans="1:15" ht="14.25" hidden="1">
       <c r="A516" s="3" t="s">
         <v>3598</v>
       </c>
@@ -43374,7 +43212,7 @@
         <v>3603</v>
       </c>
     </row>
-    <row r="517" spans="1:15" ht="14.25">
+    <row r="517" spans="1:15" ht="14.25" hidden="1">
       <c r="A517" s="3" t="s">
         <v>3604</v>
       </c>
@@ -43418,7 +43256,7 @@
         <v>3609</v>
       </c>
     </row>
-    <row r="518" spans="1:15" ht="14.25">
+    <row r="518" spans="1:15" ht="14.25" hidden="1">
       <c r="A518" s="3" t="s">
         <v>3610</v>
       </c>
@@ -43462,7 +43300,7 @@
         <v>3615</v>
       </c>
     </row>
-    <row r="519" spans="1:15" ht="14.25">
+    <row r="519" spans="1:15" ht="14.25" hidden="1">
       <c r="A519" s="3" t="s">
         <v>3616</v>
       </c>
@@ -43509,7 +43347,7 @@
         <v>3624</v>
       </c>
     </row>
-    <row r="520" spans="1:15" ht="14.25">
+    <row r="520" spans="1:15" ht="14.25" hidden="1">
       <c r="A520" s="3" t="s">
         <v>3625</v>
       </c>
@@ -43556,7 +43394,7 @@
         <v>3631</v>
       </c>
     </row>
-    <row r="521" spans="1:15" ht="14.25">
+    <row r="521" spans="1:15" ht="14.25" hidden="1">
       <c r="A521" s="3" t="s">
         <v>3632</v>
       </c>
@@ -43600,7 +43438,7 @@
         <v>3638</v>
       </c>
     </row>
-    <row r="522" spans="1:15" ht="14.25">
+    <row r="522" spans="1:15" ht="14.25" hidden="1">
       <c r="A522" s="3" t="s">
         <v>3639</v>
       </c>
@@ -43641,7 +43479,7 @@
         <v>3645</v>
       </c>
     </row>
-    <row r="523" spans="1:15" ht="14.25">
+    <row r="523" spans="1:15" ht="14.25" hidden="1">
       <c r="A523" s="3" t="s">
         <v>3646</v>
       </c>
@@ -43685,7 +43523,7 @@
         <v>3652</v>
       </c>
     </row>
-    <row r="524" spans="1:15" ht="14.25">
+    <row r="524" spans="1:15" ht="14.25" hidden="1">
       <c r="A524" s="3" t="s">
         <v>3653</v>
       </c>
@@ -43729,7 +43567,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="525" spans="1:15" ht="14.25">
+    <row r="525" spans="1:15" ht="14.25" hidden="1">
       <c r="A525" s="3" t="s">
         <v>3659</v>
       </c>
@@ -43773,7 +43611,7 @@
         <v>3666</v>
       </c>
     </row>
-    <row r="526" spans="1:15" ht="14.25">
+    <row r="526" spans="1:15" ht="14.25" hidden="1">
       <c r="A526" s="3" t="s">
         <v>3667</v>
       </c>
@@ -43817,7 +43655,7 @@
         <v>3672</v>
       </c>
     </row>
-    <row r="527" spans="1:15" ht="14.25">
+    <row r="527" spans="1:15" ht="14.25" hidden="1">
       <c r="A527" s="3" t="s">
         <v>3673</v>
       </c>
@@ -43864,7 +43702,7 @@
         <v>3680</v>
       </c>
     </row>
-    <row r="528" spans="1:15" ht="14.25">
+    <row r="528" spans="1:15" ht="14.25" hidden="1">
       <c r="A528" s="3" t="s">
         <v>3673</v>
       </c>
@@ -43911,7 +43749,7 @@
         <v>3685</v>
       </c>
     </row>
-    <row r="529" spans="1:15" ht="14.25">
+    <row r="529" spans="1:15" ht="14.25" hidden="1">
       <c r="A529" s="3" t="s">
         <v>3686</v>
       </c>
@@ -43958,7 +43796,7 @@
         <v>3693</v>
       </c>
     </row>
-    <row r="530" spans="1:15" ht="14.25">
+    <row r="530" spans="1:15" ht="14.25" hidden="1">
       <c r="A530" s="3" t="s">
         <v>3694</v>
       </c>
@@ -44005,7 +43843,7 @@
         <v>3701</v>
       </c>
     </row>
-    <row r="531" spans="1:15" ht="14.25">
+    <row r="531" spans="1:15" ht="14.25" hidden="1">
       <c r="A531" s="3" t="s">
         <v>3702</v>
       </c>
@@ -44052,7 +43890,7 @@
         <v>3710</v>
       </c>
     </row>
-    <row r="532" spans="1:15" ht="14.25">
+    <row r="532" spans="1:15" ht="14.25" hidden="1">
       <c r="A532" s="3" t="s">
         <v>3711</v>
       </c>
@@ -44099,7 +43937,7 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="533" spans="1:15" ht="14.25">
+    <row r="533" spans="1:15" ht="14.25" hidden="1">
       <c r="A533" s="3" t="s">
         <v>3718</v>
       </c>
@@ -44146,7 +43984,7 @@
         <v>3723</v>
       </c>
     </row>
-    <row r="534" spans="1:15" ht="14.25">
+    <row r="534" spans="1:15" ht="14.25" hidden="1">
       <c r="A534" s="3" t="s">
         <v>3724</v>
       </c>
@@ -44193,7 +44031,7 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="535" spans="1:15" ht="14.25">
+    <row r="535" spans="1:15" ht="14.25" hidden="1">
       <c r="A535" s="3" t="s">
         <v>3733</v>
       </c>
@@ -44240,7 +44078,7 @@
         <v>3738</v>
       </c>
     </row>
-    <row r="536" spans="1:15" ht="14.25">
+    <row r="536" spans="1:15" ht="14.25" hidden="1">
       <c r="A536" s="3" t="s">
         <v>3739</v>
       </c>
@@ -44287,7 +44125,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="537" spans="1:15" ht="14.25">
+    <row r="537" spans="1:15" ht="14.25" hidden="1">
       <c r="A537" s="3" t="s">
         <v>3739</v>
       </c>
@@ -44334,7 +44172,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="538" spans="1:15" ht="14.25">
+    <row r="538" spans="1:15" ht="14.25" hidden="1">
       <c r="A538" s="3" t="s">
         <v>3750</v>
       </c>
@@ -44378,7 +44216,7 @@
         <v>3756</v>
       </c>
     </row>
-    <row r="539" spans="1:15" ht="14.25">
+    <row r="539" spans="1:15" ht="14.25" hidden="1">
       <c r="A539" s="3" t="s">
         <v>3757</v>
       </c>
@@ -44422,7 +44260,7 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="540" spans="1:15" ht="14.25">
+    <row r="540" spans="1:15" ht="14.25" hidden="1">
       <c r="A540" s="3" t="s">
         <v>3765</v>
       </c>
@@ -44466,7 +44304,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="541" spans="1:15" ht="14.25">
+    <row r="541" spans="1:15" ht="14.25" hidden="1">
       <c r="A541" s="3" t="s">
         <v>3771</v>
       </c>
@@ -44513,7 +44351,7 @@
         <v>3777</v>
       </c>
     </row>
-    <row r="542" spans="1:15" ht="14.25">
+    <row r="542" spans="1:15" ht="14.25" hidden="1">
       <c r="A542" s="3" t="s">
         <v>3778</v>
       </c>
@@ -44560,7 +44398,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="543" spans="1:15" ht="14.25">
+    <row r="543" spans="1:15" ht="14.25" hidden="1">
       <c r="A543" s="3" t="s">
         <v>3778</v>
       </c>
@@ -44604,7 +44442,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="544" spans="1:15" ht="14.25">
+    <row r="544" spans="1:15" ht="14.25" hidden="1">
       <c r="A544" s="3" t="s">
         <v>3791</v>
       </c>
@@ -44651,7 +44489,7 @@
         <v>3796</v>
       </c>
     </row>
-    <row r="545" spans="1:15" ht="14.25">
+    <row r="545" spans="1:15" ht="14.25" hidden="1">
       <c r="A545" s="3" t="s">
         <v>3797</v>
       </c>
@@ -44695,7 +44533,7 @@
         <v>3802</v>
       </c>
     </row>
-    <row r="546" spans="1:15" ht="14.25">
+    <row r="546" spans="1:15" ht="14.25" hidden="1">
       <c r="A546" s="3" t="s">
         <v>3803</v>
       </c>
@@ -44739,7 +44577,7 @@
         <v>3809</v>
       </c>
     </row>
-    <row r="547" spans="1:15" ht="14.25">
+    <row r="547" spans="1:15" ht="14.25" hidden="1">
       <c r="A547" s="3" t="s">
         <v>3810</v>
       </c>
@@ -44783,7 +44621,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="548" spans="1:15" ht="14.25">
+    <row r="548" spans="1:15" ht="14.25" hidden="1">
       <c r="A548" s="3" t="s">
         <v>3816</v>
       </c>
@@ -44830,7 +44668,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="549" spans="1:15" ht="14.25">
+    <row r="549" spans="1:15" ht="14.25" hidden="1">
       <c r="A549" s="3" t="s">
         <v>3820</v>
       </c>
@@ -44874,7 +44712,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="550" spans="1:15" ht="14.25">
+    <row r="550" spans="1:15" ht="14.25" hidden="1">
       <c r="A550" s="3" t="s">
         <v>3828</v>
       </c>
@@ -44918,7 +44756,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="551" spans="1:15" ht="14.25">
+    <row r="551" spans="1:15" ht="14.25" hidden="1">
       <c r="A551" s="3" t="s">
         <v>3835</v>
       </c>
@@ -44962,7 +44800,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="552" spans="1:15" ht="14.25">
+    <row r="552" spans="1:15" ht="14.25" hidden="1">
       <c r="A552" s="3" t="s">
         <v>3843</v>
       </c>
@@ -45006,7 +44844,7 @@
         <v>3849</v>
       </c>
     </row>
-    <row r="553" spans="1:15" ht="14.25">
+    <row r="553" spans="1:15" ht="14.25" hidden="1">
       <c r="A553" s="3" t="s">
         <v>3850</v>
       </c>
@@ -45053,7 +44891,7 @@
         <v>3855</v>
       </c>
     </row>
-    <row r="554" spans="1:15" ht="14.25">
+    <row r="554" spans="1:15" ht="14.25" hidden="1">
       <c r="A554" s="3" t="s">
         <v>3856</v>
       </c>
@@ -45097,7 +44935,7 @@
         <v>3862</v>
       </c>
     </row>
-    <row r="555" spans="1:15" ht="14.25">
+    <row r="555" spans="1:15" ht="14.25" hidden="1">
       <c r="A555" s="3" t="s">
         <v>3863</v>
       </c>
@@ -45144,7 +44982,7 @@
         <v>3870</v>
       </c>
     </row>
-    <row r="556" spans="1:15" ht="14.25">
+    <row r="556" spans="1:15" ht="14.25" hidden="1">
       <c r="A556" s="3" t="s">
         <v>3871</v>
       </c>
@@ -45188,7 +45026,7 @@
         <v>3877</v>
       </c>
     </row>
-    <row r="557" spans="1:15" ht="14.25">
+    <row r="557" spans="1:15" ht="14.25" hidden="1">
       <c r="A557" s="3" t="s">
         <v>3878</v>
       </c>
@@ -45232,7 +45070,7 @@
         <v>3884</v>
       </c>
     </row>
-    <row r="558" spans="1:15" ht="14.25">
+    <row r="558" spans="1:15" ht="14.25" hidden="1">
       <c r="A558" s="3" t="s">
         <v>3885</v>
       </c>
@@ -45276,7 +45114,7 @@
         <v>3892</v>
       </c>
     </row>
-    <row r="559" spans="1:15" ht="14.25">
+    <row r="559" spans="1:15" ht="14.25" hidden="1">
       <c r="A559" s="3" t="s">
         <v>3893</v>
       </c>
@@ -45323,7 +45161,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="560" spans="1:15" ht="14.25">
+    <row r="560" spans="1:15" ht="14.25" hidden="1">
       <c r="A560" s="3" t="s">
         <v>3901</v>
       </c>
@@ -45367,7 +45205,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="561" spans="1:15" ht="14.25">
+    <row r="561" spans="1:15" ht="14.25" hidden="1">
       <c r="A561" s="3" t="s">
         <v>3904</v>
       </c>
@@ -45411,7 +45249,7 @@
         <v>3911</v>
       </c>
     </row>
-    <row r="562" spans="1:15" ht="14.25">
+    <row r="562" spans="1:15" ht="14.25" hidden="1">
       <c r="A562" s="3" t="s">
         <v>3912</v>
       </c>
@@ -45458,7 +45296,7 @@
         <v>3918</v>
       </c>
     </row>
-    <row r="563" spans="1:15" ht="14.25">
+    <row r="563" spans="1:15" ht="14.25" hidden="1">
       <c r="A563" s="3" t="s">
         <v>3919</v>
       </c>
@@ -45505,7 +45343,7 @@
         <v>3926</v>
       </c>
     </row>
-    <row r="564" spans="1:15" ht="14.25">
+    <row r="564" spans="1:15" ht="14.25" hidden="1">
       <c r="A564" s="3" t="s">
         <v>3927</v>
       </c>
@@ -45552,7 +45390,7 @@
         <v>3933</v>
       </c>
     </row>
-    <row r="565" spans="1:15" ht="14.25">
+    <row r="565" spans="1:15" ht="14.25" hidden="1">
       <c r="A565" s="3" t="s">
         <v>3934</v>
       </c>
@@ -45596,7 +45434,7 @@
         <v>3940</v>
       </c>
     </row>
-    <row r="566" spans="1:15" ht="14.25">
+    <row r="566" spans="1:15" ht="14.25" hidden="1">
       <c r="A566" s="3" t="s">
         <v>3941</v>
       </c>
@@ -45640,7 +45478,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="567" spans="1:15" ht="14.25">
+    <row r="567" spans="1:15" ht="14.25" hidden="1">
       <c r="A567" s="3" t="s">
         <v>3945</v>
       </c>
@@ -45684,7 +45522,7 @@
         <v>3952</v>
       </c>
     </row>
-    <row r="568" spans="1:15" ht="14.25">
+    <row r="568" spans="1:15" ht="14.25" hidden="1">
       <c r="A568" s="3" t="s">
         <v>3953</v>
       </c>
@@ -45728,7 +45566,7 @@
         <v>3959</v>
       </c>
     </row>
-    <row r="569" spans="1:15" ht="14.25">
+    <row r="569" spans="1:15" ht="14.25" hidden="1">
       <c r="A569" s="3" t="s">
         <v>3960</v>
       </c>
@@ -45772,7 +45610,7 @@
         <v>3965</v>
       </c>
     </row>
-    <row r="570" spans="1:15" ht="14.25">
+    <row r="570" spans="1:15" ht="14.25" hidden="1">
       <c r="A570" s="3" t="s">
         <v>3966</v>
       </c>
@@ -45816,7 +45654,7 @@
         <v>3971</v>
       </c>
     </row>
-    <row r="571" spans="1:15" ht="14.25">
+    <row r="571" spans="1:15" ht="14.25" hidden="1">
       <c r="A571" s="3" t="s">
         <v>3972</v>
       </c>
@@ -45860,7 +45698,7 @@
         <v>3976</v>
       </c>
     </row>
-    <row r="572" spans="1:15" ht="14.25">
+    <row r="572" spans="1:15" ht="14.25" hidden="1">
       <c r="A572" s="3" t="s">
         <v>3978</v>
       </c>
@@ -45904,7 +45742,7 @@
         <v>3984</v>
       </c>
     </row>
-    <row r="573" spans="1:15" ht="14.25">
+    <row r="573" spans="1:15" ht="14.25" hidden="1">
       <c r="A573" s="3" t="s">
         <v>3985</v>
       </c>
@@ -45948,7 +45786,7 @@
         <v>3990</v>
       </c>
     </row>
-    <row r="574" spans="1:15" ht="14.25">
+    <row r="574" spans="1:15" ht="14.25" hidden="1">
       <c r="A574" s="3" t="s">
         <v>3991</v>
       </c>
@@ -45992,7 +45830,7 @@
         <v>3997</v>
       </c>
     </row>
-    <row r="575" spans="1:15" ht="14.25">
+    <row r="575" spans="1:15" ht="14.25" hidden="1">
       <c r="A575" s="3" t="s">
         <v>3998</v>
       </c>
@@ -46036,7 +45874,7 @@
         <v>4003</v>
       </c>
     </row>
-    <row r="576" spans="1:15" ht="14.25">
+    <row r="576" spans="1:15" ht="14.25" hidden="1">
       <c r="A576" s="3" t="s">
         <v>4004</v>
       </c>
@@ -46080,7 +45918,7 @@
         <v>4009</v>
       </c>
     </row>
-    <row r="577" spans="1:15" ht="14.25">
+    <row r="577" spans="1:15" ht="14.25" hidden="1">
       <c r="A577" s="3" t="s">
         <v>4010</v>
       </c>
@@ -46124,7 +45962,7 @@
         <v>4014</v>
       </c>
     </row>
-    <row r="578" spans="1:15" ht="14.25">
+    <row r="578" spans="1:15" ht="14.25" hidden="1">
       <c r="A578" s="3" t="s">
         <v>4015</v>
       </c>
@@ -46168,7 +46006,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="579" spans="1:15" ht="14.25">
+    <row r="579" spans="1:15" ht="14.25" hidden="1">
       <c r="A579" s="3" t="s">
         <v>4021</v>
       </c>
@@ -46212,7 +46050,7 @@
         <v>4026</v>
       </c>
     </row>
-    <row r="580" spans="1:15" ht="14.25">
+    <row r="580" spans="1:15" ht="14.25" hidden="1">
       <c r="A580" s="3" t="s">
         <v>4027</v>
       </c>
@@ -46259,7 +46097,7 @@
         <v>4032</v>
       </c>
     </row>
-    <row r="581" spans="1:15" ht="14.25">
+    <row r="581" spans="1:15" ht="14.25" hidden="1">
       <c r="A581" s="3" t="s">
         <v>4033</v>
       </c>
@@ -46306,7 +46144,7 @@
         <v>4038</v>
       </c>
     </row>
-    <row r="582" spans="1:15" ht="14.25">
+    <row r="582" spans="1:15" ht="14.25" hidden="1">
       <c r="A582" s="3" t="s">
         <v>4039</v>
       </c>
@@ -46353,7 +46191,7 @@
         <v>4046</v>
       </c>
     </row>
-    <row r="583" spans="1:15" ht="14.25">
+    <row r="583" spans="1:15" ht="14.25" hidden="1">
       <c r="A583" s="3" t="s">
         <v>4047</v>
       </c>
@@ -46400,7 +46238,7 @@
         <v>4053</v>
       </c>
     </row>
-    <row r="584" spans="1:15" ht="14.25">
+    <row r="584" spans="1:15" ht="14.25" hidden="1">
       <c r="A584" s="3" t="s">
         <v>4054</v>
       </c>
@@ -46444,7 +46282,7 @@
         <v>4060</v>
       </c>
     </row>
-    <row r="585" spans="1:15" ht="14.25">
+    <row r="585" spans="1:15" ht="14.25" hidden="1">
       <c r="A585" s="3" t="s">
         <v>4061</v>
       </c>
@@ -46491,7 +46329,7 @@
         <v>4067</v>
       </c>
     </row>
-    <row r="586" spans="1:15" ht="14.25">
+    <row r="586" spans="1:15" ht="14.25" hidden="1">
       <c r="A586" s="3" t="s">
         <v>4068</v>
       </c>
@@ -46535,7 +46373,7 @@
         <v>4074</v>
       </c>
     </row>
-    <row r="587" spans="1:15" ht="14.25">
+    <row r="587" spans="1:15" ht="14.25" hidden="1">
       <c r="A587" s="3" t="s">
         <v>4075</v>
       </c>
@@ -46582,7 +46420,7 @@
         <v>4083</v>
       </c>
     </row>
-    <row r="588" spans="1:15" ht="14.25">
+    <row r="588" spans="1:15" ht="14.25" hidden="1">
       <c r="A588" s="3" t="s">
         <v>4084</v>
       </c>
@@ -46629,7 +46467,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="589" spans="1:15" ht="14.25">
+    <row r="589" spans="1:15" ht="14.25" hidden="1">
       <c r="A589" s="3" t="s">
         <v>4087</v>
       </c>
@@ -46674,7 +46512,7 @@
         <v>4091</v>
       </c>
     </row>
-    <row r="590" spans="1:15" ht="14.25">
+    <row r="590" spans="1:15" ht="14.25" hidden="1">
       <c r="A590" s="3" t="s">
         <v>4092</v>
       </c>
@@ -46721,7 +46559,7 @@
         <v>4097</v>
       </c>
     </row>
-    <row r="591" spans="1:15" ht="14.25">
+    <row r="591" spans="1:15" ht="14.25" hidden="1">
       <c r="A591" s="3" t="s">
         <v>4098</v>
       </c>
@@ -46768,7 +46606,7 @@
         <v>4105</v>
       </c>
     </row>
-    <row r="592" spans="1:15" ht="14.25">
+    <row r="592" spans="1:15" ht="14.25" hidden="1">
       <c r="A592" s="3" t="s">
         <v>4106</v>
       </c>
@@ -46815,7 +46653,7 @@
         <v>4113</v>
       </c>
     </row>
-    <row r="593" spans="1:15" ht="14.25">
+    <row r="593" spans="1:15" ht="14.25" hidden="1">
       <c r="A593" s="3" t="s">
         <v>4114</v>
       </c>
@@ -46862,7 +46700,7 @@
         <v>4120</v>
       </c>
     </row>
-    <row r="594" spans="1:15" ht="14.25">
+    <row r="594" spans="1:15" ht="14.25" hidden="1">
       <c r="A594" s="3" t="s">
         <v>4121</v>
       </c>
@@ -46906,7 +46744,7 @@
         <v>4126</v>
       </c>
     </row>
-    <row r="595" spans="1:15" ht="14.25">
+    <row r="595" spans="1:15" ht="14.25" hidden="1">
       <c r="A595" s="3" t="s">
         <v>4127</v>
       </c>
@@ -46950,7 +46788,7 @@
         <v>4133</v>
       </c>
     </row>
-    <row r="596" spans="1:15" ht="14.25">
+    <row r="596" spans="1:15" ht="14.25" hidden="1">
       <c r="A596" s="3" t="s">
         <v>4134</v>
       </c>
@@ -46994,7 +46832,7 @@
         <v>4140</v>
       </c>
     </row>
-    <row r="597" spans="1:15" ht="14.25">
+    <row r="597" spans="1:15" ht="14.25" hidden="1">
       <c r="A597" s="3" t="s">
         <v>4141</v>
       </c>
@@ -47038,7 +46876,7 @@
         <v>4146</v>
       </c>
     </row>
-    <row r="598" spans="1:15" ht="14.25">
+    <row r="598" spans="1:15" ht="14.25" hidden="1">
       <c r="A598" s="3" t="s">
         <v>4147</v>
       </c>
@@ -47085,7 +46923,7 @@
         <v>4152</v>
       </c>
     </row>
-    <row r="599" spans="1:15" ht="14.25">
+    <row r="599" spans="1:15" ht="14.25" hidden="1">
       <c r="A599" s="3" t="s">
         <v>4153</v>
       </c>
@@ -47129,7 +46967,7 @@
         <v>4159</v>
       </c>
     </row>
-    <row r="600" spans="1:15" ht="14.25">
+    <row r="600" spans="1:15" ht="14.25" hidden="1">
       <c r="A600" s="3" t="s">
         <v>4160</v>
       </c>
@@ -47176,7 +47014,7 @@
         <v>4165</v>
       </c>
     </row>
-    <row r="601" spans="1:15" ht="14.25">
+    <row r="601" spans="1:15" ht="14.25" hidden="1">
       <c r="A601" s="3" t="s">
         <v>4166</v>
       </c>
@@ -47223,7 +47061,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="602" spans="1:15" ht="14.25">
+    <row r="602" spans="1:15" ht="14.25" hidden="1">
       <c r="A602" s="3" t="s">
         <v>4170</v>
       </c>
@@ -47270,7 +47108,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="603" spans="1:15" ht="14.25">
+    <row r="603" spans="1:15" ht="14.25" hidden="1">
       <c r="A603" s="3" t="s">
         <v>4174</v>
       </c>
@@ -47317,7 +47155,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="604" spans="1:15" ht="14.25">
+    <row r="604" spans="1:15" ht="14.25" hidden="1">
       <c r="A604" s="3" t="s">
         <v>4178</v>
       </c>
@@ -47364,7 +47202,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="605" spans="1:15" ht="14.25">
+    <row r="605" spans="1:15" ht="14.25" hidden="1">
       <c r="A605" s="3" t="s">
         <v>4182</v>
       </c>
@@ -47411,7 +47249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="606" spans="1:15" ht="14.25">
+    <row r="606" spans="1:15" ht="14.25" hidden="1">
       <c r="A606" s="3" t="s">
         <v>4186</v>
       </c>
@@ -47458,7 +47296,7 @@
         <v>4192</v>
       </c>
     </row>
-    <row r="607" spans="1:15" ht="14.25">
+    <row r="607" spans="1:15" ht="14.25" hidden="1">
       <c r="A607" s="3" t="s">
         <v>4193</v>
       </c>
@@ -47505,7 +47343,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="608" spans="1:15" ht="14.25">
+    <row r="608" spans="1:15" ht="14.25" hidden="1">
       <c r="A608" s="3" t="s">
         <v>4193</v>
       </c>
@@ -47549,7 +47387,7 @@
         <v>4205</v>
       </c>
     </row>
-    <row r="609" spans="1:15" ht="14.25">
+    <row r="609" spans="1:15" ht="14.25" hidden="1">
       <c r="A609" s="3" t="s">
         <v>4206</v>
       </c>
@@ -47593,7 +47431,7 @@
         <v>4213</v>
       </c>
     </row>
-    <row r="610" spans="1:15" ht="14.25">
+    <row r="610" spans="1:15" ht="14.25" hidden="1">
       <c r="A610" s="3" t="s">
         <v>4214</v>
       </c>
@@ -47637,7 +47475,7 @@
         <v>4220</v>
       </c>
     </row>
-    <row r="611" spans="1:15" ht="14.25">
+    <row r="611" spans="1:15" ht="14.25" hidden="1">
       <c r="A611" s="3" t="s">
         <v>4221</v>
       </c>
@@ -47681,7 +47519,7 @@
         <v>4227</v>
       </c>
     </row>
-    <row r="612" spans="1:15" ht="14.25">
+    <row r="612" spans="1:15" ht="14.25" hidden="1">
       <c r="A612" s="3" t="s">
         <v>4228</v>
       </c>
@@ -47728,7 +47566,7 @@
         <v>4234</v>
       </c>
     </row>
-    <row r="613" spans="1:15" ht="14.25">
+    <row r="613" spans="1:15" ht="14.25" hidden="1">
       <c r="A613" s="3" t="s">
         <v>4228</v>
       </c>
@@ -47775,7 +47613,7 @@
         <v>4239</v>
       </c>
     </row>
-    <row r="614" spans="1:15" ht="14.25">
+    <row r="614" spans="1:15" ht="14.25" hidden="1">
       <c r="A614" s="3" t="s">
         <v>4240</v>
       </c>
@@ -47819,7 +47657,7 @@
         <v>4248</v>
       </c>
     </row>
-    <row r="615" spans="1:15" ht="14.25">
+    <row r="615" spans="1:15" ht="14.25" hidden="1">
       <c r="A615" s="3" t="s">
         <v>4249</v>
       </c>
@@ -47863,7 +47701,7 @@
         <v>4255</v>
       </c>
     </row>
-    <row r="616" spans="1:15" ht="14.25">
+    <row r="616" spans="1:15" ht="14.25" hidden="1">
       <c r="A616" s="3" t="s">
         <v>4256</v>
       </c>
@@ -47907,7 +47745,7 @@
         <v>4261</v>
       </c>
     </row>
-    <row r="617" spans="1:15" ht="14.25">
+    <row r="617" spans="1:15" ht="14.25" hidden="1">
       <c r="A617" s="3" t="s">
         <v>4262</v>
       </c>
@@ -47951,7 +47789,7 @@
         <v>4268</v>
       </c>
     </row>
-    <row r="618" spans="1:15" ht="14.25">
+    <row r="618" spans="1:15" ht="14.25" hidden="1">
       <c r="A618" s="3" t="s">
         <v>4269</v>
       </c>
@@ -47995,7 +47833,7 @@
         <v>4275</v>
       </c>
     </row>
-    <row r="619" spans="1:15" ht="14.25">
+    <row r="619" spans="1:15" ht="14.25" hidden="1">
       <c r="A619" s="3" t="s">
         <v>4276</v>
       </c>
@@ -48039,7 +47877,7 @@
         <v>4283</v>
       </c>
     </row>
-    <row r="620" spans="1:15" ht="14.25">
+    <row r="620" spans="1:15" ht="14.25" hidden="1">
       <c r="A620" s="3" t="s">
         <v>4284</v>
       </c>
@@ -48083,7 +47921,7 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="621" spans="1:15" ht="14.25">
+    <row r="621" spans="1:15" ht="14.25" hidden="1">
       <c r="A621" s="3" t="s">
         <v>4291</v>
       </c>
@@ -48130,7 +47968,7 @@
         <v>4298</v>
       </c>
     </row>
-    <row r="622" spans="1:15" ht="14.25">
+    <row r="622" spans="1:15" ht="14.25" hidden="1">
       <c r="A622" s="3" t="s">
         <v>4299</v>
       </c>
@@ -48177,7 +48015,7 @@
         <v>4306</v>
       </c>
     </row>
-    <row r="623" spans="1:15" ht="14.25">
+    <row r="623" spans="1:15" ht="14.25" hidden="1">
       <c r="A623" s="3" t="s">
         <v>4307</v>
       </c>
@@ -48224,7 +48062,7 @@
         <v>4312</v>
       </c>
     </row>
-    <row r="624" spans="1:15" ht="14.25">
+    <row r="624" spans="1:15" ht="14.25" hidden="1">
       <c r="A624" s="3" t="s">
         <v>4307</v>
       </c>
@@ -48271,7 +48109,7 @@
         <v>4317</v>
       </c>
     </row>
-    <row r="625" spans="1:15" ht="14.25">
+    <row r="625" spans="1:15" ht="14.25" hidden="1">
       <c r="A625" s="3" t="s">
         <v>4318</v>
       </c>
@@ -48315,7 +48153,7 @@
         <v>4324</v>
       </c>
     </row>
-    <row r="626" spans="1:15" ht="14.25">
+    <row r="626" spans="1:15" ht="14.25" hidden="1">
       <c r="A626" s="3" t="s">
         <v>4325</v>
       </c>
@@ -48359,7 +48197,7 @@
         <v>4330</v>
       </c>
     </row>
-    <row r="627" spans="1:15" ht="14.25">
+    <row r="627" spans="1:15" ht="14.25" hidden="1">
       <c r="A627" s="3" t="s">
         <v>4331</v>
       </c>
@@ -48403,7 +48241,7 @@
         <v>4336</v>
       </c>
     </row>
-    <row r="628" spans="1:15" ht="14.25">
+    <row r="628" spans="1:15" ht="14.25" hidden="1">
       <c r="A628" s="3" t="s">
         <v>4337</v>
       </c>
@@ -48450,7 +48288,7 @@
         <v>4344</v>
       </c>
     </row>
-    <row r="629" spans="1:15" ht="14.25">
+    <row r="629" spans="1:15" ht="14.25" hidden="1">
       <c r="A629" s="3" t="s">
         <v>4345</v>
       </c>
@@ -48497,7 +48335,7 @@
         <v>4351</v>
       </c>
     </row>
-    <row r="630" spans="1:15" ht="14.25">
+    <row r="630" spans="1:15" ht="14.25" hidden="1">
       <c r="A630" s="3" t="s">
         <v>4352</v>
       </c>
@@ -48541,7 +48379,7 @@
         <v>4357</v>
       </c>
     </row>
-    <row r="631" spans="1:15" ht="14.25">
+    <row r="631" spans="1:15" ht="14.25" hidden="1">
       <c r="A631" s="3" t="s">
         <v>4358</v>
       </c>
@@ -48588,7 +48426,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="632" spans="1:15" ht="14.25">
+    <row r="632" spans="1:15" ht="14.25" hidden="1">
       <c r="A632" s="3" t="s">
         <v>4363</v>
       </c>
@@ -48632,7 +48470,7 @@
         <v>4369</v>
       </c>
     </row>
-    <row r="633" spans="1:15" ht="14.25">
+    <row r="633" spans="1:15" ht="14.25" hidden="1">
       <c r="A633" s="3" t="s">
         <v>4370</v>
       </c>
@@ -48676,7 +48514,7 @@
         <v>4374</v>
       </c>
     </row>
-    <row r="634" spans="1:15" ht="14.25">
+    <row r="634" spans="1:15" ht="14.25" hidden="1">
       <c r="A634" s="3" t="s">
         <v>4375</v>
       </c>
@@ -48720,7 +48558,7 @@
         <v>4383</v>
       </c>
     </row>
-    <row r="635" spans="1:15" ht="14.25">
+    <row r="635" spans="1:15" ht="14.25" hidden="1">
       <c r="A635" s="3" t="s">
         <v>4384</v>
       </c>
@@ -48764,7 +48602,7 @@
         <v>4391</v>
       </c>
     </row>
-    <row r="636" spans="1:15" ht="14.25">
+    <row r="636" spans="1:15" ht="14.25" hidden="1">
       <c r="A636" s="3" t="s">
         <v>4392</v>
       </c>
@@ -48811,7 +48649,7 @@
         <v>4399</v>
       </c>
     </row>
-    <row r="637" spans="1:15" ht="14.25">
+    <row r="637" spans="1:15" ht="14.25" hidden="1">
       <c r="A637" s="3" t="s">
         <v>4392</v>
       </c>
@@ -48855,7 +48693,7 @@
         <v>4404</v>
       </c>
     </row>
-    <row r="638" spans="1:15" ht="14.25">
+    <row r="638" spans="1:15" ht="14.25" hidden="1">
       <c r="A638" s="3" t="s">
         <v>4405</v>
       </c>
@@ -48902,7 +48740,7 @@
         <v>4411</v>
       </c>
     </row>
-    <row r="639" spans="1:15" ht="14.25">
+    <row r="639" spans="1:15" ht="14.25" hidden="1">
       <c r="A639" s="3" t="s">
         <v>4412</v>
       </c>
@@ -48949,7 +48787,7 @@
         <v>4417</v>
       </c>
     </row>
-    <row r="640" spans="1:15" ht="14.25">
+    <row r="640" spans="1:15" ht="14.25" hidden="1">
       <c r="A640" s="3" t="s">
         <v>4418</v>
       </c>
@@ -48993,7 +48831,7 @@
         <v>4424</v>
       </c>
     </row>
-    <row r="641" spans="1:15" ht="14.25">
+    <row r="641" spans="1:15" ht="14.25" hidden="1">
       <c r="A641" s="3" t="s">
         <v>4425</v>
       </c>
@@ -49040,7 +48878,7 @@
         <v>4432</v>
       </c>
     </row>
-    <row r="642" spans="1:15" ht="14.25">
+    <row r="642" spans="1:15" ht="14.25" hidden="1">
       <c r="A642" s="3" t="s">
         <v>4433</v>
       </c>
@@ -49087,7 +48925,7 @@
         <v>4438</v>
       </c>
     </row>
-    <row r="643" spans="1:15" ht="14.25">
+    <row r="643" spans="1:15" ht="14.25" hidden="1">
       <c r="A643" s="3" t="s">
         <v>4439</v>
       </c>
@@ -49134,7 +48972,7 @@
         <v>4446</v>
       </c>
     </row>
-    <row r="644" spans="1:15" ht="14.25">
+    <row r="644" spans="1:15" ht="14.25" hidden="1">
       <c r="A644" s="3" t="s">
         <v>4447</v>
       </c>
@@ -49181,7 +49019,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="645" spans="1:15" ht="14.25">
+    <row r="645" spans="1:15" ht="14.25" hidden="1">
       <c r="A645" s="3" t="s">
         <v>4451</v>
       </c>
@@ -49228,7 +49066,7 @@
         <v>4457</v>
       </c>
     </row>
-    <row r="646" spans="1:15" ht="14.25">
+    <row r="646" spans="1:15" ht="14.25" hidden="1">
       <c r="A646" s="3" t="s">
         <v>4458</v>
       </c>
@@ -49269,7 +49107,7 @@
         <v>4464</v>
       </c>
     </row>
-    <row r="647" spans="1:15" ht="14.25">
+    <row r="647" spans="1:15" ht="14.25" hidden="1">
       <c r="A647" s="3" t="s">
         <v>4465</v>
       </c>
@@ -49316,7 +49154,7 @@
         <v>4471</v>
       </c>
     </row>
-    <row r="648" spans="1:15" ht="14.25">
+    <row r="648" spans="1:15" ht="14.25" hidden="1">
       <c r="A648" s="3" t="s">
         <v>4472</v>
       </c>
@@ -49360,7 +49198,7 @@
         <v>4477</v>
       </c>
     </row>
-    <row r="649" spans="1:15" ht="14.25">
+    <row r="649" spans="1:15" ht="14.25" hidden="1">
       <c r="A649" s="3" t="s">
         <v>4478</v>
       </c>
@@ -49407,7 +49245,7 @@
         <v>4484</v>
       </c>
     </row>
-    <row r="650" spans="1:15" ht="14.25">
+    <row r="650" spans="1:15" ht="14.25" hidden="1">
       <c r="A650" s="3" t="s">
         <v>4485</v>
       </c>
@@ -49451,7 +49289,7 @@
         <v>4491</v>
       </c>
     </row>
-    <row r="651" spans="1:15" ht="14.25">
+    <row r="651" spans="1:15" ht="14.25" hidden="1">
       <c r="A651" s="3" t="s">
         <v>4492</v>
       </c>
@@ -49495,7 +49333,7 @@
         <v>4498</v>
       </c>
     </row>
-    <row r="652" spans="1:15" ht="14.25">
+    <row r="652" spans="1:15" ht="14.25" hidden="1">
       <c r="A652" s="3" t="s">
         <v>4499</v>
       </c>
@@ -49542,7 +49380,7 @@
         <v>4506</v>
       </c>
     </row>
-    <row r="653" spans="1:15" ht="14.25">
+    <row r="653" spans="1:15" ht="14.25" hidden="1">
       <c r="A653" s="3" t="s">
         <v>4507</v>
       </c>
@@ -49589,7 +49427,7 @@
         <v>4514</v>
       </c>
     </row>
-    <row r="654" spans="1:15" ht="14.25">
+    <row r="654" spans="1:15" ht="14.25" hidden="1">
       <c r="A654" s="3" t="s">
         <v>4515</v>
       </c>
@@ -49636,7 +49474,7 @@
         <v>4522</v>
       </c>
     </row>
-    <row r="655" spans="1:15" ht="14.25">
+    <row r="655" spans="1:15" ht="14.25" hidden="1">
       <c r="A655" s="3" t="s">
         <v>4523</v>
       </c>
@@ -49683,7 +49521,7 @@
         <v>4529</v>
       </c>
     </row>
-    <row r="656" spans="1:15" ht="14.25">
+    <row r="656" spans="1:15" ht="14.25" hidden="1">
       <c r="A656" s="3" t="s">
         <v>4530</v>
       </c>
@@ -49730,7 +49568,7 @@
         <v>4537</v>
       </c>
     </row>
-    <row r="657" spans="1:15" ht="14.25">
+    <row r="657" spans="1:15" ht="14.25" hidden="1">
       <c r="A657" s="3" t="s">
         <v>4538</v>
       </c>
@@ -49774,7 +49612,7 @@
         <v>4544</v>
       </c>
     </row>
-    <row r="658" spans="1:15" ht="14.25">
+    <row r="658" spans="1:15" ht="14.25" hidden="1">
       <c r="A658" s="3" t="s">
         <v>4545</v>
       </c>
@@ -49821,7 +49659,7 @@
         <v>4552</v>
       </c>
     </row>
-    <row r="659" spans="1:15" ht="14.25">
+    <row r="659" spans="1:15" ht="14.25" hidden="1">
       <c r="A659" s="3" t="s">
         <v>4553</v>
       </c>
@@ -49865,7 +49703,7 @@
         <v>4559</v>
       </c>
     </row>
-    <row r="660" spans="1:15" ht="14.25">
+    <row r="660" spans="1:15" ht="14.25" hidden="1">
       <c r="A660" s="3" t="s">
         <v>4560</v>
       </c>
@@ -49909,7 +49747,7 @@
         <v>4566</v>
       </c>
     </row>
-    <row r="661" spans="1:15" ht="14.25">
+    <row r="661" spans="1:15" ht="14.25" hidden="1">
       <c r="A661" s="3" t="s">
         <v>4567</v>
       </c>
@@ -49956,7 +49794,7 @@
         <v>4574</v>
       </c>
     </row>
-    <row r="662" spans="1:15" ht="14.25">
+    <row r="662" spans="1:15" ht="14.25" hidden="1">
       <c r="A662" s="3" t="s">
         <v>4575</v>
       </c>
@@ -50000,7 +49838,7 @@
         <v>4581</v>
       </c>
     </row>
-    <row r="663" spans="1:15" ht="14.25">
+    <row r="663" spans="1:15" ht="14.25" hidden="1">
       <c r="A663" s="3" t="s">
         <v>4582</v>
       </c>
@@ -50047,7 +49885,7 @@
         <v>4589</v>
       </c>
     </row>
-    <row r="664" spans="1:15" ht="14.25">
+    <row r="664" spans="1:15" ht="14.25" hidden="1">
       <c r="A664" s="3" t="s">
         <v>4590</v>
       </c>
@@ -50094,7 +49932,7 @@
         <v>4597</v>
       </c>
     </row>
-    <row r="665" spans="1:15" ht="14.25">
+    <row r="665" spans="1:15" ht="14.25" hidden="1">
       <c r="A665" s="3" t="s">
         <v>143</v>
       </c>
@@ -50141,7 +49979,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="666" spans="1:15" ht="14.25">
+    <row r="666" spans="1:15" ht="14.25" hidden="1">
       <c r="A666" s="3" t="s">
         <v>4601</v>
       </c>
@@ -50185,7 +50023,7 @@
         <v>4607</v>
       </c>
     </row>
-    <row r="667" spans="1:15" ht="14.25">
+    <row r="667" spans="1:15" ht="14.25" hidden="1">
       <c r="A667" s="3" t="s">
         <v>4608</v>
       </c>
@@ -50229,7 +50067,7 @@
         <v>4614</v>
       </c>
     </row>
-    <row r="668" spans="1:15" ht="14.25">
+    <row r="668" spans="1:15" ht="14.25" hidden="1">
       <c r="A668" s="3" t="s">
         <v>4615</v>
       </c>
@@ -50273,7 +50111,7 @@
         <v>4621</v>
       </c>
     </row>
-    <row r="669" spans="1:15" ht="14.25">
+    <row r="669" spans="1:15" ht="14.25" hidden="1">
       <c r="A669" s="3" t="s">
         <v>4622</v>
       </c>
@@ -50317,7 +50155,7 @@
         <v>4628</v>
       </c>
     </row>
-    <row r="670" spans="1:15" ht="14.25">
+    <row r="670" spans="1:15" ht="14.25" hidden="1">
       <c r="A670" s="3" t="s">
         <v>4629</v>
       </c>
@@ -50364,7 +50202,7 @@
         <v>4636</v>
       </c>
     </row>
-    <row r="671" spans="1:15" ht="14.25">
+    <row r="671" spans="1:15" ht="14.25" hidden="1">
       <c r="A671" s="3" t="s">
         <v>4637</v>
       </c>
@@ -50411,7 +50249,7 @@
         <v>4643</v>
       </c>
     </row>
-    <row r="672" spans="1:15" ht="14.25">
+    <row r="672" spans="1:15" ht="14.25" hidden="1">
       <c r="A672" s="3" t="s">
         <v>4644</v>
       </c>
@@ -50458,7 +50296,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="673" spans="1:15" ht="14.25">
+    <row r="673" spans="1:15" ht="14.25" hidden="1">
       <c r="A673" s="3" t="s">
         <v>4651</v>
       </c>
@@ -50502,7 +50340,7 @@
         <v>4658</v>
       </c>
     </row>
-    <row r="674" spans="1:15" ht="14.25">
+    <row r="674" spans="1:15" ht="14.25" hidden="1">
       <c r="A674" s="3" t="s">
         <v>4659</v>
       </c>
@@ -50549,7 +50387,7 @@
         <v>4666</v>
       </c>
     </row>
-    <row r="675" spans="1:15" ht="14.25">
+    <row r="675" spans="1:15" ht="14.25" hidden="1">
       <c r="A675" s="3" t="s">
         <v>4667</v>
       </c>
@@ -50596,7 +50434,7 @@
         <v>4673</v>
       </c>
     </row>
-    <row r="676" spans="1:15" ht="14.25">
+    <row r="676" spans="1:15" ht="14.25" hidden="1">
       <c r="A676" s="3" t="s">
         <v>4674</v>
       </c>
@@ -50643,7 +50481,7 @@
         <v>4679</v>
       </c>
     </row>
-    <row r="677" spans="1:15" ht="14.25">
+    <row r="677" spans="1:15" ht="14.25" hidden="1">
       <c r="A677" s="3" t="s">
         <v>4680</v>
       </c>
@@ -50687,7 +50525,7 @@
         <v>4685</v>
       </c>
     </row>
-    <row r="678" spans="1:15" ht="14.25">
+    <row r="678" spans="1:15" ht="14.25" hidden="1">
       <c r="A678" s="3" t="s">
         <v>4686</v>
       </c>
@@ -50734,7 +50572,7 @@
         <v>4692</v>
       </c>
     </row>
-    <row r="679" spans="1:15" ht="14.25">
+    <row r="679" spans="1:15" ht="14.25" hidden="1">
       <c r="A679" s="3" t="s">
         <v>4693</v>
       </c>
@@ -50778,7 +50616,7 @@
         <v>4698</v>
       </c>
     </row>
-    <row r="680" spans="1:15" ht="14.25">
+    <row r="680" spans="1:15" ht="14.25" hidden="1">
       <c r="A680" s="3" t="s">
         <v>4699</v>
       </c>
@@ -50822,7 +50660,7 @@
         <v>4704</v>
       </c>
     </row>
-    <row r="681" spans="1:15" ht="14.25">
+    <row r="681" spans="1:15" ht="14.25" hidden="1">
       <c r="A681" s="3" t="s">
         <v>4699</v>
       </c>
@@ -50869,7 +50707,7 @@
         <v>4708</v>
       </c>
     </row>
-    <row r="682" spans="1:15" ht="14.25">
+    <row r="682" spans="1:15" ht="14.25" hidden="1">
       <c r="A682" s="3" t="s">
         <v>4709</v>
       </c>
@@ -50913,7 +50751,7 @@
         <v>4714</v>
       </c>
     </row>
-    <row r="683" spans="1:15" ht="14.25">
+    <row r="683" spans="1:15" ht="14.25" hidden="1">
       <c r="A683" s="3" t="s">
         <v>4715</v>
       </c>
@@ -50960,7 +50798,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="684" spans="1:15" ht="14.25">
+    <row r="684" spans="1:15" ht="14.25" hidden="1">
       <c r="A684" s="3" t="s">
         <v>4721</v>
       </c>
@@ -51004,7 +50842,7 @@
         <v>4726</v>
       </c>
     </row>
-    <row r="685" spans="1:15" ht="14.25">
+    <row r="685" spans="1:15" ht="14.25" hidden="1">
       <c r="A685" s="3" t="s">
         <v>4727</v>
       </c>
@@ -51048,7 +50886,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="686" spans="1:15" ht="14.25">
+    <row r="686" spans="1:15" ht="14.25" hidden="1">
       <c r="A686" s="3" t="s">
         <v>4735</v>
       </c>
@@ -51092,7 +50930,7 @@
         <v>4742</v>
       </c>
     </row>
-    <row r="687" spans="1:15" ht="14.25">
+    <row r="687" spans="1:15" ht="14.25" hidden="1">
       <c r="A687" s="3" t="s">
         <v>4743</v>
       </c>
@@ -51133,7 +50971,7 @@
         <v>4747</v>
       </c>
     </row>
-    <row r="688" spans="1:15" ht="14.25">
+    <row r="688" spans="1:15" ht="14.25" hidden="1">
       <c r="A688" s="3" t="s">
         <v>4748</v>
       </c>
@@ -51180,7 +51018,7 @@
         <v>4755</v>
       </c>
     </row>
-    <row r="689" spans="1:15" ht="14.25">
+    <row r="689" spans="1:15" ht="14.25" hidden="1">
       <c r="A689" s="3" t="s">
         <v>4756</v>
       </c>
@@ -51224,7 +51062,7 @@
         <v>4761</v>
       </c>
     </row>
-    <row r="690" spans="1:15" ht="14.25">
+    <row r="690" spans="1:15" ht="14.25" hidden="1">
       <c r="A690" s="3" t="s">
         <v>4762</v>
       </c>
@@ -51271,7 +51109,7 @@
         <v>4768</v>
       </c>
     </row>
-    <row r="691" spans="1:15" ht="14.25">
+    <row r="691" spans="1:15" ht="14.25" hidden="1">
       <c r="A691" s="3" t="s">
         <v>4769</v>
       </c>
@@ -51318,7 +51156,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="692" spans="1:15" ht="14.25">
+    <row r="692" spans="1:15" ht="14.25" hidden="1">
       <c r="A692" s="3" t="s">
         <v>4778</v>
       </c>
@@ -51362,7 +51200,7 @@
         <v>4784</v>
       </c>
     </row>
-    <row r="693" spans="1:15" ht="14.25">
+    <row r="693" spans="1:15" ht="14.25" hidden="1">
       <c r="A693" s="3" t="s">
         <v>4785</v>
       </c>
@@ -51409,7 +51247,7 @@
         <v>4791</v>
       </c>
     </row>
-    <row r="694" spans="1:15" ht="14.25">
+    <row r="694" spans="1:15" ht="14.25" hidden="1">
       <c r="A694" s="3" t="s">
         <v>4792</v>
       </c>
@@ -51456,7 +51294,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="695" spans="1:15" ht="14.25">
+    <row r="695" spans="1:15" ht="14.25" hidden="1">
       <c r="A695" s="3" t="s">
         <v>4792</v>
       </c>
@@ -51503,7 +51341,7 @@
         <v>4806</v>
       </c>
     </row>
-    <row r="696" spans="1:15" ht="14.25">
+    <row r="696" spans="1:15" ht="14.25" hidden="1">
       <c r="A696" s="3" t="s">
         <v>4792</v>
       </c>
@@ -51550,7 +51388,7 @@
         <v>4812</v>
       </c>
     </row>
-    <row r="697" spans="1:15" ht="14.25">
+    <row r="697" spans="1:15" ht="14.25" hidden="1">
       <c r="A697" s="3" t="s">
         <v>4792</v>
       </c>
@@ -51597,7 +51435,7 @@
         <v>4817</v>
       </c>
     </row>
-    <row r="698" spans="1:15" ht="14.25">
+    <row r="698" spans="1:15" ht="14.25" hidden="1">
       <c r="A698" s="3" t="s">
         <v>4792</v>
       </c>
@@ -51644,7 +51482,7 @@
         <v>4822</v>
       </c>
     </row>
-    <row r="699" spans="1:15" ht="14.25">
+    <row r="699" spans="1:15" ht="14.25" hidden="1">
       <c r="A699" s="3" t="s">
         <v>4823</v>
       </c>
@@ -51688,7 +51526,7 @@
         <v>4829</v>
       </c>
     </row>
-    <row r="700" spans="1:15" ht="14.25">
+    <row r="700" spans="1:15" ht="14.25" hidden="1">
       <c r="A700" s="3" t="s">
         <v>4830</v>
       </c>
@@ -51735,7 +51573,7 @@
         <v>4835</v>
       </c>
     </row>
-    <row r="701" spans="1:15" ht="14.25">
+    <row r="701" spans="1:15" ht="14.25" hidden="1">
       <c r="A701" s="3" t="s">
         <v>4836</v>
       </c>
@@ -51782,7 +51620,7 @@
         <v>4842</v>
       </c>
     </row>
-    <row r="702" spans="1:15" ht="14.25">
+    <row r="702" spans="1:15" ht="14.25" hidden="1">
       <c r="A702" s="3" t="s">
         <v>4843</v>
       </c>
@@ -51829,7 +51667,7 @@
         <v>4848</v>
       </c>
     </row>
-    <row r="703" spans="1:15" ht="14.25">
+    <row r="703" spans="1:15" ht="14.25" hidden="1">
       <c r="A703" s="3" t="s">
         <v>4849</v>
       </c>
@@ -51873,7 +51711,7 @@
         <v>4855</v>
       </c>
     </row>
-    <row r="704" spans="1:15" ht="14.25">
+    <row r="704" spans="1:15" ht="14.25" hidden="1">
       <c r="A704" s="3" t="s">
         <v>4856</v>
       </c>
@@ -51917,7 +51755,7 @@
         <v>4862</v>
       </c>
     </row>
-    <row r="705" spans="1:15" ht="14.25">
+    <row r="705" spans="1:15" ht="14.25" hidden="1">
       <c r="A705" s="3" t="s">
         <v>4863</v>
       </c>
@@ -51961,7 +51799,7 @@
         <v>4870</v>
       </c>
     </row>
-    <row r="706" spans="1:15" ht="14.25">
+    <row r="706" spans="1:15" ht="14.25" hidden="1">
       <c r="A706" s="3" t="s">
         <v>4871</v>
       </c>
@@ -52008,7 +51846,7 @@
         <v>4877</v>
       </c>
     </row>
-    <row r="707" spans="1:15" ht="14.25">
+    <row r="707" spans="1:15" ht="14.25" hidden="1">
       <c r="A707" s="3" t="s">
         <v>4878</v>
       </c>
@@ -52055,7 +51893,7 @@
         <v>4884</v>
       </c>
     </row>
-    <row r="708" spans="1:15" ht="14.25">
+    <row r="708" spans="1:15" ht="14.25" hidden="1">
       <c r="A708" s="3" t="s">
         <v>4885</v>
       </c>
@@ -52099,7 +51937,7 @@
         <v>4891</v>
       </c>
     </row>
-    <row r="709" spans="1:15" ht="14.25">
+    <row r="709" spans="1:15" ht="14.25" hidden="1">
       <c r="A709" s="3" t="s">
         <v>4892</v>
       </c>
@@ -52146,7 +51984,7 @@
         <v>4898</v>
       </c>
     </row>
-    <row r="710" spans="1:15" ht="14.25">
+    <row r="710" spans="1:15" ht="14.25" hidden="1">
       <c r="A710" s="3" t="s">
         <v>4899</v>
       </c>
@@ -52193,7 +52031,7 @@
         <v>4905</v>
       </c>
     </row>
-    <row r="711" spans="1:15" ht="14.25">
+    <row r="711" spans="1:15" ht="14.25" hidden="1">
       <c r="A711" s="3" t="s">
         <v>4906</v>
       </c>
@@ -52240,7 +52078,7 @@
         <v>4912</v>
       </c>
     </row>
-    <row r="712" spans="1:15" ht="14.25">
+    <row r="712" spans="1:15" ht="14.25" hidden="1">
       <c r="A712" s="3" t="s">
         <v>4913</v>
       </c>
@@ -52284,7 +52122,7 @@
         <v>4919</v>
       </c>
     </row>
-    <row r="713" spans="1:15" ht="14.25">
+    <row r="713" spans="1:15" ht="14.25" hidden="1">
       <c r="A713" s="3" t="s">
         <v>4920</v>
       </c>
@@ -52331,7 +52169,7 @@
         <v>4926</v>
       </c>
     </row>
-    <row r="714" spans="1:15" ht="14.25">
+    <row r="714" spans="1:15" ht="14.25" hidden="1">
       <c r="A714" s="3" t="s">
         <v>4927</v>
       </c>
@@ -52375,7 +52213,7 @@
         <v>4932</v>
       </c>
     </row>
-    <row r="715" spans="1:15" ht="14.25">
+    <row r="715" spans="1:15" ht="14.25" hidden="1">
       <c r="A715" s="3" t="s">
         <v>4933</v>
       </c>
@@ -52419,7 +52257,7 @@
         <v>4938</v>
       </c>
     </row>
-    <row r="716" spans="1:15" ht="14.25">
+    <row r="716" spans="1:15" ht="14.25" hidden="1">
       <c r="A716" s="3" t="s">
         <v>4939</v>
       </c>
@@ -52466,7 +52304,7 @@
         <v>4945</v>
       </c>
     </row>
-    <row r="717" spans="1:15" ht="14.25">
+    <row r="717" spans="1:15" ht="14.25" hidden="1">
       <c r="A717" s="3" t="s">
         <v>4946</v>
       </c>
@@ -52513,7 +52351,7 @@
         <v>4953</v>
       </c>
     </row>
-    <row r="718" spans="1:15" ht="14.25">
+    <row r="718" spans="1:15" ht="14.25" hidden="1">
       <c r="A718" s="3" t="s">
         <v>4954</v>
       </c>
@@ -52560,7 +52398,7 @@
         <v>4961</v>
       </c>
     </row>
-    <row r="719" spans="1:15" ht="14.25">
+    <row r="719" spans="1:15" ht="14.25" hidden="1">
       <c r="A719" s="3" t="s">
         <v>4954</v>
       </c>
@@ -52607,7 +52445,7 @@
         <v>4967</v>
       </c>
     </row>
-    <row r="720" spans="1:15" ht="14.25">
+    <row r="720" spans="1:15" ht="14.25" hidden="1">
       <c r="A720" s="3" t="s">
         <v>4954</v>
       </c>
@@ -52654,7 +52492,7 @@
         <v>4973</v>
       </c>
     </row>
-    <row r="721" spans="1:15" ht="14.25">
+    <row r="721" spans="1:15" ht="14.25" hidden="1">
       <c r="A721" s="3" t="s">
         <v>4954</v>
       </c>
@@ -52701,7 +52539,7 @@
         <v>4979</v>
       </c>
     </row>
-    <row r="722" spans="1:15" ht="14.25">
+    <row r="722" spans="1:15" ht="14.25" hidden="1">
       <c r="A722" s="3" t="s">
         <v>4954</v>
       </c>
@@ -52748,7 +52586,7 @@
         <v>4985</v>
       </c>
     </row>
-    <row r="723" spans="1:15" ht="14.25">
+    <row r="723" spans="1:15" ht="14.25" hidden="1">
       <c r="A723" s="3" t="s">
         <v>4954</v>
       </c>
@@ -52795,7 +52633,7 @@
         <v>4992</v>
       </c>
     </row>
-    <row r="724" spans="1:15" ht="14.25">
+    <row r="724" spans="1:15" ht="14.25" hidden="1">
       <c r="A724" s="3" t="s">
         <v>4954</v>
       </c>
@@ -52842,7 +52680,7 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="725" spans="1:15" ht="14.25">
+    <row r="725" spans="1:15" ht="14.25" hidden="1">
       <c r="A725" s="3" t="s">
         <v>4954</v>
       </c>
@@ -52889,7 +52727,7 @@
         <v>5002</v>
       </c>
     </row>
-    <row r="726" spans="1:15" ht="14.25">
+    <row r="726" spans="1:15" ht="14.25" hidden="1">
       <c r="A726" s="3" t="s">
         <v>4954</v>
       </c>
@@ -52936,7 +52774,7 @@
         <v>5008</v>
       </c>
     </row>
-    <row r="727" spans="1:15" ht="14.25">
+    <row r="727" spans="1:15" ht="14.25" hidden="1">
       <c r="A727" s="3" t="s">
         <v>4954</v>
       </c>
@@ -52983,7 +52821,7 @@
         <v>5012</v>
       </c>
     </row>
-    <row r="728" spans="1:15" ht="14.25">
+    <row r="728" spans="1:15" ht="14.25" hidden="1">
       <c r="A728" s="3" t="s">
         <v>4954</v>
       </c>
@@ -53030,7 +52868,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="729" spans="1:15" ht="14.25">
+    <row r="729" spans="1:15" ht="14.25" hidden="1">
       <c r="A729" s="3" t="s">
         <v>4954</v>
       </c>
@@ -53077,7 +52915,7 @@
         <v>5024</v>
       </c>
     </row>
-    <row r="730" spans="1:15" ht="14.25">
+    <row r="730" spans="1:15" ht="14.25" hidden="1">
       <c r="A730" s="3" t="s">
         <v>4954</v>
       </c>
@@ -53124,7 +52962,7 @@
         <v>5030</v>
       </c>
     </row>
-    <row r="731" spans="1:15" ht="14.25">
+    <row r="731" spans="1:15" ht="14.25" hidden="1">
       <c r="A731" s="3" t="s">
         <v>4954</v>
       </c>
@@ -53171,7 +53009,7 @@
         <v>5035</v>
       </c>
     </row>
-    <row r="732" spans="1:15" ht="14.25">
+    <row r="732" spans="1:15" ht="14.25" hidden="1">
       <c r="A732" s="3" t="s">
         <v>4954</v>
       </c>
@@ -53218,7 +53056,7 @@
         <v>5039</v>
       </c>
     </row>
-    <row r="733" spans="1:15" ht="14.25">
+    <row r="733" spans="1:15" ht="14.25" hidden="1">
       <c r="A733" s="3" t="s">
         <v>4954</v>
       </c>
@@ -53265,7 +53103,7 @@
         <v>5045</v>
       </c>
     </row>
-    <row r="734" spans="1:15" ht="14.25">
+    <row r="734" spans="1:15" ht="14.25" hidden="1">
       <c r="A734" s="3" t="s">
         <v>5046</v>
       </c>
@@ -53312,7 +53150,7 @@
         <v>5053</v>
       </c>
     </row>
-    <row r="735" spans="1:15" ht="14.25">
+    <row r="735" spans="1:15" ht="14.25" hidden="1">
       <c r="A735" s="3" t="s">
         <v>5054</v>
       </c>
@@ -53356,7 +53194,7 @@
         <v>5059</v>
       </c>
     </row>
-    <row r="736" spans="1:15" ht="14.25">
+    <row r="736" spans="1:15" ht="14.25" hidden="1">
       <c r="A736" s="3" t="s">
         <v>5060</v>
       </c>
@@ -53403,7 +53241,7 @@
         <v>5065</v>
       </c>
     </row>
-    <row r="737" spans="1:15" ht="14.25">
+    <row r="737" spans="1:15" ht="14.25" hidden="1">
       <c r="A737" s="3" t="s">
         <v>5066</v>
       </c>
@@ -53450,7 +53288,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="738" spans="1:15" ht="14.25">
+    <row r="738" spans="1:15" ht="14.25" hidden="1">
       <c r="A738" s="3" t="s">
         <v>5066</v>
       </c>
@@ -53494,7 +53332,7 @@
         <v>5074</v>
       </c>
     </row>
-    <row r="739" spans="1:15" ht="14.25">
+    <row r="739" spans="1:15" ht="14.25" hidden="1">
       <c r="A739" s="3" t="s">
         <v>5066</v>
       </c>
@@ -53541,7 +53379,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="740" spans="1:15" ht="14.25">
+    <row r="740" spans="1:15" ht="14.25" hidden="1">
       <c r="A740" s="3" t="s">
         <v>5066</v>
       </c>
@@ -53588,7 +53426,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="741" spans="1:15" ht="14.25">
+    <row r="741" spans="1:15" ht="14.25" hidden="1">
       <c r="A741" s="3" t="s">
         <v>5066</v>
       </c>
@@ -53635,7 +53473,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="742" spans="1:15" ht="14.25">
+    <row r="742" spans="1:15" ht="14.25" hidden="1">
       <c r="A742" s="3" t="s">
         <v>5066</v>
       </c>
@@ -53682,7 +53520,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="743" spans="1:15" ht="14.25">
+    <row r="743" spans="1:15" ht="14.25" hidden="1">
       <c r="A743" s="3" t="s">
         <v>5083</v>
       </c>
@@ -53729,7 +53567,7 @@
         <v>5088</v>
       </c>
     </row>
-    <row r="744" spans="1:15" ht="14.25">
+    <row r="744" spans="1:15" ht="14.25" hidden="1">
       <c r="A744" s="3" t="s">
         <v>5083</v>
       </c>
@@ -53776,7 +53614,7 @@
         <v>5094</v>
       </c>
     </row>
-    <row r="745" spans="1:15" ht="14.25">
+    <row r="745" spans="1:15" ht="14.25" hidden="1">
       <c r="A745" s="3" t="s">
         <v>5095</v>
       </c>
@@ -53823,7 +53661,7 @@
         <v>5102</v>
       </c>
     </row>
-    <row r="746" spans="1:15" ht="14.25">
+    <row r="746" spans="1:15" ht="14.25" hidden="1">
       <c r="A746" s="3" t="s">
         <v>5103</v>
       </c>
@@ -53870,7 +53708,7 @@
         <v>5110</v>
       </c>
     </row>
-    <row r="747" spans="1:15" ht="14.25">
+    <row r="747" spans="1:15" ht="14.25" hidden="1">
       <c r="A747" s="3" t="s">
         <v>5111</v>
       </c>
@@ -53914,7 +53752,7 @@
         <v>5118</v>
       </c>
     </row>
-    <row r="748" spans="1:15" ht="14.25">
+    <row r="748" spans="1:15" ht="14.25" hidden="1">
       <c r="A748" s="3" t="s">
         <v>5119</v>
       </c>
@@ -53958,7 +53796,7 @@
         <v>5127</v>
       </c>
     </row>
-    <row r="749" spans="1:15" ht="14.25">
+    <row r="749" spans="1:15" ht="14.25" hidden="1">
       <c r="A749" s="3" t="s">
         <v>5128</v>
       </c>
@@ -54005,7 +53843,7 @@
         <v>5134</v>
       </c>
     </row>
-    <row r="750" spans="1:15" ht="14.25">
+    <row r="750" spans="1:15" ht="14.25" hidden="1">
       <c r="A750" s="3" t="s">
         <v>5135</v>
       </c>
@@ -54049,7 +53887,7 @@
         <v>5141</v>
       </c>
     </row>
-    <row r="751" spans="1:15" ht="14.25">
+    <row r="751" spans="1:15" ht="14.25" hidden="1">
       <c r="A751" s="3" t="s">
         <v>5142</v>
       </c>
@@ -54093,7 +53931,7 @@
         <v>5148</v>
       </c>
     </row>
-    <row r="752" spans="1:15" ht="14.25">
+    <row r="752" spans="1:15" ht="14.25" hidden="1">
       <c r="A752" s="3" t="s">
         <v>5149</v>
       </c>
@@ -54140,7 +53978,7 @@
         <v>5154</v>
       </c>
     </row>
-    <row r="753" spans="1:15" ht="14.25">
+    <row r="753" spans="1:15" ht="14.25" hidden="1">
       <c r="A753" s="3" t="s">
         <v>5155</v>
       </c>
@@ -54184,7 +54022,7 @@
         <v>5162</v>
       </c>
     </row>
-    <row r="754" spans="1:15" ht="14.25">
+    <row r="754" spans="1:15" ht="14.25" hidden="1">
       <c r="A754" s="3" t="s">
         <v>5163</v>
       </c>
@@ -54228,7 +54066,7 @@
         <v>5168</v>
       </c>
     </row>
-    <row r="755" spans="1:15" ht="14.25">
+    <row r="755" spans="1:15" ht="14.25" hidden="1">
       <c r="A755" s="3" t="s">
         <v>5169</v>
       </c>
@@ -54272,7 +54110,7 @@
         <v>5175</v>
       </c>
     </row>
-    <row r="756" spans="1:15" ht="14.25">
+    <row r="756" spans="1:15" ht="14.25" hidden="1">
       <c r="A756" s="3" t="s">
         <v>5176</v>
       </c>
@@ -54316,7 +54154,7 @@
         <v>5182</v>
       </c>
     </row>
-    <row r="757" spans="1:15" ht="14.25">
+    <row r="757" spans="1:15" ht="14.25" hidden="1">
       <c r="A757" s="3" t="s">
         <v>5183</v>
       </c>
@@ -54363,7 +54201,7 @@
         <v>5188</v>
       </c>
     </row>
-    <row r="758" spans="1:15" ht="14.25">
+    <row r="758" spans="1:15" ht="14.25" hidden="1">
       <c r="A758" s="3" t="s">
         <v>5189</v>
       </c>
@@ -54407,7 +54245,7 @@
         <v>5194</v>
       </c>
     </row>
-    <row r="759" spans="1:15" ht="14.25">
+    <row r="759" spans="1:15" ht="14.25" hidden="1">
       <c r="A759" s="3" t="s">
         <v>5195</v>
       </c>
@@ -54451,7 +54289,7 @@
         <v>5202</v>
       </c>
     </row>
-    <row r="760" spans="1:15" ht="14.25">
+    <row r="760" spans="1:15" ht="14.25" hidden="1">
       <c r="A760" s="3" t="s">
         <v>5203</v>
       </c>
@@ -54495,7 +54333,7 @@
         <v>5208</v>
       </c>
     </row>
-    <row r="761" spans="1:15" ht="14.25">
+    <row r="761" spans="1:15" ht="14.25" hidden="1">
       <c r="A761" s="3" t="s">
         <v>5209</v>
       </c>
@@ -54539,7 +54377,7 @@
         <v>5214</v>
       </c>
     </row>
-    <row r="762" spans="1:15" ht="14.25">
+    <row r="762" spans="1:15" ht="14.25" hidden="1">
       <c r="A762" s="3" t="s">
         <v>5215</v>
       </c>
@@ -54586,7 +54424,7 @@
         <v>5220</v>
       </c>
     </row>
-    <row r="763" spans="1:15" ht="14.25">
+    <row r="763" spans="1:15" ht="14.25" hidden="1">
       <c r="A763" s="3" t="s">
         <v>5221</v>
       </c>
@@ -54633,7 +54471,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="764" spans="1:15" ht="14.25">
+    <row r="764" spans="1:15" ht="14.25" hidden="1">
       <c r="A764" s="3" t="s">
         <v>5228</v>
       </c>
@@ -54677,7 +54515,7 @@
         <v>5234</v>
       </c>
     </row>
-    <row r="765" spans="1:15" ht="14.25">
+    <row r="765" spans="1:15" ht="14.25" hidden="1">
       <c r="A765" s="3" t="s">
         <v>5235</v>
       </c>
@@ -54724,7 +54562,7 @@
         <v>5242</v>
       </c>
     </row>
-    <row r="766" spans="1:15" ht="14.25">
+    <row r="766" spans="1:15" ht="14.25" hidden="1">
       <c r="A766" s="3" t="s">
         <v>5243</v>
       </c>
@@ -54768,7 +54606,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="767" spans="1:15" ht="14.25">
+    <row r="767" spans="1:15" ht="14.25" hidden="1">
       <c r="A767" s="3" t="s">
         <v>5251</v>
       </c>
@@ -54815,7 +54653,7 @@
         <v>5257</v>
       </c>
     </row>
-    <row r="768" spans="1:15" ht="14.25">
+    <row r="768" spans="1:15" ht="14.25" hidden="1">
       <c r="A768" s="3" t="s">
         <v>5258</v>
       </c>
@@ -54862,7 +54700,7 @@
         <v>5265</v>
       </c>
     </row>
-    <row r="769" spans="1:15" ht="14.25">
+    <row r="769" spans="1:15" ht="14.25" hidden="1">
       <c r="A769" s="3" t="s">
         <v>5266</v>
       </c>
@@ -54909,7 +54747,7 @@
         <v>5273</v>
       </c>
     </row>
-    <row r="770" spans="1:15" ht="14.25">
+    <row r="770" spans="1:15" ht="14.25" hidden="1">
       <c r="A770" s="3" t="s">
         <v>5274</v>
       </c>
@@ -54953,7 +54791,7 @@
         <v>5281</v>
       </c>
     </row>
-    <row r="771" spans="1:15" ht="14.25">
+    <row r="771" spans="1:15" ht="14.25" hidden="1">
       <c r="A771" s="3" t="s">
         <v>5274</v>
       </c>
@@ -55000,7 +54838,7 @@
         <v>5287</v>
       </c>
     </row>
-    <row r="772" spans="1:15" ht="14.25">
+    <row r="772" spans="1:15" ht="14.25" hidden="1">
       <c r="A772" s="3" t="s">
         <v>5288</v>
       </c>
@@ -55047,7 +54885,7 @@
         <v>5294</v>
       </c>
     </row>
-    <row r="773" spans="1:15" ht="14.25">
+    <row r="773" spans="1:15" ht="14.25" hidden="1">
       <c r="A773" s="3" t="s">
         <v>5295</v>
       </c>
@@ -55094,7 +54932,7 @@
         <v>5301</v>
       </c>
     </row>
-    <row r="774" spans="1:15" ht="14.25">
+    <row r="774" spans="1:15" ht="14.25" hidden="1">
       <c r="A774" s="3" t="s">
         <v>5295</v>
       </c>
@@ -55138,7 +54976,7 @@
         <v>5301</v>
       </c>
     </row>
-    <row r="775" spans="1:15" ht="14.25">
+    <row r="775" spans="1:15" ht="14.25" hidden="1">
       <c r="A775" s="3" t="s">
         <v>5304</v>
       </c>
@@ -55182,7 +55020,7 @@
         <v>5309</v>
       </c>
     </row>
-    <row r="776" spans="1:15" ht="14.25">
+    <row r="776" spans="1:15" ht="14.25" hidden="1">
       <c r="A776" s="3" t="s">
         <v>5310</v>
       </c>
@@ -55226,7 +55064,7 @@
         <v>5313</v>
       </c>
     </row>
-    <row r="777" spans="1:15" ht="14.25">
+    <row r="777" spans="1:15" ht="14.25" hidden="1">
       <c r="A777" s="3" t="s">
         <v>5314</v>
       </c>
@@ -55270,7 +55108,7 @@
         <v>5319</v>
       </c>
     </row>
-    <row r="778" spans="1:15" ht="14.25">
+    <row r="778" spans="1:15" ht="14.25" hidden="1">
       <c r="A778" s="3" t="s">
         <v>5320</v>
       </c>
@@ -55314,7 +55152,7 @@
         <v>5325</v>
       </c>
     </row>
-    <row r="779" spans="1:15" ht="14.25">
+    <row r="779" spans="1:15" ht="14.25" hidden="1">
       <c r="A779" s="3" t="s">
         <v>5326</v>
       </c>
@@ -55358,7 +55196,7 @@
         <v>5331</v>
       </c>
     </row>
-    <row r="780" spans="1:15" ht="14.25">
+    <row r="780" spans="1:15" ht="14.25" hidden="1">
       <c r="A780" s="3" t="s">
         <v>5332</v>
       </c>
@@ -55405,7 +55243,7 @@
         <v>5338</v>
       </c>
     </row>
-    <row r="781" spans="1:15" ht="14.25">
+    <row r="781" spans="1:15" ht="14.25" hidden="1">
       <c r="A781" s="3" t="s">
         <v>5339</v>
       </c>
@@ -55452,7 +55290,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="782" spans="1:15" ht="14.25">
+    <row r="782" spans="1:15" ht="14.25" hidden="1">
       <c r="A782" s="3" t="s">
         <v>5339</v>
       </c>
@@ -55496,7 +55334,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="783" spans="1:15" ht="14.25">
+    <row r="783" spans="1:15" ht="14.25" hidden="1">
       <c r="A783" s="3" t="s">
         <v>5349</v>
       </c>
@@ -55540,7 +55378,7 @@
         <v>5242</v>
       </c>
     </row>
-    <row r="784" spans="1:15" ht="14.25">
+    <row r="784" spans="1:15" ht="14.25" hidden="1">
       <c r="A784" s="3" t="s">
         <v>5355</v>
       </c>
@@ -55584,7 +55422,7 @@
         <v>5360</v>
       </c>
     </row>
-    <row r="785" spans="1:15" ht="14.25">
+    <row r="785" spans="1:15" ht="14.25" hidden="1">
       <c r="A785" s="3" t="s">
         <v>5361</v>
       </c>
@@ -55628,7 +55466,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="786" spans="1:15" ht="14.25">
+    <row r="786" spans="1:15" ht="14.25" hidden="1">
       <c r="A786" s="3" t="s">
         <v>5368</v>
       </c>
@@ -55675,7 +55513,7 @@
         <v>5373</v>
       </c>
     </row>
-    <row r="787" spans="1:15" ht="14.25">
+    <row r="787" spans="1:15" ht="14.25" hidden="1">
       <c r="A787" s="3" t="s">
         <v>5374</v>
       </c>
@@ -55719,7 +55557,7 @@
         <v>5381</v>
       </c>
     </row>
-    <row r="788" spans="1:15" ht="14.25">
+    <row r="788" spans="1:15" ht="14.25" hidden="1">
       <c r="A788" s="3" t="s">
         <v>5382</v>
       </c>
@@ -55763,7 +55601,7 @@
         <v>5386</v>
       </c>
     </row>
-    <row r="789" spans="1:15" ht="14.25">
+    <row r="789" spans="1:15" ht="14.25" hidden="1">
       <c r="A789" s="3" t="s">
         <v>5387</v>
       </c>
@@ -55810,7 +55648,7 @@
         <v>5393</v>
       </c>
     </row>
-    <row r="790" spans="1:15" ht="14.25">
+    <row r="790" spans="1:15" ht="14.25" hidden="1">
       <c r="A790" s="3" t="s">
         <v>5394</v>
       </c>
@@ -55854,7 +55692,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="791" spans="1:15" ht="14.25">
+    <row r="791" spans="1:15" ht="14.25" hidden="1">
       <c r="A791" s="3" t="s">
         <v>5401</v>
       </c>
@@ -55898,7 +55736,7 @@
         <v>5408</v>
       </c>
     </row>
-    <row r="792" spans="1:15" ht="14.25">
+    <row r="792" spans="1:15" ht="14.25" hidden="1">
       <c r="A792" s="3" t="s">
         <v>81</v>
       </c>
@@ -55945,7 +55783,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="793" spans="1:15" ht="14.25">
+    <row r="793" spans="1:15" ht="14.25" hidden="1">
       <c r="A793" s="3" t="s">
         <v>5413</v>
       </c>
@@ -55992,7 +55830,7 @@
         <v>5419</v>
       </c>
     </row>
-    <row r="794" spans="1:15" ht="14.25">
+    <row r="794" spans="1:15" ht="14.25" hidden="1">
       <c r="A794" s="3" t="s">
         <v>5420</v>
       </c>
@@ -56036,7 +55874,7 @@
         <v>5426</v>
       </c>
     </row>
-    <row r="795" spans="1:15" ht="14.25">
+    <row r="795" spans="1:15" ht="14.25" hidden="1">
       <c r="A795" s="3" t="s">
         <v>5427</v>
       </c>
@@ -56080,7 +55918,7 @@
         <v>5434</v>
       </c>
     </row>
-    <row r="796" spans="1:15" ht="14.25">
+    <row r="796" spans="1:15" ht="14.25" hidden="1">
       <c r="A796" s="3" t="s">
         <v>5435</v>
       </c>
@@ -56124,7 +55962,7 @@
         <v>5441</v>
       </c>
     </row>
-    <row r="797" spans="1:15" ht="14.25">
+    <row r="797" spans="1:15" ht="14.25" hidden="1">
       <c r="A797" s="3" t="s">
         <v>5442</v>
       </c>
@@ -56165,7 +56003,7 @@
         <v>5449</v>
       </c>
     </row>
-    <row r="798" spans="1:15" ht="14.25">
+    <row r="798" spans="1:15" ht="14.25" hidden="1">
       <c r="A798" s="3" t="s">
         <v>5450</v>
       </c>
@@ -56209,7 +56047,7 @@
         <v>3952</v>
       </c>
     </row>
-    <row r="799" spans="1:15" ht="14.25">
+    <row r="799" spans="1:15" ht="14.25" hidden="1">
       <c r="A799" s="3" t="s">
         <v>5456</v>
       </c>
@@ -56256,7 +56094,7 @@
         <v>5464</v>
       </c>
     </row>
-    <row r="800" spans="1:15" ht="14.25">
+    <row r="800" spans="1:15" ht="14.25" hidden="1">
       <c r="A800" s="3" t="s">
         <v>5465</v>
       </c>
@@ -56303,7 +56141,7 @@
         <v>5470</v>
       </c>
     </row>
-    <row r="801" spans="1:15" ht="14.25">
+    <row r="801" spans="1:15" ht="14.25" hidden="1">
       <c r="A801" s="3" t="s">
         <v>5471</v>
       </c>
@@ -56347,7 +56185,7 @@
         <v>5477</v>
       </c>
     </row>
-    <row r="802" spans="1:15" ht="14.25">
+    <row r="802" spans="1:15" ht="14.25" hidden="1">
       <c r="A802" s="3" t="s">
         <v>5478</v>
       </c>
@@ -56394,7 +56232,7 @@
         <v>5484</v>
       </c>
     </row>
-    <row r="803" spans="1:15" ht="14.25">
+    <row r="803" spans="1:15" ht="14.25" hidden="1">
       <c r="A803" s="3" t="s">
         <v>5485</v>
       </c>
@@ -56438,7 +56276,7 @@
         <v>5491</v>
       </c>
     </row>
-    <row r="804" spans="1:15" ht="14.25">
+    <row r="804" spans="1:15" ht="14.25" hidden="1">
       <c r="A804" s="3" t="s">
         <v>5492</v>
       </c>
@@ -56482,7 +56320,7 @@
         <v>5497</v>
       </c>
     </row>
-    <row r="805" spans="1:15" ht="14.25">
+    <row r="805" spans="1:15" ht="14.25" hidden="1">
       <c r="A805" s="3" t="s">
         <v>5498</v>
       </c>
@@ -56526,7 +56364,7 @@
         <v>5503</v>
       </c>
     </row>
-    <row r="806" spans="1:15" ht="14.25">
+    <row r="806" spans="1:15" ht="14.25" hidden="1">
       <c r="A806" s="3" t="s">
         <v>5504</v>
       </c>
@@ -56570,7 +56408,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="807" spans="1:15" ht="14.25">
+    <row r="807" spans="1:15" ht="14.25" hidden="1">
       <c r="A807" s="3" t="s">
         <v>5511</v>
       </c>
@@ -56614,7 +56452,7 @@
         <v>5518</v>
       </c>
     </row>
-    <row r="808" spans="1:15" ht="14.25">
+    <row r="808" spans="1:15" ht="14.25" hidden="1">
       <c r="A808" s="3" t="s">
         <v>5519</v>
       </c>
@@ -56658,7 +56496,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="809" spans="1:15" ht="14.25">
+    <row r="809" spans="1:15" ht="14.25" hidden="1">
       <c r="A809" s="3" t="s">
         <v>5526</v>
       </c>
@@ -56705,7 +56543,7 @@
         <v>5532</v>
       </c>
     </row>
-    <row r="810" spans="1:15" ht="14.25">
+    <row r="810" spans="1:15" ht="14.25" hidden="1">
       <c r="A810" s="3" t="s">
         <v>5533</v>
       </c>
@@ -56749,7 +56587,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="811" spans="1:15" ht="14.25">
+    <row r="811" spans="1:15" ht="14.25" hidden="1">
       <c r="A811" s="3" t="s">
         <v>5542</v>
       </c>
@@ -56796,7 +56634,7 @@
         <v>5548</v>
       </c>
     </row>
-    <row r="812" spans="1:15" ht="14.25">
+    <row r="812" spans="1:15" ht="14.25" hidden="1">
       <c r="A812" s="3" t="s">
         <v>5549</v>
       </c>
@@ -56840,7 +56678,7 @@
         <v>4812</v>
       </c>
     </row>
-    <row r="813" spans="1:15" ht="14.25">
+    <row r="813" spans="1:15" ht="14.25" hidden="1">
       <c r="A813" s="3" t="s">
         <v>5549</v>
       </c>
@@ -56884,7 +56722,7 @@
         <v>5559</v>
       </c>
     </row>
-    <row r="814" spans="1:15" ht="14.25">
+    <row r="814" spans="1:15" ht="14.25" hidden="1">
       <c r="A814" s="3" t="s">
         <v>5560</v>
       </c>
@@ -56931,7 +56769,7 @@
         <v>5566</v>
       </c>
     </row>
-    <row r="815" spans="1:15" ht="14.25">
+    <row r="815" spans="1:15" ht="14.25" hidden="1">
       <c r="A815" s="3" t="s">
         <v>5567</v>
       </c>
@@ -56975,7 +56813,7 @@
         <v>5573</v>
       </c>
     </row>
-    <row r="816" spans="1:15" ht="14.25">
+    <row r="816" spans="1:15" ht="14.25" hidden="1">
       <c r="A816" s="3" t="s">
         <v>5574</v>
       </c>
@@ -57019,7 +56857,7 @@
         <v>4817</v>
       </c>
     </row>
-    <row r="817" spans="1:15" ht="14.25">
+    <row r="817" spans="1:15" ht="14.25" hidden="1">
       <c r="A817" s="3" t="s">
         <v>5582</v>
       </c>
@@ -57066,7 +56904,7 @@
         <v>5589</v>
       </c>
     </row>
-    <row r="818" spans="1:15" ht="14.25">
+    <row r="818" spans="1:15" ht="14.25" hidden="1">
       <c r="A818" s="3" t="s">
         <v>5582</v>
       </c>
@@ -57110,7 +56948,7 @@
         <v>5595</v>
       </c>
     </row>
-    <row r="819" spans="1:15" ht="14.25">
+    <row r="819" spans="1:15" ht="14.25" hidden="1">
       <c r="A819" s="3" t="s">
         <v>5596</v>
       </c>
@@ -57157,7 +56995,7 @@
         <v>5548</v>
       </c>
     </row>
-    <row r="820" spans="1:15" ht="14.25">
+    <row r="820" spans="1:15" ht="14.25" hidden="1">
       <c r="A820" s="3" t="s">
         <v>5603</v>
       </c>
@@ -57201,7 +57039,7 @@
         <v>5609</v>
       </c>
     </row>
-    <row r="821" spans="1:15" ht="14.25">
+    <row r="821" spans="1:15" ht="14.25" hidden="1">
       <c r="A821" s="3" t="s">
         <v>5610</v>
       </c>
@@ -57245,7 +57083,7 @@
         <v>5616</v>
       </c>
     </row>
-    <row r="822" spans="1:15" ht="14.25">
+    <row r="822" spans="1:15" ht="14.25" hidden="1">
       <c r="A822" s="3" t="s">
         <v>5617</v>
       </c>
@@ -57292,7 +57130,7 @@
         <v>5621</v>
       </c>
     </row>
-    <row r="823" spans="1:15" ht="14.25">
+    <row r="823" spans="1:15" ht="14.25" hidden="1">
       <c r="A823" s="3" t="s">
         <v>5622</v>
       </c>
@@ -57336,7 +57174,7 @@
         <v>5628</v>
       </c>
     </row>
-    <row r="824" spans="1:15" ht="14.25">
+    <row r="824" spans="1:15" ht="14.25" hidden="1">
       <c r="A824" s="3" t="s">
         <v>5629</v>
       </c>
@@ -57380,7 +57218,7 @@
         <v>5634</v>
       </c>
     </row>
-    <row r="825" spans="1:15" ht="14.25">
+    <row r="825" spans="1:15" ht="14.25" hidden="1">
       <c r="A825" s="3" t="s">
         <v>5635</v>
       </c>
@@ -57424,7 +57262,7 @@
         <v>5639</v>
       </c>
     </row>
-    <row r="826" spans="1:15" ht="14.25">
+    <row r="826" spans="1:15" ht="14.25" hidden="1">
       <c r="A826" s="3" t="s">
         <v>5640</v>
       </c>
@@ -57471,7 +57309,7 @@
         <v>5647</v>
       </c>
     </row>
-    <row r="827" spans="1:15" ht="14.25">
+    <row r="827" spans="1:15" ht="14.25" hidden="1">
       <c r="A827" s="3" t="s">
         <v>5648</v>
       </c>
@@ -57518,7 +57356,7 @@
         <v>5653</v>
       </c>
     </row>
-    <row r="828" spans="1:15" ht="14.25">
+    <row r="828" spans="1:15" ht="14.25" hidden="1">
       <c r="A828" s="3" t="s">
         <v>5654</v>
       </c>
@@ -57562,7 +57400,7 @@
         <v>5659</v>
       </c>
     </row>
-    <row r="829" spans="1:15" ht="14.25">
+    <row r="829" spans="1:15" ht="14.25" hidden="1">
       <c r="A829" s="3" t="s">
         <v>5660</v>
       </c>
@@ -57609,7 +57447,7 @@
         <v>5065</v>
       </c>
     </row>
-    <row r="830" spans="1:15" ht="14.25">
+    <row r="830" spans="1:15" ht="14.25" hidden="1">
       <c r="A830" s="3" t="s">
         <v>5660</v>
       </c>
@@ -57656,7 +57494,7 @@
         <v>5065</v>
       </c>
     </row>
-    <row r="831" spans="1:15" ht="14.25">
+    <row r="831" spans="1:15" ht="14.25" hidden="1">
       <c r="A831" s="3" t="s">
         <v>5667</v>
       </c>
@@ -57703,7 +57541,7 @@
         <v>5673</v>
       </c>
     </row>
-    <row r="832" spans="1:15" ht="14.25">
+    <row r="832" spans="1:15" ht="14.25" hidden="1">
       <c r="A832" s="3" t="s">
         <v>5674</v>
       </c>
@@ -57747,7 +57585,7 @@
         <v>5680</v>
       </c>
     </row>
-    <row r="833" spans="1:15" ht="14.25">
+    <row r="833" spans="1:15" ht="14.25" hidden="1">
       <c r="A833" s="3" t="s">
         <v>5681</v>
       </c>
@@ -57794,7 +57632,7 @@
         <v>5685</v>
       </c>
     </row>
-    <row r="834" spans="1:15" ht="14.25">
+    <row r="834" spans="1:15" ht="14.25" hidden="1">
       <c r="A834" s="3" t="s">
         <v>5686</v>
       </c>
@@ -57838,7 +57676,7 @@
         <v>5692</v>
       </c>
     </row>
-    <row r="835" spans="1:15" ht="14.25">
+    <row r="835" spans="1:15" ht="14.25" hidden="1">
       <c r="A835" s="3" t="s">
         <v>5693</v>
       </c>
@@ -57885,7 +57723,7 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="836" spans="1:15" ht="14.25">
+    <row r="836" spans="1:15" ht="14.25" hidden="1">
       <c r="A836" s="3" t="s">
         <v>5700</v>
       </c>
@@ -57932,7 +57770,7 @@
         <v>5707</v>
       </c>
     </row>
-    <row r="837" spans="1:15" ht="14.25">
+    <row r="837" spans="1:15" ht="14.25" hidden="1">
       <c r="A837" s="3" t="s">
         <v>5708</v>
       </c>
@@ -57976,7 +57814,7 @@
         <v>5714</v>
       </c>
     </row>
-    <row r="838" spans="1:15" ht="14.25">
+    <row r="838" spans="1:15" ht="14.25" hidden="1">
       <c r="A838" s="3" t="s">
         <v>5715</v>
       </c>
@@ -58023,7 +57861,7 @@
         <v>5721</v>
       </c>
     </row>
-    <row r="839" spans="1:15" ht="14.25">
+    <row r="839" spans="1:15" ht="14.25" hidden="1">
       <c r="A839" s="3" t="s">
         <v>5722</v>
       </c>
@@ -58067,7 +57905,7 @@
         <v>5728</v>
       </c>
     </row>
-    <row r="840" spans="1:15" ht="14.25">
+    <row r="840" spans="1:15" ht="14.25" hidden="1">
       <c r="A840" s="3" t="s">
         <v>5729</v>
       </c>
@@ -58114,7 +57952,7 @@
         <v>5735</v>
       </c>
     </row>
-    <row r="841" spans="1:15" ht="14.25">
+    <row r="841" spans="1:15" ht="14.25" hidden="1">
       <c r="A841" s="3" t="s">
         <v>5736</v>
       </c>
@@ -58161,7 +57999,7 @@
         <v>5741</v>
       </c>
     </row>
-    <row r="842" spans="1:15" ht="14.25">
+    <row r="842" spans="1:15" ht="14.25" hidden="1">
       <c r="A842" s="3" t="s">
         <v>5742</v>
       </c>
@@ -58208,7 +58046,7 @@
         <v>5747</v>
       </c>
     </row>
-    <row r="843" spans="1:15" ht="14.25">
+    <row r="843" spans="1:15" ht="14.25" hidden="1">
       <c r="A843" s="3" t="s">
         <v>5748</v>
       </c>
@@ -58255,7 +58093,7 @@
         <v>5754</v>
       </c>
     </row>
-    <row r="844" spans="1:15" ht="14.25">
+    <row r="844" spans="1:15" ht="14.25" hidden="1">
       <c r="A844" s="3" t="s">
         <v>5755</v>
       </c>
@@ -58302,7 +58140,7 @@
         <v>5761</v>
       </c>
     </row>
-    <row r="845" spans="1:15" ht="14.25">
+    <row r="845" spans="1:15" ht="14.25" hidden="1">
       <c r="A845" s="3" t="s">
         <v>5762</v>
       </c>
@@ -58346,7 +58184,7 @@
         <v>5769</v>
       </c>
     </row>
-    <row r="846" spans="1:15" ht="14.25">
+    <row r="846" spans="1:15" ht="14.25" hidden="1">
       <c r="A846" s="3" t="s">
         <v>5770</v>
       </c>
@@ -58390,7 +58228,7 @@
         <v>5776</v>
       </c>
     </row>
-    <row r="847" spans="1:15" ht="14.25">
+    <row r="847" spans="1:15" ht="14.25" hidden="1">
       <c r="A847" s="3" t="s">
         <v>5777</v>
       </c>
@@ -58437,7 +58275,7 @@
         <v>5782</v>
       </c>
     </row>
-    <row r="848" spans="1:15" ht="14.25">
+    <row r="848" spans="1:15" ht="14.25" hidden="1">
       <c r="A848" s="3" t="s">
         <v>5783</v>
       </c>
@@ -58484,7 +58322,7 @@
         <v>5790</v>
       </c>
     </row>
-    <row r="849" spans="1:15" ht="14.25">
+    <row r="849" spans="1:15" ht="14.25" hidden="1">
       <c r="A849" s="3" t="s">
         <v>5791</v>
       </c>
@@ -58531,7 +58369,7 @@
         <v>5797</v>
       </c>
     </row>
-    <row r="850" spans="1:15" ht="14.25">
+    <row r="850" spans="1:15" ht="14.25" hidden="1">
       <c r="A850" s="3" t="s">
         <v>5798</v>
       </c>
@@ -58575,7 +58413,7 @@
         <v>5804</v>
       </c>
     </row>
-    <row r="851" spans="1:15" ht="14.25">
+    <row r="851" spans="1:15" ht="14.25" hidden="1">
       <c r="A851" s="3" t="s">
         <v>5805</v>
       </c>
@@ -58622,7 +58460,7 @@
         <v>5810</v>
       </c>
     </row>
-    <row r="852" spans="1:15" ht="14.25">
+    <row r="852" spans="1:15" ht="14.25" hidden="1">
       <c r="A852" s="3" t="s">
         <v>5811</v>
       </c>
@@ -58666,7 +58504,7 @@
         <v>5817</v>
       </c>
     </row>
-    <row r="853" spans="1:15" ht="14.25">
+    <row r="853" spans="1:15" ht="14.25" hidden="1">
       <c r="A853" s="3" t="s">
         <v>5818</v>
       </c>
@@ -58710,7 +58548,7 @@
         <v>5824</v>
       </c>
     </row>
-    <row r="854" spans="1:15" ht="14.25">
+    <row r="854" spans="1:15" ht="14.25" hidden="1">
       <c r="A854" s="3" t="s">
         <v>5825</v>
       </c>
@@ -58757,7 +58595,7 @@
         <v>5831</v>
       </c>
     </row>
-    <row r="855" spans="1:15" ht="14.25">
+    <row r="855" spans="1:15" ht="14.25" hidden="1">
       <c r="A855" s="3" t="s">
         <v>5832</v>
       </c>
@@ -58801,7 +58639,7 @@
         <v>5839</v>
       </c>
     </row>
-    <row r="856" spans="1:15" ht="14.25">
+    <row r="856" spans="1:15" ht="14.25" hidden="1">
       <c r="A856" s="3" t="s">
         <v>5840</v>
       </c>
@@ -58848,7 +58686,7 @@
         <v>5846</v>
       </c>
     </row>
-    <row r="857" spans="1:15" ht="14.25">
+    <row r="857" spans="1:15" ht="14.25" hidden="1">
       <c r="A857" s="3" t="s">
         <v>5847</v>
       </c>
@@ -58892,7 +58730,7 @@
         <v>5853</v>
       </c>
     </row>
-    <row r="858" spans="1:15" ht="14.25">
+    <row r="858" spans="1:15" ht="14.25" hidden="1">
       <c r="A858" s="3" t="s">
         <v>5854</v>
       </c>
@@ -58936,7 +58774,7 @@
         <v>5861</v>
       </c>
     </row>
-    <row r="859" spans="1:15" ht="14.25">
+    <row r="859" spans="1:15" ht="14.25" hidden="1">
       <c r="A859" s="3" t="s">
         <v>5862</v>
       </c>
@@ -58983,7 +58821,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="860" spans="1:15" ht="14.25">
+    <row r="860" spans="1:15" ht="14.25" hidden="1">
       <c r="A860" s="3" t="s">
         <v>5866</v>
       </c>
@@ -59030,7 +58868,7 @@
         <v>5874</v>
       </c>
     </row>
-    <row r="861" spans="1:15" ht="14.25">
+    <row r="861" spans="1:15" ht="14.25" hidden="1">
       <c r="A861" s="3" t="s">
         <v>5875</v>
       </c>
@@ -59074,7 +58912,7 @@
         <v>4806</v>
       </c>
     </row>
-    <row r="862" spans="1:15" ht="14.25">
+    <row r="862" spans="1:15" ht="14.25" hidden="1">
       <c r="A862" s="3" t="s">
         <v>5882</v>
       </c>
@@ -59118,7 +58956,7 @@
         <v>5888</v>
       </c>
     </row>
-    <row r="863" spans="1:15" ht="14.25">
+    <row r="863" spans="1:15" ht="14.25" hidden="1">
       <c r="A863" s="3" t="s">
         <v>5889</v>
       </c>
@@ -59165,7 +59003,7 @@
         <v>5895</v>
       </c>
     </row>
-    <row r="864" spans="1:15" ht="14.25">
+    <row r="864" spans="1:15" ht="14.25" hidden="1">
       <c r="A864" s="3" t="s">
         <v>5896</v>
       </c>
@@ -59212,7 +59050,7 @@
         <v>5904</v>
       </c>
     </row>
-    <row r="865" spans="1:15" ht="14.25">
+    <row r="865" spans="1:15" ht="14.25" hidden="1">
       <c r="A865" s="3" t="s">
         <v>5905</v>
       </c>
@@ -59259,7 +59097,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="866" spans="1:15" ht="14.25">
+    <row r="866" spans="1:15" ht="14.25" hidden="1">
       <c r="A866" s="3" t="s">
         <v>5912</v>
       </c>
@@ -59306,7 +59144,7 @@
         <v>3952</v>
       </c>
     </row>
-    <row r="867" spans="1:15" ht="14.25">
+    <row r="867" spans="1:15" ht="14.25" hidden="1">
       <c r="A867" s="3" t="s">
         <v>5917</v>
       </c>
@@ -59350,7 +59188,7 @@
         <v>5923</v>
       </c>
     </row>
-    <row r="868" spans="1:15" ht="14.25">
+    <row r="868" spans="1:15" ht="14.25" hidden="1">
       <c r="A868" s="3" t="s">
         <v>5924</v>
       </c>
@@ -59394,7 +59232,7 @@
         <v>5931</v>
       </c>
     </row>
-    <row r="869" spans="1:15" ht="14.25">
+    <row r="869" spans="1:15" ht="14.25" hidden="1">
       <c r="A869" s="3" t="s">
         <v>5932</v>
       </c>
@@ -59441,7 +59279,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="870" spans="1:15" ht="14.25">
+    <row r="870" spans="1:15" ht="14.25" hidden="1">
       <c r="A870" s="3" t="s">
         <v>5936</v>
       </c>
@@ -59485,7 +59323,7 @@
         <v>5941</v>
       </c>
     </row>
-    <row r="871" spans="1:15" ht="14.25">
+    <row r="871" spans="1:15" ht="14.25" hidden="1">
       <c r="A871" s="3" t="s">
         <v>5942</v>
       </c>
@@ -59532,7 +59370,7 @@
         <v>5947</v>
       </c>
     </row>
-    <row r="872" spans="1:15" ht="14.25">
+    <row r="872" spans="1:15" ht="14.25" hidden="1">
       <c r="A872" s="3" t="s">
         <v>5948</v>
       </c>
@@ -59579,7 +59417,7 @@
         <v>5954</v>
       </c>
     </row>
-    <row r="873" spans="1:15" ht="14.25">
+    <row r="873" spans="1:15" ht="14.25" hidden="1">
       <c r="A873" s="3" t="s">
         <v>5955</v>
       </c>
@@ -59626,7 +59464,7 @@
         <v>5959</v>
       </c>
     </row>
-    <row r="874" spans="1:15" ht="14.25">
+    <row r="874" spans="1:15" ht="14.25" hidden="1">
       <c r="A874" s="3" t="s">
         <v>5955</v>
       </c>
@@ -59673,7 +59511,7 @@
         <v>5968</v>
       </c>
     </row>
-    <row r="875" spans="1:15" ht="14.25">
+    <row r="875" spans="1:15" ht="14.25" hidden="1">
       <c r="A875" s="3" t="s">
         <v>5955</v>
       </c>
@@ -59720,7 +59558,7 @@
         <v>5968</v>
       </c>
     </row>
-    <row r="876" spans="1:15" ht="14.25">
+    <row r="876" spans="1:15" ht="14.25" hidden="1">
       <c r="A876" s="3" t="s">
         <v>5973</v>
       </c>
@@ -59767,7 +59605,7 @@
         <v>5981</v>
       </c>
     </row>
-    <row r="877" spans="1:15" ht="14.25">
+    <row r="877" spans="1:15" ht="14.25" hidden="1">
       <c r="A877" s="3" t="s">
         <v>5973</v>
       </c>
@@ -59814,7 +59652,7 @@
         <v>5981</v>
       </c>
     </row>
-    <row r="878" spans="1:15" ht="14.25">
+    <row r="878" spans="1:15" ht="14.25" hidden="1">
       <c r="A878" s="3" t="s">
         <v>5988</v>
       </c>
@@ -59861,7 +59699,7 @@
         <v>5994</v>
       </c>
     </row>
-    <row r="879" spans="1:15" ht="14.25">
+    <row r="879" spans="1:15" ht="14.25" hidden="1">
       <c r="A879" s="3" t="s">
         <v>5988</v>
       </c>
@@ -59908,7 +59746,7 @@
         <v>5998</v>
       </c>
     </row>
-    <row r="880" spans="1:15" ht="14.25">
+    <row r="880" spans="1:15" ht="14.25" hidden="1">
       <c r="A880" s="3" t="s">
         <v>5999</v>
       </c>
@@ -59955,7 +59793,7 @@
         <v>6004</v>
       </c>
     </row>
-    <row r="881" spans="1:15" ht="14.25">
+    <row r="881" spans="1:15" ht="14.25" hidden="1">
       <c r="A881" s="3" t="s">
         <v>5999</v>
       </c>
@@ -60002,7 +59840,7 @@
         <v>6009</v>
       </c>
     </row>
-    <row r="882" spans="1:15" ht="14.25">
+    <row r="882" spans="1:15" ht="14.25" hidden="1">
       <c r="A882" s="3" t="s">
         <v>6010</v>
       </c>
@@ -60049,7 +59887,7 @@
         <v>6015</v>
       </c>
     </row>
-    <row r="883" spans="1:15" ht="14.25">
+    <row r="883" spans="1:15" ht="14.25" hidden="1">
       <c r="A883" s="3" t="s">
         <v>6016</v>
       </c>
@@ -60096,7 +59934,7 @@
         <v>6020</v>
       </c>
     </row>
-    <row r="884" spans="1:15" ht="14.25">
+    <row r="884" spans="1:15" ht="14.25" hidden="1">
       <c r="A884" s="3" t="s">
         <v>6021</v>
       </c>
@@ -60140,7 +59978,7 @@
         <v>6027</v>
       </c>
     </row>
-    <row r="885" spans="1:15" ht="14.25">
+    <row r="885" spans="1:15" ht="14.25" hidden="1">
       <c r="A885" s="3" t="s">
         <v>6028</v>
       </c>
@@ -60187,7 +60025,7 @@
         <v>6035</v>
       </c>
     </row>
-    <row r="886" spans="1:15" ht="14.25">
+    <row r="886" spans="1:15" ht="14.25" hidden="1">
       <c r="A886" s="3" t="s">
         <v>6028</v>
       </c>
@@ -60234,7 +60072,7 @@
         <v>6035</v>
       </c>
     </row>
-    <row r="887" spans="1:15" ht="14.25">
+    <row r="887" spans="1:15" ht="14.25" hidden="1">
       <c r="A887" s="3" t="s">
         <v>6040</v>
       </c>
@@ -60281,7 +60119,7 @@
         <v>6045</v>
       </c>
     </row>
-    <row r="888" spans="1:15" ht="14.25">
+    <row r="888" spans="1:15" ht="14.25" hidden="1">
       <c r="A888" s="3" t="s">
         <v>6046</v>
       </c>
@@ -60328,7 +60166,7 @@
         <v>6051</v>
       </c>
     </row>
-    <row r="889" spans="1:15" ht="14.25">
+    <row r="889" spans="1:15" ht="14.25" hidden="1">
       <c r="A889" s="3" t="s">
         <v>6052</v>
       </c>
@@ -60375,7 +60213,7 @@
         <v>6057</v>
       </c>
     </row>
-    <row r="890" spans="1:15" ht="14.25">
+    <row r="890" spans="1:15" ht="14.25" hidden="1">
       <c r="A890" s="3" t="s">
         <v>6058</v>
       </c>
@@ -60422,7 +60260,7 @@
         <v>6063</v>
       </c>
     </row>
-    <row r="891" spans="1:15" ht="14.25">
+    <row r="891" spans="1:15" ht="14.25" hidden="1">
       <c r="A891" s="3" t="s">
         <v>6064</v>
       </c>
@@ -60466,7 +60304,7 @@
         <v>6071</v>
       </c>
     </row>
-    <row r="892" spans="1:15" ht="14.25">
+    <row r="892" spans="1:15" ht="14.25" hidden="1">
       <c r="A892" s="3" t="s">
         <v>6072</v>
       </c>
@@ -60513,7 +60351,7 @@
         <v>6078</v>
       </c>
     </row>
-    <row r="893" spans="1:15" ht="14.25">
+    <row r="893" spans="1:15" ht="14.25" hidden="1">
       <c r="A893" s="3" t="s">
         <v>6079</v>
       </c>
@@ -60560,7 +60398,7 @@
         <v>6083</v>
       </c>
     </row>
-    <row r="894" spans="1:15" ht="14.25">
+    <row r="894" spans="1:15" ht="14.25" hidden="1">
       <c r="A894" s="3" t="s">
         <v>6079</v>
       </c>
@@ -60604,7 +60442,7 @@
         <v>6083</v>
       </c>
     </row>
-    <row r="895" spans="1:15" ht="14.25">
+    <row r="895" spans="1:15" ht="14.25" hidden="1">
       <c r="A895" s="3" t="s">
         <v>6090</v>
       </c>
@@ -60651,7 +60489,7 @@
         <v>6095</v>
       </c>
     </row>
-    <row r="896" spans="1:15" ht="14.25">
+    <row r="896" spans="1:15" ht="14.25" hidden="1">
       <c r="A896" s="3" t="s">
         <v>6096</v>
       </c>
@@ -60698,7 +60536,7 @@
         <v>6102</v>
       </c>
     </row>
-    <row r="897" spans="1:15" ht="14.25">
+    <row r="897" spans="1:15" ht="14.25" hidden="1">
       <c r="A897" s="3" t="s">
         <v>6096</v>
       </c>
@@ -60745,7 +60583,7 @@
         <v>6105</v>
       </c>
     </row>
-    <row r="898" spans="1:15" ht="14.25">
+    <row r="898" spans="1:15" ht="14.25" hidden="1">
       <c r="A898" s="3" t="s">
         <v>6106</v>
       </c>
@@ -60792,7 +60630,7 @@
         <v>6110</v>
       </c>
     </row>
-    <row r="899" spans="1:15" ht="14.25">
+    <row r="899" spans="1:15" ht="14.25" hidden="1">
       <c r="A899" s="3" t="s">
         <v>6111</v>
       </c>
@@ -60839,7 +60677,7 @@
         <v>6116</v>
       </c>
     </row>
-    <row r="900" spans="1:15" ht="14.25">
+    <row r="900" spans="1:15" ht="14.25" hidden="1">
       <c r="A900" s="3" t="s">
         <v>6117</v>
       </c>
@@ -60886,7 +60724,7 @@
         <v>6124</v>
       </c>
     </row>
-    <row r="901" spans="1:15" ht="14.25">
+    <row r="901" spans="1:15" ht="14.25" hidden="1">
       <c r="A901" s="3" t="s">
         <v>6117</v>
       </c>
@@ -60930,7 +60768,7 @@
         <v>6124</v>
       </c>
     </row>
-    <row r="902" spans="1:15" ht="14.25">
+    <row r="902" spans="1:15" ht="14.25" hidden="1">
       <c r="A902" s="3" t="s">
         <v>6128</v>
       </c>
@@ -60977,7 +60815,7 @@
         <v>6134</v>
       </c>
     </row>
-    <row r="903" spans="1:15" ht="14.25">
+    <row r="903" spans="1:15" ht="14.25" hidden="1">
       <c r="A903" s="3" t="s">
         <v>6135</v>
       </c>
@@ -61024,7 +60862,7 @@
         <v>6141</v>
       </c>
     </row>
-    <row r="904" spans="1:15" ht="14.25">
+    <row r="904" spans="1:15" ht="14.25" hidden="1">
       <c r="A904" s="3" t="s">
         <v>6135</v>
       </c>
@@ -61068,7 +60906,7 @@
         <v>6141</v>
       </c>
     </row>
-    <row r="905" spans="1:15" ht="14.25">
+    <row r="905" spans="1:15" ht="14.25" hidden="1">
       <c r="A905" s="3" t="s">
         <v>6147</v>
       </c>
@@ -61112,7 +60950,7 @@
         <v>6153</v>
       </c>
     </row>
-    <row r="906" spans="1:15" ht="14.25">
+    <row r="906" spans="1:15" ht="14.25" hidden="1">
       <c r="A906" s="3" t="s">
         <v>6154</v>
       </c>
@@ -61159,7 +60997,7 @@
         <v>6161</v>
       </c>
     </row>
-    <row r="907" spans="1:15" ht="14.25">
+    <row r="907" spans="1:15" ht="14.25" hidden="1">
       <c r="A907" s="3" t="s">
         <v>6162</v>
       </c>
@@ -61203,7 +61041,7 @@
         <v>6167</v>
       </c>
     </row>
-    <row r="908" spans="1:15" ht="14.25">
+    <row r="908" spans="1:15" ht="14.25" hidden="1">
       <c r="A908" s="3" t="s">
         <v>6168</v>
       </c>
@@ -61247,7 +61085,7 @@
         <v>6176</v>
       </c>
     </row>
-    <row r="909" spans="1:15" ht="14.25">
+    <row r="909" spans="1:15" ht="14.25" hidden="1">
       <c r="A909" s="3" t="s">
         <v>6177</v>
       </c>
@@ -61294,7 +61132,7 @@
         <v>6182</v>
       </c>
     </row>
-    <row r="910" spans="1:15" ht="14.25">
+    <row r="910" spans="1:15" ht="14.25" hidden="1">
       <c r="A910" s="3" t="s">
         <v>6183</v>
       </c>
@@ -61338,7 +61176,7 @@
         <v>6188</v>
       </c>
     </row>
-    <row r="911" spans="1:15" ht="14.25">
+    <row r="911" spans="1:15" ht="14.25" hidden="1">
       <c r="A911" s="3" t="s">
         <v>6189</v>
       </c>
@@ -61382,7 +61220,7 @@
         <v>5024</v>
       </c>
     </row>
-    <row r="912" spans="1:15" ht="14.25">
+    <row r="912" spans="1:15" ht="14.25" hidden="1">
       <c r="A912" s="3" t="s">
         <v>6194</v>
       </c>
@@ -61426,7 +61264,7 @@
         <v>6201</v>
       </c>
     </row>
-    <row r="913" spans="1:15" ht="14.25">
+    <row r="913" spans="1:15" ht="14.25" hidden="1">
       <c r="A913" s="3" t="s">
         <v>6202</v>
       </c>
@@ -61473,7 +61311,7 @@
         <v>6208</v>
       </c>
     </row>
-    <row r="914" spans="1:15" ht="14.25">
+    <row r="914" spans="1:15" ht="14.25" hidden="1">
       <c r="A914" s="3" t="s">
         <v>6209</v>
       </c>
@@ -61520,7 +61358,7 @@
         <v>6215</v>
       </c>
     </row>
-    <row r="915" spans="1:15" ht="14.25">
+    <row r="915" spans="1:15" ht="14.25" hidden="1">
       <c r="A915" s="3" t="s">
         <v>6209</v>
       </c>
@@ -61567,7 +61405,7 @@
         <v>6220</v>
       </c>
     </row>
-    <row r="916" spans="1:15" ht="14.25">
+    <row r="916" spans="1:15" ht="14.25" hidden="1">
       <c r="A916" s="3" t="s">
         <v>6221</v>
       </c>
@@ -61614,7 +61452,7 @@
         <v>6227</v>
       </c>
     </row>
-    <row r="917" spans="1:15" ht="14.25">
+    <row r="917" spans="1:15" ht="14.25" hidden="1">
       <c r="A917" s="3" t="s">
         <v>6228</v>
       </c>
@@ -61661,7 +61499,7 @@
         <v>6234</v>
       </c>
     </row>
-    <row r="918" spans="1:15" ht="14.25">
+    <row r="918" spans="1:15" ht="14.25" hidden="1">
       <c r="A918" s="3" t="s">
         <v>6235</v>
       </c>
@@ -61705,7 +61543,7 @@
         <v>6242</v>
       </c>
     </row>
-    <row r="919" spans="1:15" ht="14.25">
+    <row r="919" spans="1:15" ht="14.25" hidden="1">
       <c r="A919" s="3" t="s">
         <v>6243</v>
       </c>
@@ -61749,7 +61587,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="920" spans="1:15" ht="14.25">
+    <row r="920" spans="1:15" ht="14.25" hidden="1">
       <c r="A920" s="3" t="s">
         <v>6243</v>
       </c>
@@ -61793,7 +61631,7 @@
         <v>6254</v>
       </c>
     </row>
-    <row r="921" spans="1:15" ht="14.25">
+    <row r="921" spans="1:15" ht="14.25" hidden="1">
       <c r="A921" s="3" t="s">
         <v>6255</v>
       </c>
@@ -61837,7 +61675,7 @@
         <v>6261</v>
       </c>
     </row>
-    <row r="922" spans="1:15" ht="14.25">
+    <row r="922" spans="1:15" ht="14.25" hidden="1">
       <c r="A922" s="3" t="s">
         <v>6262</v>
       </c>
@@ -61881,7 +61719,7 @@
         <v>6267</v>
       </c>
     </row>
-    <row r="923" spans="1:15" ht="14.25">
+    <row r="923" spans="1:15" ht="14.25" hidden="1">
       <c r="A923" s="3" t="s">
         <v>6268</v>
       </c>
@@ -61925,7 +61763,7 @@
         <v>6273</v>
       </c>
     </row>
-    <row r="924" spans="1:15" ht="14.25">
+    <row r="924" spans="1:15" ht="14.25" hidden="1">
       <c r="A924" s="3" t="s">
         <v>6274</v>
       </c>
@@ -62060,7 +61898,7 @@
         <v>4829</v>
       </c>
     </row>
-    <row r="927" spans="1:15" ht="14.25">
+    <row r="927" spans="1:15" ht="14.25" hidden="1">
       <c r="A927" s="3" t="s">
         <v>6293</v>
       </c>
@@ -62104,7 +61942,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="928" spans="1:15" ht="14.25">
+    <row r="928" spans="1:15" ht="14.25" hidden="1">
       <c r="A928" s="3" t="s">
         <v>6301</v>
       </c>
@@ -62148,7 +61986,7 @@
         <v>6307</v>
       </c>
     </row>
-    <row r="929" spans="1:27" ht="14.25">
+    <row r="929" spans="1:27" ht="14.25" hidden="1">
       <c r="A929" s="3" t="s">
         <v>6308</v>
       </c>
@@ -62192,7 +62030,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="930" spans="1:27" ht="14.25">
+    <row r="930" spans="1:27" ht="14.25" hidden="1">
       <c r="A930" s="3" t="s">
         <v>6312</v>
       </c>
@@ -62239,7 +62077,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="931" spans="1:27" ht="14.25">
+    <row r="931" spans="1:27" ht="14.25" hidden="1">
       <c r="A931" s="3" t="s">
         <v>6312</v>
       </c>
@@ -62286,7 +62124,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="932" spans="1:27" ht="14.25">
+    <row r="932" spans="1:27" ht="14.25" hidden="1">
       <c r="A932" s="3" t="s">
         <v>6312</v>
       </c>
@@ -62333,7 +62171,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="933" spans="1:27" ht="14.25">
+    <row r="933" spans="1:27" ht="14.25" hidden="1">
       <c r="A933" s="3" t="s">
         <v>6320</v>
       </c>
@@ -62377,7 +62215,7 @@
         <v>6325</v>
       </c>
     </row>
-    <row r="934" spans="1:27" ht="14.25">
+    <row r="934" spans="1:27" ht="14.25" hidden="1">
       <c r="A934" s="3" t="s">
         <v>6326</v>
       </c>
@@ -62421,7 +62259,7 @@
         <v>5994</v>
       </c>
     </row>
-    <row r="935" spans="1:27" ht="14.25">
+    <row r="935" spans="1:27" ht="14.25" hidden="1">
       <c r="A935" s="3" t="s">
         <v>6332</v>
       </c>
@@ -62468,7 +62306,7 @@
         <v>6339</v>
       </c>
     </row>
-    <row r="936" spans="1:27" ht="14.25">
+    <row r="936" spans="1:27" ht="14.25" hidden="1">
       <c r="A936" s="3" t="s">
         <v>6340</v>
       </c>
@@ -62515,7 +62353,7 @@
         <v>6346</v>
       </c>
     </row>
-    <row r="937" spans="1:27" ht="14.25">
+    <row r="937" spans="1:27" ht="14.25" hidden="1">
       <c r="A937" s="3" t="s">
         <v>6347</v>
       </c>
@@ -62562,7 +62400,7 @@
         <v>6353</v>
       </c>
     </row>
-    <row r="938" spans="1:27" ht="14.25">
+    <row r="938" spans="1:27" ht="14.25" hidden="1">
       <c r="A938" s="3" t="s">
         <v>6354</v>
       </c>
@@ -62609,7 +62447,7 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="939" spans="1:27" ht="14.25">
+    <row r="939" spans="1:27" ht="14.25" hidden="1">
       <c r="A939" s="3" t="s">
         <v>6361</v>
       </c>
@@ -62653,7 +62491,7 @@
         <v>6367</v>
       </c>
     </row>
-    <row r="940" spans="1:27" ht="14.25">
+    <row r="940" spans="1:27" ht="14.25" hidden="1">
       <c r="A940" s="3" t="s">
         <v>6368</v>
       </c>
@@ -62700,7 +62538,7 @@
         <v>6373</v>
       </c>
     </row>
-    <row r="941" spans="1:27" ht="14.25">
+    <row r="941" spans="1:27" ht="14.25" hidden="1">
       <c r="A941" s="3" t="s">
         <v>6374</v>
       </c>
@@ -62744,7 +62582,7 @@
         <v>6378</v>
       </c>
     </row>
-    <row r="942" spans="1:27" ht="14.25">
+    <row r="942" spans="1:27" ht="14.25" hidden="1">
       <c r="A942" s="3" t="s">
         <v>6379</v>
       </c>
@@ -62803,19 +62641,19 @@
       <c r="Z942" s="3"/>
       <c r="AA942" s="3"/>
     </row>
-    <row r="943" spans="1:27" ht="14.25">
+    <row r="943" spans="1:27" ht="14.25" hidden="1">
       <c r="A943" s="8" t="s">
         <v>3771</v>
       </c>
       <c r="F943" s="4"/>
     </row>
-    <row r="944" spans="1:27" ht="14.25">
+    <row r="944" spans="1:27" ht="14.25" hidden="1">
       <c r="A944" s="8" t="s">
         <v>3778</v>
       </c>
       <c r="F944" s="4"/>
     </row>
-    <row r="945" spans="1:15" ht="14.25">
+    <row r="945" spans="1:15" ht="14.25" hidden="1">
       <c r="A945" s="3" t="s">
         <v>6386</v>
       </c>
@@ -62841,7 +62679,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="946" spans="1:15" ht="14.25">
+    <row r="946" spans="1:15" ht="14.25" hidden="1">
       <c r="A946" s="3" t="s">
         <v>6390</v>
       </c>
@@ -62864,7 +62702,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="947" spans="1:15" ht="14.25">
+    <row r="947" spans="1:15" ht="14.25" hidden="1">
       <c r="A947" s="3" t="s">
         <v>6393</v>
       </c>
@@ -62890,7 +62728,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="948" spans="1:15" ht="14.25">
+    <row r="948" spans="1:15" ht="14.25" hidden="1">
       <c r="A948" s="9" t="s">
         <v>6397</v>
       </c>
@@ -62931,7 +62769,7 @@
         <v>6407</v>
       </c>
     </row>
-    <row r="949" spans="1:15" ht="14.25">
+    <row r="949" spans="1:15" ht="14.25" hidden="1">
       <c r="A949" s="9" t="s">
         <v>6408</v>
       </c>
@@ -62972,7 +62810,7 @@
         <v>6416</v>
       </c>
     </row>
-    <row r="950" spans="1:15" ht="14.25">
+    <row r="950" spans="1:15" ht="14.25" hidden="1">
       <c r="A950" s="9" t="s">
         <v>6417</v>
       </c>
@@ -63016,7 +62854,7 @@
         <v>6423</v>
       </c>
     </row>
-    <row r="951" spans="1:15" ht="14.25">
+    <row r="951" spans="1:15" ht="14.25" hidden="1">
       <c r="A951" s="9" t="s">
         <v>6417</v>
       </c>
@@ -63060,7 +62898,7 @@
         <v>6429</v>
       </c>
     </row>
-    <row r="952" spans="1:15" ht="14.25">
+    <row r="952" spans="1:15" ht="14.25" hidden="1">
       <c r="A952" s="9" t="s">
         <v>6430</v>
       </c>
@@ -63104,7 +62942,7 @@
         <v>6437</v>
       </c>
     </row>
-    <row r="953" spans="1:15" ht="14.25">
+    <row r="953" spans="1:15" ht="14.25" hidden="1">
       <c r="A953" s="9" t="s">
         <v>6438</v>
       </c>
@@ -66822,13 +66660,143 @@
       <c r="F2177" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA953" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AA953" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="SPHERE - CAJAMAR"/>
+        <filter val="SPHERE - SÃO JOSE DOS CAMPOS"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1981C9-05C1-4F20-8978-DF22F2717028}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="59.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>6471</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6472</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>5841</v>
+      </c>
+      <c r="B2" s="4">
+        <v>56012628004078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>6041</v>
+      </c>
+      <c r="B3" s="4">
+        <v>56012628003268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>6047</v>
+      </c>
+      <c r="B4" s="4">
+        <v>56012628003349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>6053</v>
+      </c>
+      <c r="B5" s="4">
+        <v>56012628005716</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>6059</v>
+      </c>
+      <c r="B6" s="4">
+        <v>56012628003187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B7" s="4">
+        <v>7549613000121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7549613000202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B9" s="4">
+        <v>7549613000474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B10" s="4">
+        <v>30298376000276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="B11" s="4">
+        <v>30298376000195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>6281</v>
+      </c>
+      <c r="B12" s="4">
+        <v>23141033000319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>6287</v>
+      </c>
+      <c r="B13" s="4">
+        <v>23141033000238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
@@ -71420,391 +71388,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:G20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>6463</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6464</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="3" t="s">
-        <v>6465</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="3" t="s">
-        <v>6467</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6468</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="3" t="s">
-        <v>6469</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="3" t="s">
-        <v>6471</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6472</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>6473</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6474</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.25">
-      <c r="A7" s="3" t="s">
-        <v>6475</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6476</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25">
-      <c r="A8" s="3" t="s">
-        <v>6477</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6478</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25">
-      <c r="A9" s="3" t="s">
-        <v>6479</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6480</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.25">
-      <c r="A10" s="3" t="s">
-        <v>6481</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>6482</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.25">
-      <c r="A11" s="3" t="s">
-        <v>6483</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>6484</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.25">
-      <c r="A12" s="3" t="s">
-        <v>6485</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>6486</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>6487</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>6488</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>6489</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>6490</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>6491</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>6492</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="3" t="s">
-        <v>6493</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>6494</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.25">
-      <c r="A17" s="3" t="s">
-        <v>6495</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>6496</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.25">
-      <c r="A18" s="3" t="s">
-        <v>6497</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>6498</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.25">
-      <c r="A19" s="3" t="s">
-        <v>6499</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.25">
-      <c r="A20" s="3" t="s">
-        <v>6501</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>6502</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="25.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>6463</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6503</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25">
-      <c r="A2" s="3" t="s">
-        <v>6484</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25">
-      <c r="A3" s="3" t="s">
-        <v>6486</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6505</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25">
-      <c r="A4" s="3" t="s">
-        <v>6488</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>6490</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6507</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="14.25">
-      <c r="A6" s="3" t="s">
-        <v>6492</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6508</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.25">
-      <c r="A7" s="3" t="s">
-        <v>6466</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.25">
-      <c r="A8" s="3" t="s">
-        <v>6468</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6510</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.25">
-      <c r="A9" s="3" t="s">
-        <v>6470</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6511</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.25">
-      <c r="A10" s="3" t="s">
-        <v>6472</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>6512</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.25">
-      <c r="A11" s="3" t="s">
-        <v>6474</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>6513</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.25">
-      <c r="A12" s="3" t="s">
-        <v>6476</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>6514</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.25">
-      <c r="A13" s="3" t="s">
-        <v>6478</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>6515</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="14.25">
-      <c r="A14" s="3" t="s">
-        <v>6480</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>6516</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.25">
-      <c r="A15" s="3" t="s">
-        <v>6482</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>6517</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.25">
-      <c r="A16" s="3" t="s">
-        <v>6494</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>6518</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.25">
-      <c r="A17" s="3" t="s">
-        <v>6496</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>6519</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.25">
-      <c r="A18" s="3" t="s">
-        <v>6498</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>6520</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>6488</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>6521</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -71816,48 +71409,48 @@
         <v>6463</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6522</v>
+        <v>6469</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>6494</v>
+        <v>6464</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6523</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>6496</v>
+        <v>6465</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6523</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>6498</v>
+        <v>6466</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6523</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25">
       <c r="A5" s="3" t="s">
-        <v>6500</v>
+        <v>6467</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6523</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25">
       <c r="A6" s="3" t="s">
-        <v>6502</v>
+        <v>6468</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6523</v>
+        <v>6470</v>
       </c>
     </row>
   </sheetData>
